--- a/rankings_75.xlsx
+++ b/rankings_75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Python\CFB Rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{023EA3F6-8AFB-431D-AF00-D6F2ECFF2D83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE5B0A09-BC05-46EF-B99D-F186165B59EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="post champ" sheetId="20" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="161">
   <si>
     <t>Team</t>
   </si>
@@ -2820,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F131"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E130" sqref="A1:F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,781 +2855,2601 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.95879152297280401</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.955562699657167</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.916050593793441</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.87771006411901697</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.85574015151707605</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.84448024966517299</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.84306571754594095</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.84111514484595395</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.77349759966657095</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.76832779736052204</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.73282471847862796</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.73001903493635101</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.72347307534937599</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.72306581920114199</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.70167756495131905</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.68649281933075301</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.68593117434629303</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.68156317743661099</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.67189259111482702</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.644120390254315</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.63775169192374803</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.61983242140146899</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.61873454523275195</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.61582466510964695</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.61156022943578803</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.60810808235087799</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.60726682202969795</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.60383888158947996</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.60320163054942</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.59463413022539402</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.59210596538132099</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.58861919199363599</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.58606256369333598</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.583342016381735</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.58141183825640896</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.579152551418471</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.57487286746448996</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.57142485012211297</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.57094052662476702</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.56821191043160202</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.56593839186554995</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.56564257523120198</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.56288771928932801</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.55875924744654804</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.556413553687923</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.55000800534706296</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.54934565817930403</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.54587826281427299</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.52733889556707003</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.51162893140900001</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.50671305532330102</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.50182407550948305</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.49805647962956801</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.48564596797352799</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.485257454502944</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.48190537425632801</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.47356329434009198</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.47301943901577398</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.46732674777057398</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.46010668713324698</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.454987077082597</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.447168521450518</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.430729604789993</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.42623263284428697</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.426085232803116</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.41348125859304102</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.41011551842881699</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.40825109851151298</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.40457727955434297</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.399212680469748</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.39187800359351099</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.39153199470376399</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.389667257113958</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.37808841206952198</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.37327281460378597</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.372203656029297</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.37100463293577601</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0.36996187294624699</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.36053541794265098</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.36013133851944201</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.35826596558463097</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.35602065633680402</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.35287569856183298</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.35278039681107598</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.34673953650311101</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.34645617263086198</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.34405507678779701</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.33777494555093301</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.331270156320285</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.33123743605252498</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.33083303895681399</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.31371430314089099</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.304055788374202</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.298467801985834</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.296459603493889</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0.29483464510898699</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.29263990932355999</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.28703076594652399</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.28444332341348</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" t="s">
+        <v>43</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0.28408181210560901</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.26830683097535601</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.26686015039886901</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.26104140670466802</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.25975286349993698</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0.22086879617369801</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0.220210578748472</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.21386792956311099</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0.211103543446162</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>158</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0.20690010089278599</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" t="s">
+        <v>72</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0.20517640989409999</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0.19055775667302799</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>152</v>
+      </c>
+      <c r="C114" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0.18468176839387301</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0.18209343637782099</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0.16970350989994501</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" t="s">
+        <v>43</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.15984899119920001</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>146</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0.14447237138711</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0.133411268987285</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0.11557497452266501</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>155</v>
+      </c>
+      <c r="C121" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0.111854394173123</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>118</v>
+      </c>
+      <c r="C122" t="s">
+        <v>35</v>
+      </c>
+      <c r="D122" s="4">
+        <v>9.85232676047747E-2</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="4">
+        <v>8.9599338732918699E-2</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>154</v>
+      </c>
+      <c r="C124" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" s="4">
+        <v>8.1628490903130194E-2</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125" t="s">
+        <v>72</v>
+      </c>
+      <c r="D125" s="4">
+        <v>7.4947838175085796E-2</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126" t="s">
+        <v>31</v>
+      </c>
+      <c r="D126" s="4">
+        <v>6.7626122336951505E-2</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" t="s">
+        <v>50</v>
+      </c>
+      <c r="D127" s="4">
+        <v>4.6105716326079398E-2</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>148</v>
+      </c>
+      <c r="C128" t="s">
+        <v>50</v>
+      </c>
+      <c r="D128" s="4">
+        <v>4.4813424585818599E-2</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>160</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="4">
+        <v>4.1305049467962103E-2</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>144</v>
+      </c>
+      <c r="C130" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" s="4">
+        <v>1.2471822449026299E-2</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="D131" s="4"/>
+      <c r="B131" t="s">
+        <v>151</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F132" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
@@ -3641,7 +5461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -11636,9 +13456,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A2,'w7'!$B$2:$B$131,0))</f>
         <v>86</v>
       </c>
-      <c r="E2" t="e">
+      <c r="E2">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A2,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>94</v>
       </c>
       <c r="F2" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A2,'w9'!$B$2:$B$131,0))</f>
@@ -11697,9 +13517,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A3,'w7'!$B$2:$B$131,0))</f>
         <v>104</v>
       </c>
-      <c r="E3" t="e">
+      <c r="E3">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A3,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>97</v>
       </c>
       <c r="F3" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A3,'w9'!$B$2:$B$131,0))</f>
@@ -11758,9 +13578,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A4,'w7'!$B$2:$B$131,0))</f>
         <v>4</v>
       </c>
-      <c r="E4" t="e">
+      <c r="E4">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A4,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="F4" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A4,'w9'!$B$2:$B$131,0))</f>
@@ -11819,9 +13639,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A5,'w7'!$B$2:$B$131,0))</f>
         <v>55</v>
       </c>
-      <c r="E5" t="e">
+      <c r="E5">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A5,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>42</v>
       </c>
       <c r="F5" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A5,'w9'!$B$2:$B$131,0))</f>
@@ -11880,9 +13700,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A6,'w7'!$B$2:$B$131,0))</f>
         <v>56</v>
       </c>
-      <c r="E6" t="e">
+      <c r="E6">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A6,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>63</v>
       </c>
       <c r="F6" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A6,'w9'!$B$2:$B$131,0))</f>
@@ -11941,9 +13761,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A7,'w7'!$B$2:$B$131,0))</f>
         <v>74</v>
       </c>
-      <c r="E7" t="e">
+      <c r="E7">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A7,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>91</v>
       </c>
       <c r="F7" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A7,'w9'!$B$2:$B$131,0))</f>
@@ -12002,9 +13822,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A8,'w7'!$B$2:$B$131,0))</f>
         <v>119</v>
       </c>
-      <c r="E8" t="e">
+      <c r="E8">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A8,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>119</v>
       </c>
       <c r="F8" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A8,'w9'!$B$2:$B$131,0))</f>
@@ -12063,9 +13883,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A9,'w7'!$B$2:$B$131,0))</f>
         <v>59</v>
       </c>
-      <c r="E9" t="e">
+      <c r="E9">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A9,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
       <c r="F9" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A9,'w9'!$B$2:$B$131,0))</f>
@@ -12124,9 +13944,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A10,'w7'!$B$2:$B$131,0))</f>
         <v>38</v>
       </c>
-      <c r="E10" t="e">
+      <c r="E10">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A10,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
       <c r="F10" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A10,'w9'!$B$2:$B$131,0))</f>
@@ -12185,9 +14005,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A11,'w7'!$B$2:$B$131,0))</f>
         <v>49</v>
       </c>
-      <c r="E11" t="e">
+      <c r="E11">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A11,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>72</v>
       </c>
       <c r="F11" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A11,'w9'!$B$2:$B$131,0))</f>
@@ -12246,9 +14066,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A12,'w7'!$B$2:$B$131,0))</f>
         <v>111</v>
       </c>
-      <c r="E12" t="e">
+      <c r="E12">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A12,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>102</v>
       </c>
       <c r="F12" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A12,'w9'!$B$2:$B$131,0))</f>
@@ -12307,9 +14127,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A13,'w7'!$B$2:$B$131,0))</f>
         <v>48</v>
       </c>
-      <c r="E13" t="e">
+      <c r="E13">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A13,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>59</v>
       </c>
       <c r="F13" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A13,'w9'!$B$2:$B$131,0))</f>
@@ -12368,9 +14188,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A14,'w7'!$B$2:$B$131,0))</f>
         <v>57</v>
       </c>
-      <c r="E14" t="e">
+      <c r="E14">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A14,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>54</v>
       </c>
       <c r="F14" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A14,'w9'!$B$2:$B$131,0))</f>
@@ -12429,9 +14249,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A15,'w7'!$B$2:$B$131,0))</f>
         <v>52</v>
       </c>
-      <c r="E15" t="e">
+      <c r="E15">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A15,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>39</v>
       </c>
       <c r="F15" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A15,'w9'!$B$2:$B$131,0))</f>
@@ -12490,9 +14310,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A16,'w7'!$B$2:$B$131,0))</f>
         <v>129</v>
       </c>
-      <c r="E16" t="e">
+      <c r="E16">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A16,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>126</v>
       </c>
       <c r="F16" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A16,'w9'!$B$2:$B$131,0))</f>
@@ -12551,9 +14371,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A17,'w7'!$B$2:$B$131,0))</f>
         <v>36</v>
       </c>
-      <c r="E17" t="e">
+      <c r="E17">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A17,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>25</v>
       </c>
       <c r="F17" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A17,'w9'!$B$2:$B$131,0))</f>
@@ -12612,9 +14432,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A18,'w7'!$B$2:$B$131,0))</f>
         <v>61</v>
       </c>
-      <c r="E18" t="e">
+      <c r="E18">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A18,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>55</v>
       </c>
       <c r="F18" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A18,'w9'!$B$2:$B$131,0))</f>
@@ -12673,9 +14493,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A19,'w7'!$B$2:$B$131,0))</f>
         <v>85</v>
       </c>
-      <c r="E19" t="e">
+      <c r="E19">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A19,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>114</v>
       </c>
       <c r="F19" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A19,'w9'!$B$2:$B$131,0))</f>
@@ -12734,9 +14554,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A20,'w7'!$B$2:$B$131,0))</f>
         <v>123</v>
       </c>
-      <c r="E20" t="e">
+      <c r="E20">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A20,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>123</v>
       </c>
       <c r="F20" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A20,'w9'!$B$2:$B$131,0))</f>
@@ -12795,9 +14615,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A21,'w7'!$B$2:$B$131,0))</f>
         <v>102</v>
       </c>
-      <c r="E21" t="e">
+      <c r="E21">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A21,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>88</v>
       </c>
       <c r="F21" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A21,'w9'!$B$2:$B$131,0))</f>
@@ -12856,9 +14676,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A22,'w7'!$B$2:$B$131,0))</f>
         <v>18</v>
       </c>
-      <c r="E22" t="e">
+      <c r="E22">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A22,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>17</v>
       </c>
       <c r="F22" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A22,'w9'!$B$2:$B$131,0))</f>
@@ -12917,9 +14737,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A23,'w7'!$B$2:$B$131,0))</f>
         <v>2</v>
       </c>
-      <c r="E23" t="e">
+      <c r="E23">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A23,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="F23" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A23,'w9'!$B$2:$B$131,0))</f>
@@ -12978,9 +14798,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A24,'w7'!$B$2:$B$131,0))</f>
         <v>64</v>
       </c>
-      <c r="E24" t="e">
+      <c r="E24">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A24,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>86</v>
       </c>
       <c r="F24" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A24,'w9'!$B$2:$B$131,0))</f>
@@ -13039,9 +14859,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A25,'w7'!$B$2:$B$131,0))</f>
         <v>22</v>
       </c>
-      <c r="E25" t="e">
+      <c r="E25">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A25,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>44</v>
       </c>
       <c r="F25" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A25,'w9'!$B$2:$B$131,0))</f>
@@ -13100,9 +14920,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A26,'w7'!$B$2:$B$131,0))</f>
         <v>91</v>
       </c>
-      <c r="E26" t="e">
+      <c r="E26">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A26,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>79</v>
       </c>
       <c r="F26" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A26,'w9'!$B$2:$B$131,0))</f>
@@ -13161,9 +14981,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A27,'w7'!$B$2:$B$131,0))</f>
         <v>27</v>
       </c>
-      <c r="E27" t="e">
+      <c r="E27">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A27,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>18</v>
       </c>
       <c r="F27" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A27,'w9'!$B$2:$B$131,0))</f>
@@ -13222,9 +15042,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A28,'w7'!$B$2:$B$131,0))</f>
         <v>89</v>
       </c>
-      <c r="E28" t="e">
+      <c r="E28">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A28,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>95</v>
       </c>
       <c r="F28" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A28,'w9'!$B$2:$B$131,0))</f>
@@ -13283,9 +15103,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A29,'w7'!$B$2:$B$131,0))</f>
         <v>95</v>
       </c>
-      <c r="E29" t="e">
+      <c r="E29">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A29,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>73</v>
       </c>
       <c r="F29" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A29,'w9'!$B$2:$B$131,0))</f>
@@ -13344,9 +15164,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A30,'w7'!$B$2:$B$131,0))</f>
         <v>82</v>
       </c>
-      <c r="E30" t="e">
+      <c r="E30">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A30,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>76</v>
       </c>
       <c r="F30" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A30,'w9'!$B$2:$B$131,0))</f>
@@ -13405,9 +15225,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A31,'w7'!$B$2:$B$131,0))</f>
         <v>9</v>
       </c>
-      <c r="E31" t="e">
+      <c r="E31">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A31,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="F31" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A31,'w9'!$B$2:$B$131,0))</f>
@@ -13466,9 +15286,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A32,'w7'!$B$2:$B$131,0))</f>
         <v>80</v>
       </c>
-      <c r="E32" t="e">
+      <c r="E32">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A32,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>64</v>
       </c>
       <c r="F32" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A32,'w9'!$B$2:$B$131,0))</f>
@@ -13527,9 +15347,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A33,'w7'!$B$2:$B$131,0))</f>
         <v>83</v>
       </c>
-      <c r="E33" t="e">
+      <c r="E33">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A33,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>82</v>
       </c>
       <c r="F33" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A33,'w9'!$B$2:$B$131,0))</f>
@@ -13588,9 +15408,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A34,'w7'!$B$2:$B$131,0))</f>
         <v>44</v>
       </c>
-      <c r="E34" t="e">
+      <c r="E34">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A34,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>43</v>
       </c>
       <c r="F34" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A34,'w9'!$B$2:$B$131,0))</f>
@@ -13649,9 +15469,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A35,'w7'!$B$2:$B$131,0))</f>
         <v>5</v>
       </c>
-      <c r="E35" t="e">
+      <c r="E35">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A35,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="F35" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A35,'w9'!$B$2:$B$131,0))</f>
@@ -13710,9 +15530,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A36,'w7'!$B$2:$B$131,0))</f>
         <v>37</v>
       </c>
-      <c r="E36" t="e">
+      <c r="E36">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A36,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
       <c r="F36" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A36,'w9'!$B$2:$B$131,0))</f>
@@ -13771,9 +15591,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A37,'w7'!$B$2:$B$131,0))</f>
         <v>97</v>
       </c>
-      <c r="E37" t="e">
+      <c r="E37">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A37,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>98</v>
       </c>
       <c r="F37" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A37,'w9'!$B$2:$B$131,0))</f>
@@ -13832,9 +15652,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A38,'w7'!$B$2:$B$131,0))</f>
         <v>69</v>
       </c>
-      <c r="E38" t="e">
+      <c r="E38">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A38,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>85</v>
       </c>
       <c r="F38" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A38,'w9'!$B$2:$B$131,0))</f>
@@ -13893,9 +15713,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A39,'w7'!$B$2:$B$131,0))</f>
         <v>34</v>
       </c>
-      <c r="E39" t="e">
+      <c r="E39">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A39,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>51</v>
       </c>
       <c r="F39" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A39,'w9'!$B$2:$B$131,0))</f>
@@ -13954,9 +15774,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A40,'w7'!$B$2:$B$131,0))</f>
         <v>47</v>
       </c>
-      <c r="E40" t="e">
+      <c r="E40">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A40,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>36</v>
       </c>
       <c r="F40" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A40,'w9'!$B$2:$B$131,0))</f>
@@ -14015,9 +15835,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A41,'w7'!$B$2:$B$131,0))</f>
         <v>70</v>
       </c>
-      <c r="E41" t="e">
+      <c r="E41">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A41,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>103</v>
       </c>
       <c r="F41" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A41,'w9'!$B$2:$B$131,0))</f>
@@ -14076,9 +15896,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A42,'w7'!$B$2:$B$131,0))</f>
         <v>46</v>
       </c>
-      <c r="E42" t="e">
+      <c r="E42">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A42,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>57</v>
       </c>
       <c r="F42" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A42,'w9'!$B$2:$B$131,0))</f>
@@ -14137,9 +15957,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A43,'w7'!$B$2:$B$131,0))</f>
         <v>20</v>
       </c>
-      <c r="E43" t="e">
+      <c r="E43">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A43,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>15</v>
       </c>
       <c r="F43" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A43,'w9'!$B$2:$B$131,0))</f>
@@ -14198,9 +16018,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A44,'w7'!$B$2:$B$131,0))</f>
         <v>68</v>
       </c>
-      <c r="E44" t="e">
+      <c r="E44">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A44,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>49</v>
       </c>
       <c r="F44" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A44,'w9'!$B$2:$B$131,0))</f>
@@ -14259,9 +16079,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A45,'w7'!$B$2:$B$131,0))</f>
         <v>101</v>
       </c>
-      <c r="E45" t="e">
+      <c r="E45">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A45,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>106</v>
       </c>
       <c r="F45" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A45,'w9'!$B$2:$B$131,0))</f>
@@ -14320,9 +16140,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A46,'w7'!$B$2:$B$131,0))</f>
         <v>103</v>
       </c>
-      <c r="E46" t="e">
+      <c r="E46">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A46,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>83</v>
       </c>
       <c r="F46" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A46,'w9'!$B$2:$B$131,0))</f>
@@ -14381,9 +16201,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A47,'w7'!$B$2:$B$131,0))</f>
         <v>124</v>
       </c>
-      <c r="E47" t="e">
+      <c r="E47">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A47,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>127</v>
       </c>
       <c r="F47" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A47,'w9'!$B$2:$B$131,0))</f>
@@ -14442,9 +16262,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A48,'w7'!$B$2:$B$131,0))</f>
         <v>14</v>
       </c>
-      <c r="E48" t="e">
+      <c r="E48">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A48,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="F48" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A48,'w9'!$B$2:$B$131,0))</f>
@@ -14503,9 +16323,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A49,'w7'!$B$2:$B$131,0))</f>
         <v>90</v>
       </c>
-      <c r="E49" t="e">
+      <c r="E49">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A49,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>67</v>
       </c>
       <c r="F49" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A49,'w9'!$B$2:$B$131,0))</f>
@@ -14564,9 +16384,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A50,'w7'!$B$2:$B$131,0))</f>
         <v>96</v>
       </c>
-      <c r="E50" t="e">
+      <c r="E50">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A50,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>81</v>
       </c>
       <c r="F50" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A50,'w9'!$B$2:$B$131,0))</f>
@@ -14625,9 +16445,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A51,'w7'!$B$2:$B$131,0))</f>
         <v>60</v>
       </c>
-      <c r="E51" t="e">
+      <c r="E51">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A51,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
       <c r="F51" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A51,'w9'!$B$2:$B$131,0))</f>
@@ -14686,9 +16506,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A52,'w7'!$B$2:$B$131,0))</f>
         <v>121</v>
       </c>
-      <c r="E52" t="e">
+      <c r="E52">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A52,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>121</v>
       </c>
       <c r="F52" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A52,'w9'!$B$2:$B$131,0))</f>
@@ -14747,9 +16567,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A53,'w7'!$B$2:$B$131,0))</f>
         <v>10</v>
       </c>
-      <c r="E53" t="e">
+      <c r="E53">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A53,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="F53" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A53,'w9'!$B$2:$B$131,0))</f>
@@ -14808,9 +16628,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A54,'w7'!$B$2:$B$131,0))</f>
         <v>71</v>
       </c>
-      <c r="E54" t="e">
+      <c r="E54">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A54,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>62</v>
       </c>
       <c r="F54" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A54,'w9'!$B$2:$B$131,0))</f>
@@ -14869,9 +16689,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A55,'w7'!$B$2:$B$131,0))</f>
         <v>43</v>
       </c>
-      <c r="E55" t="e">
+      <c r="E55">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A55,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>41</v>
       </c>
       <c r="F55" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A55,'w9'!$B$2:$B$131,0))</f>
@@ -14930,9 +16750,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A56,'w7'!$B$2:$B$131,0))</f>
         <v>81</v>
       </c>
-      <c r="E56" t="e">
+      <c r="E56">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A56,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>75</v>
       </c>
       <c r="F56" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A56,'w9'!$B$2:$B$131,0))</f>
@@ -14991,9 +16811,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A57,'w7'!$B$2:$B$131,0))</f>
         <v>94</v>
       </c>
-      <c r="E57" t="e">
+      <c r="E57">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A57,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>89</v>
       </c>
       <c r="F57" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A57,'w9'!$B$2:$B$131,0))</f>
@@ -15052,9 +16872,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A58,'w7'!$B$2:$B$131,0))</f>
         <v>17</v>
       </c>
-      <c r="E58" t="e">
+      <c r="E58">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A58,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>40</v>
       </c>
       <c r="F58" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A58,'w9'!$B$2:$B$131,0))</f>
@@ -15113,9 +16933,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A59,'w7'!$B$2:$B$131,0))</f>
         <v>73</v>
       </c>
-      <c r="E59" t="e">
+      <c r="E59">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A59,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>47</v>
       </c>
       <c r="F59" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A59,'w9'!$B$2:$B$131,0))</f>
@@ -15174,9 +16994,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A60,'w7'!$B$2:$B$131,0))</f>
         <v>13</v>
       </c>
-      <c r="E60" t="e">
+      <c r="E60">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A60,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="F60" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A60,'w9'!$B$2:$B$131,0))</f>
@@ -15235,9 +17055,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A61,'w7'!$B$2:$B$131,0))</f>
         <v>62</v>
       </c>
-      <c r="E61" t="e">
+      <c r="E61">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A61,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>78</v>
       </c>
       <c r="F61" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A61,'w9'!$B$2:$B$131,0))</f>
@@ -15296,9 +17116,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A62,'w7'!$B$2:$B$131,0))</f>
         <v>76</v>
       </c>
-      <c r="E62" t="e">
+      <c r="E62">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A62,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>69</v>
       </c>
       <c r="F62" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A62,'w9'!$B$2:$B$131,0))</f>
@@ -15357,9 +17177,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A63,'w7'!$B$2:$B$131,0))</f>
         <v>33</v>
       </c>
-      <c r="E63" t="e">
+      <c r="E63">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A63,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>34</v>
       </c>
       <c r="F63" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A63,'w9'!$B$2:$B$131,0))</f>
@@ -15418,9 +17238,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A64,'w7'!$B$2:$B$131,0))</f>
         <v>65</v>
       </c>
-      <c r="E64" t="e">
+      <c r="E64">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A64,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>74</v>
       </c>
       <c r="F64" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A64,'w9'!$B$2:$B$131,0))</f>
@@ -15479,9 +17299,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A65,'w7'!$B$2:$B$131,0))</f>
         <v>99</v>
       </c>
-      <c r="E65" t="e">
+      <c r="E65">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A65,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>109</v>
       </c>
       <c r="F65" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A65,'w9'!$B$2:$B$131,0))</f>
@@ -15540,9 +17360,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A66,'w7'!$B$2:$B$131,0))</f>
         <v>6</v>
       </c>
-      <c r="E66" t="e">
+      <c r="E66">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A66,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="F66" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A66,'w9'!$B$2:$B$131,0))</f>
@@ -15601,9 +17421,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A67,'w7'!$B$2:$B$131,0))</f>
         <v>126</v>
       </c>
-      <c r="E67" t="e">
+      <c r="E67">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A67,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>130</v>
       </c>
       <c r="F67" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A67,'w9'!$B$2:$B$131,0))</f>
@@ -15662,9 +17482,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A68,'w7'!$B$2:$B$131,0))</f>
         <v>88</v>
       </c>
-      <c r="E68" t="e">
+      <c r="E68">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A68,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
       <c r="F68" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A68,'w9'!$B$2:$B$131,0))</f>
@@ -15723,9 +17543,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A69,'w7'!$B$2:$B$131,0))</f>
         <v>72</v>
       </c>
-      <c r="E69" t="e">
+      <c r="E69">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A69,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
       <c r="F69" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A69,'w9'!$B$2:$B$131,0))</f>
@@ -15784,9 +17604,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A70,'w7'!$B$2:$B$131,0))</f>
         <v>109</v>
       </c>
-      <c r="E70" t="e">
+      <c r="E70">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A70,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>113</v>
       </c>
       <c r="F70" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A70,'w9'!$B$2:$B$131,0))</f>
@@ -15845,9 +17665,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A71,'w7'!$B$2:$B$131,0))</f>
         <v>105</v>
       </c>
-      <c r="E71" t="e">
+      <c r="E71">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A71,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>118</v>
       </c>
       <c r="F71" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A71,'w9'!$B$2:$B$131,0))</f>
@@ -15906,9 +17726,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A72,'w7'!$B$2:$B$131,0))</f>
         <v>39</v>
       </c>
-      <c r="E72" t="e">
+      <c r="E72">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A72,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>27</v>
       </c>
       <c r="F72" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A72,'w9'!$B$2:$B$131,0))</f>
@@ -15967,9 +17787,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A73,'w7'!$B$2:$B$131,0))</f>
         <v>92</v>
       </c>
-      <c r="E73" t="e">
+      <c r="E73">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A73,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>68</v>
       </c>
       <c r="F73" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A73,'w9'!$B$2:$B$131,0))</f>
@@ -16028,9 +17848,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A74,'w7'!$B$2:$B$131,0))</f>
         <v>63</v>
       </c>
-      <c r="E74" t="e">
+      <c r="E74">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A74,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>58</v>
       </c>
       <c r="F74" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A74,'w9'!$B$2:$B$131,0))</f>
@@ -16089,9 +17909,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A75,'w7'!$B$2:$B$131,0))</f>
         <v>1</v>
       </c>
-      <c r="E75" t="e">
+      <c r="E75">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A75,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="F75" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A75,'w9'!$B$2:$B$131,0))</f>
@@ -16150,9 +17970,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A76,'w7'!$B$2:$B$131,0))</f>
         <v>75</v>
       </c>
-      <c r="E76" t="e">
+      <c r="E76">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A76,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>80</v>
       </c>
       <c r="F76" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A76,'w9'!$B$2:$B$131,0))</f>
@@ -16211,9 +18031,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A77,'w7'!$B$2:$B$131,0))</f>
         <v>3</v>
       </c>
-      <c r="E77" t="e">
+      <c r="E77">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A77,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="F77" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A77,'w9'!$B$2:$B$131,0))</f>
@@ -16272,9 +18092,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A78,'w7'!$B$2:$B$131,0))</f>
         <v>16</v>
       </c>
-      <c r="E78" t="e">
+      <c r="E78">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A78,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="F78" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A78,'w9'!$B$2:$B$131,0))</f>
@@ -16333,9 +18153,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A79,'w7'!$B$2:$B$131,0))</f>
         <v>79</v>
       </c>
-      <c r="E79" t="e">
+      <c r="E79">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A79,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>92</v>
       </c>
       <c r="F79" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A79,'w9'!$B$2:$B$131,0))</f>
@@ -16394,9 +18214,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A80,'w7'!$B$2:$B$131,0))</f>
         <v>115</v>
       </c>
-      <c r="E80" t="e">
+      <c r="E80">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A80,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>115</v>
       </c>
       <c r="F80" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A80,'w9'!$B$2:$B$131,0))</f>
@@ -16455,9 +18275,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A81,'w7'!$B$2:$B$131,0))</f>
         <v>45</v>
       </c>
-      <c r="E81" t="e">
+      <c r="E81">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A81,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>38</v>
       </c>
       <c r="F81" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A81,'w9'!$B$2:$B$131,0))</f>
@@ -16516,9 +18336,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A82,'w7'!$B$2:$B$131,0))</f>
         <v>40</v>
       </c>
-      <c r="E82" t="e">
+      <c r="E82">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A82,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>21</v>
       </c>
       <c r="F82" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A82,'w9'!$B$2:$B$131,0))</f>
@@ -16577,9 +18397,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A83,'w7'!$B$2:$B$131,0))</f>
         <v>125</v>
       </c>
-      <c r="E83" t="e">
+      <c r="E83">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A83,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>125</v>
       </c>
       <c r="F83" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A83,'w9'!$B$2:$B$131,0))</f>
@@ -16638,9 +18458,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A84,'w7'!$B$2:$B$131,0))</f>
         <v>11</v>
       </c>
-      <c r="E84" t="e">
+      <c r="E84">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A84,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>31</v>
       </c>
       <c r="F84" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A84,'w9'!$B$2:$B$131,0))</f>
@@ -16699,9 +18519,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A85,'w7'!$B$2:$B$131,0))</f>
         <v>67</v>
       </c>
-      <c r="E85" t="e">
+      <c r="E85">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A85,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>77</v>
       </c>
       <c r="F85" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A85,'w9'!$B$2:$B$131,0))</f>
@@ -16760,9 +18580,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A86,'w7'!$B$2:$B$131,0))</f>
         <v>93</v>
       </c>
-      <c r="E86" t="e">
+      <c r="E86">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A86,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>61</v>
       </c>
       <c r="F86" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A86,'w9'!$B$2:$B$131,0))</f>
@@ -16821,9 +18641,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A87,'w7'!$B$2:$B$131,0))</f>
         <v>122</v>
       </c>
-      <c r="E87" t="e">
+      <c r="E87">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A87,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>122</v>
       </c>
       <c r="F87" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A87,'w9'!$B$2:$B$131,0))</f>
@@ -16882,9 +18702,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A88,'w7'!$B$2:$B$131,0))</f>
         <v>127</v>
       </c>
-      <c r="E88" t="e">
+      <c r="E88">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A88,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>129</v>
       </c>
       <c r="F88" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A88,'w9'!$B$2:$B$131,0))</f>
@@ -16943,9 +18763,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A89,'w7'!$B$2:$B$131,0))</f>
         <v>29</v>
       </c>
-      <c r="E89" t="e">
+      <c r="E89">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A89,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>23</v>
       </c>
       <c r="F89" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A89,'w9'!$B$2:$B$131,0))</f>
@@ -17004,9 +18824,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A90,'w7'!$B$2:$B$131,0))</f>
         <v>120</v>
       </c>
-      <c r="E90" t="e">
+      <c r="E90">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A90,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>120</v>
       </c>
       <c r="F90" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A90,'w9'!$B$2:$B$131,0))</f>
@@ -17065,9 +18885,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A91,'w7'!$B$2:$B$131,0))</f>
         <v>98</v>
       </c>
-      <c r="E91" t="e">
+      <c r="E91">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A91,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>101</v>
       </c>
       <c r="F91" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A91,'w9'!$B$2:$B$131,0))</f>
@@ -17126,9 +18946,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A92,'w7'!$B$2:$B$131,0))</f>
         <v>117</v>
       </c>
-      <c r="E92" t="e">
+      <c r="E92">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A92,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>111</v>
       </c>
       <c r="F92" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A92,'w9'!$B$2:$B$131,0))</f>
@@ -17187,9 +19007,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A93,'w7'!$B$2:$B$131,0))</f>
         <v>23</v>
       </c>
-      <c r="E93" t="e">
+      <c r="E93">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A93,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
       <c r="F93" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A93,'w9'!$B$2:$B$131,0))</f>
@@ -17248,9 +19068,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A94,'w7'!$B$2:$B$131,0))</f>
         <v>12</v>
       </c>
-      <c r="E94" t="e">
+      <c r="E94">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A94,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>14</v>
       </c>
       <c r="F94" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A94,'w9'!$B$2:$B$131,0))</f>
@@ -17309,9 +19129,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A95,'w7'!$B$2:$B$131,0))</f>
         <v>100</v>
       </c>
-      <c r="E95" t="e">
+      <c r="E95">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A95,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>104</v>
       </c>
       <c r="F95" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A95,'w9'!$B$2:$B$131,0))</f>
@@ -17370,9 +19190,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A96,'w7'!$B$2:$B$131,0))</f>
         <v>28</v>
       </c>
-      <c r="E96" t="e">
+      <c r="E96">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A96,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>24</v>
       </c>
       <c r="F96" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A96,'w9'!$B$2:$B$131,0))</f>
@@ -17431,9 +19251,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A97,'w7'!$B$2:$B$131,0))</f>
         <v>53</v>
       </c>
-      <c r="E97" t="e">
+      <c r="E97">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A97,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>56</v>
       </c>
       <c r="F97" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A97,'w9'!$B$2:$B$131,0))</f>
@@ -17492,9 +19312,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A98,'w7'!$B$2:$B$131,0))</f>
         <v>51</v>
       </c>
-      <c r="E98" t="e">
+      <c r="E98">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A98,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>66</v>
       </c>
       <c r="F98" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A98,'w9'!$B$2:$B$131,0))</f>
@@ -17553,9 +19373,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A99,'w7'!$B$2:$B$131,0))</f>
         <v>50</v>
       </c>
-      <c r="E99" t="e">
+      <c r="E99">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A99,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>48</v>
       </c>
       <c r="F99" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A99,'w9'!$B$2:$B$131,0))</f>
@@ -17614,9 +19434,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A100,'w7'!$B$2:$B$131,0))</f>
         <v>87</v>
       </c>
-      <c r="E100" t="e">
+      <c r="E100">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A100,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>65</v>
       </c>
       <c r="F100" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A100,'w9'!$B$2:$B$131,0))</f>
@@ -17675,9 +19495,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A101,'w7'!$B$2:$B$131,0))</f>
         <v>24</v>
       </c>
-      <c r="E101" t="e">
+      <c r="E101">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A101,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>19</v>
       </c>
       <c r="F101" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A101,'w9'!$B$2:$B$131,0))</f>
@@ -17736,9 +19556,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A102,'w7'!$B$2:$B$131,0))</f>
         <v>7</v>
       </c>
-      <c r="E102" t="e">
+      <c r="E102">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A102,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="F102" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A102,'w9'!$B$2:$B$131,0))</f>
@@ -17797,9 +19617,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A103,'w7'!$B$2:$B$131,0))</f>
         <v>128</v>
       </c>
-      <c r="E103" t="e">
+      <c r="E103">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A103,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>124</v>
       </c>
       <c r="F103" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A103,'w9'!$B$2:$B$131,0))</f>
@@ -17858,9 +19678,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A104,'w7'!$B$2:$B$131,0))</f>
         <v>25</v>
       </c>
-      <c r="E104" t="e">
+      <c r="E104">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A104,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>22</v>
       </c>
       <c r="F104" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A104,'w9'!$B$2:$B$131,0))</f>
@@ -17919,9 +19739,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A105,'w7'!$B$2:$B$131,0))</f>
         <v>66</v>
       </c>
-      <c r="E105" t="e">
+      <c r="E105">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A105,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>87</v>
       </c>
       <c r="F105" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A105,'w9'!$B$2:$B$131,0))</f>
@@ -17980,9 +19800,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A106,'w7'!$B$2:$B$131,0))</f>
         <v>35</v>
       </c>
-      <c r="E106" t="e">
+      <c r="E106">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A106,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>53</v>
       </c>
       <c r="F106" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A106,'w9'!$B$2:$B$131,0))</f>
@@ -18041,9 +19861,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A107,'w7'!$B$2:$B$131,0))</f>
         <v>84</v>
       </c>
-      <c r="E107" t="e">
+      <c r="E107">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A107,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>84</v>
       </c>
       <c r="F107" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A107,'w9'!$B$2:$B$131,0))</f>
@@ -18102,9 +19922,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A108,'w7'!$B$2:$B$131,0))</f>
         <v>116</v>
       </c>
-      <c r="E108" t="e">
+      <c r="E108">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A108,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>112</v>
       </c>
       <c r="F108" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A108,'w9'!$B$2:$B$131,0))</f>
@@ -18163,9 +19983,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A109,'w7'!$B$2:$B$131,0))</f>
         <v>30</v>
       </c>
-      <c r="E109" t="e">
+      <c r="E109">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A109,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>30</v>
       </c>
       <c r="F109" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A109,'w9'!$B$2:$B$131,0))</f>
@@ -18224,9 +20044,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A110,'w7'!$B$2:$B$131,0))</f>
         <v>15</v>
       </c>
-      <c r="E110" t="e">
+      <c r="E110">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A110,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="F110" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A110,'w9'!$B$2:$B$131,0))</f>
@@ -18285,9 +20105,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A111,'w7'!$B$2:$B$131,0))</f>
         <v>112</v>
       </c>
-      <c r="E111" t="e">
+      <c r="E111">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A111,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>96</v>
       </c>
       <c r="F111" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A111,'w9'!$B$2:$B$131,0))</f>
@@ -18346,9 +20166,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A112,'w7'!$B$2:$B$131,0))</f>
         <v>118</v>
       </c>
-      <c r="E112" t="e">
+      <c r="E112">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A112,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>116</v>
       </c>
       <c r="F112" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A112,'w9'!$B$2:$B$131,0))</f>
@@ -18407,9 +20227,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A113,'w7'!$B$2:$B$131,0))</f>
         <v>114</v>
       </c>
-      <c r="E113" t="e">
+      <c r="E113">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A113,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>99</v>
       </c>
       <c r="F113" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A113,'w9'!$B$2:$B$131,0))</f>
@@ -18468,9 +20288,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A114,'w7'!$B$2:$B$131,0))</f>
         <v>106</v>
       </c>
-      <c r="E114" t="e">
+      <c r="E114">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A114,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>105</v>
       </c>
       <c r="F114" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A114,'w9'!$B$2:$B$131,0))</f>
@@ -18529,9 +20349,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A115,'w7'!$B$2:$B$131,0))</f>
         <v>108</v>
       </c>
-      <c r="E115" t="e">
+      <c r="E115">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A115,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>107</v>
       </c>
       <c r="F115" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A115,'w9'!$B$2:$B$131,0))</f>
@@ -18590,9 +20410,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A116,'w7'!$B$2:$B$131,0))</f>
         <v>26</v>
       </c>
-      <c r="E116" t="e">
+      <c r="E116">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A116,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>16</v>
       </c>
       <c r="F116" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A116,'w9'!$B$2:$B$131,0))</f>
@@ -18651,9 +20471,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A117,'w7'!$B$2:$B$131,0))</f>
         <v>42</v>
       </c>
-      <c r="E117" t="e">
+      <c r="E117">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A117,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>33</v>
       </c>
       <c r="F117" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A117,'w9'!$B$2:$B$131,0))</f>
@@ -18712,9 +20532,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A118,'w7'!$B$2:$B$131,0))</f>
         <v>41</v>
       </c>
-      <c r="E118" t="e">
+      <c r="E118">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A118,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>26</v>
       </c>
       <c r="F118" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A118,'w9'!$B$2:$B$131,0))</f>
@@ -18773,9 +20593,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A119,'w7'!$B$2:$B$131,0))</f>
         <v>130</v>
       </c>
-      <c r="E119" t="e">
+      <c r="E119">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A119,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>128</v>
       </c>
       <c r="F119" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A119,'w9'!$B$2:$B$131,0))</f>
@@ -18834,9 +20654,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A120,'w7'!$B$2:$B$131,0))</f>
         <v>110</v>
       </c>
-      <c r="E120" t="e">
+      <c r="E120">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A120,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>110</v>
       </c>
       <c r="F120" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A120,'w9'!$B$2:$B$131,0))</f>
@@ -18895,9 +20715,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A121,'w7'!$B$2:$B$131,0))</f>
         <v>77</v>
       </c>
-      <c r="E121" t="e">
+      <c r="E121">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A121,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>93</v>
       </c>
       <c r="F121" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A121,'w9'!$B$2:$B$131,0))</f>
@@ -18956,9 +20776,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A122,'w7'!$B$2:$B$131,0))</f>
         <v>54</v>
       </c>
-      <c r="E122" t="e">
+      <c r="E122">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A122,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>37</v>
       </c>
       <c r="F122" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A122,'w9'!$B$2:$B$131,0))</f>
@@ -19017,9 +20837,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A123,'w7'!$B$2:$B$131,0))</f>
         <v>31</v>
       </c>
-      <c r="E123" t="e">
+      <c r="E123">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A123,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>28</v>
       </c>
       <c r="F123" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A123,'w9'!$B$2:$B$131,0))</f>
@@ -19078,9 +20898,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A124,'w7'!$B$2:$B$131,0))</f>
         <v>78</v>
       </c>
-      <c r="E124" t="e">
+      <c r="E124">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A124,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>71</v>
       </c>
       <c r="F124" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A124,'w9'!$B$2:$B$131,0))</f>
@@ -19139,9 +20959,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A125,'w7'!$B$2:$B$131,0))</f>
         <v>19</v>
       </c>
-      <c r="E125" t="e">
+      <c r="E125">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A125,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>29</v>
       </c>
       <c r="F125" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A125,'w9'!$B$2:$B$131,0))</f>
@@ -19200,9 +21020,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A126,'w7'!$B$2:$B$131,0))</f>
         <v>32</v>
       </c>
-      <c r="E126" t="e">
+      <c r="E126">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A126,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>32</v>
       </c>
       <c r="F126" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A126,'w9'!$B$2:$B$131,0))</f>
@@ -19261,9 +21081,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A127,'w7'!$B$2:$B$131,0))</f>
         <v>8</v>
       </c>
-      <c r="E127" t="e">
+      <c r="E127">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A127,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>20</v>
       </c>
       <c r="F127" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A127,'w9'!$B$2:$B$131,0))</f>
@@ -19322,9 +21142,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A128,'w7'!$B$2:$B$131,0))</f>
         <v>113</v>
       </c>
-      <c r="E128" t="e">
+      <c r="E128">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A128,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>117</v>
       </c>
       <c r="F128" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A128,'w9'!$B$2:$B$131,0))</f>
@@ -19383,9 +21203,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A129,'w7'!$B$2:$B$131,0))</f>
         <v>58</v>
       </c>
-      <c r="E129" t="e">
+      <c r="E129">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A129,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>52</v>
       </c>
       <c r="F129" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A129,'w9'!$B$2:$B$131,0))</f>
@@ -19444,9 +21264,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A130,'w7'!$B$2:$B$131,0))</f>
         <v>21</v>
       </c>
-      <c r="E130" t="e">
+      <c r="E130">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A130,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>46</v>
       </c>
       <c r="F130" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A130,'w9'!$B$2:$B$131,0))</f>
@@ -19505,9 +21325,9 @@
         <f>INDEX('w7'!$A$2:$A$131,MATCH($A131,'w7'!$B$2:$B$131,0))</f>
         <v>107</v>
       </c>
-      <c r="E131" t="e">
+      <c r="E131">
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A131,'w8'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>108</v>
       </c>
       <c r="F131" t="e">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A131,'w9'!$B$2:$B$131,0))</f>

--- a/rankings_75.xlsx
+++ b/rankings_75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Python\CFB Rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE5B0A09-BC05-46EF-B99D-F186165B59EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84B5D86E-7F01-4F66-A81F-A3480260977F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="post champ" sheetId="20" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="161">
   <si>
     <t>Team</t>
   </si>
@@ -2129,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F131"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113:G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,650 +2164,2600 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.96657356341480705</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.959037449629081</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.89206071723277103</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.88891930160967303</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.81485004428327301</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.801700083093698</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.78305682121201503</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.77281740780930896</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.76501888529145001</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.76085030222731298</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.74648378419891803</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.742227491520143</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.74160365868631595</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.71018755815352597</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.69617187858368101</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.69233281866944496</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.68451442106649496</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.68449310575784805</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.66502261547046304</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.66268351238552603</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.66192883524152102</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.66063263403998596</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.65706894486989798</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.654359596313978</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.64711844031277899</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.63289968922135897</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.63094256942939697</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.63000015914470298</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.62250415558504602</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.61755785179998701</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.61592074968244803</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.61253608030052797</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.61186327986575295</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.61008654807433804</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.60848476743954105</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.60380717336467804</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.60056839862910805</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.59682208911196</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.59567869562984999</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.58677854611304103</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.58602026841014299</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.58074199309513597</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.56441756315182201</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.55797580323608098</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.55499223611485804</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.547427965958588</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0.54447615576680197</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.54254481597651505</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.54040738019518297</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.535890839119611</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.52171140613130496</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.52098841390556005</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.52044869012747597</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.51542936700806397</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.51188836135900295</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.511027431722061</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.507570139067266</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0.50449425361602296</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0.49779030100168198</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0.49275902402674499</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0.48454953371682102</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0.475021230695513</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.47365114602549002</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0.46941248168305599</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0.46717748515795599</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0.46470217293008997</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0.45060080005858799</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0.450038248737121</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0.44544710408128302</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0.42525171327194</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0.42522247673372798</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0.41882500369237302</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0.41776283881889198</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0.40589165212580902</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0.40116829494741402</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0.39349271951389297</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0.38936580691801298</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0.382715574642358</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0.37992643770136503</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0.37970709165359401</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0.37719116512141398</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0.37196488187682403</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0.36853110087160101</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0.36406323935226498</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0.36343198936711701</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0.36288945715309701</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0.35985836265448401</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0.35746456707995999</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0.34932543169080799</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0.34784910652971102</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0.340073147514249</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0.33882231335476798</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="7">
+        <v>0.33790028223340901</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0.32757902812706202</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" s="7">
+        <v>0.32719618069995299</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="7">
+        <v>0.32315800987892501</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="7">
+        <v>0.32309147155057899</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" s="7">
+        <v>0.30651377829472098</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" s="7">
+        <v>0.27784742458863398</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="7">
+        <v>0.27691898447244501</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D103" s="7">
+        <v>0.26985000719751701</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0.26550334049052399</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0.26428368717105699</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0.261299543960411</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0.258379922765131</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="7">
+        <v>0.255649834989986</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="7">
+        <v>0.248679369006374</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="7">
+        <v>0.246737731617652</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" s="7">
+        <v>0.24607897336256099</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="7">
+        <v>0.21697644795215601</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="7">
+        <v>0.21648194719377101</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" s="7">
+        <v>0.21495026944062301</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0.21290147941924101</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="7">
+        <v>0.20518152109643001</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0.19654622869180199</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" t="s">
+        <v>43</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0.19134586947124199</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" s="7">
+        <v>0.16203933639395199</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="7">
+        <v>0.15929887900919501</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="7">
+        <v>0.14699375295830899</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>155</v>
+      </c>
+      <c r="C122" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" s="7">
+        <v>0.14232166773855301</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0.137418714682567</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="7">
+        <v>0.12389840000524199</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" t="s">
+        <v>50</v>
+      </c>
+      <c r="D125" s="7">
+        <v>0.11041380287213599</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>159</v>
+      </c>
+      <c r="C126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D126" s="7">
+        <v>0.105342919749375</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>148</v>
+      </c>
+      <c r="C127" t="s">
+        <v>50</v>
+      </c>
+      <c r="D127" s="7">
+        <v>7.51747009177752E-2</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="7">
+        <v>7.25905798001589E-2</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" s="7">
+        <v>6.3493695745428402E-2</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" t="s">
+        <v>31</v>
+      </c>
+      <c r="D130" s="7">
+        <v>4.6596488893391901E-2</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="7">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2820,8 +4770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E130" sqref="A1:F131"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13460,9 +15410,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A2,'w8'!$B$2:$B$131,0))</f>
         <v>94</v>
       </c>
-      <c r="F2" t="e">
+      <c r="F2">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A2,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>79</v>
       </c>
       <c r="G2" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A2,'w10'!$B$2:$B$131,0))</f>
@@ -13521,9 +15471,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A3,'w8'!$B$2:$B$131,0))</f>
         <v>97</v>
       </c>
-      <c r="F3" t="e">
+      <c r="F3">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A3,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>80</v>
       </c>
       <c r="G3" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A3,'w10'!$B$2:$B$131,0))</f>
@@ -13582,9 +15532,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A4,'w8'!$B$2:$B$131,0))</f>
         <v>3</v>
       </c>
-      <c r="F4" t="e">
+      <c r="F4">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A4,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="G4" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A4,'w10'!$B$2:$B$131,0))</f>
@@ -13643,9 +15593,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A5,'w8'!$B$2:$B$131,0))</f>
         <v>42</v>
       </c>
-      <c r="F5" t="e">
+      <c r="F5">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A5,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>33</v>
       </c>
       <c r="G5" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A5,'w10'!$B$2:$B$131,0))</f>
@@ -13704,9 +15654,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A6,'w8'!$B$2:$B$131,0))</f>
         <v>63</v>
       </c>
-      <c r="F6" t="e">
+      <c r="F6">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A6,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>81</v>
       </c>
       <c r="G6" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A6,'w10'!$B$2:$B$131,0))</f>
@@ -13765,9 +15715,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A7,'w8'!$B$2:$B$131,0))</f>
         <v>91</v>
       </c>
-      <c r="F7" t="e">
+      <c r="F7">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A7,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
       <c r="G7" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A7,'w10'!$B$2:$B$131,0))</f>
@@ -13826,9 +15776,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A8,'w8'!$B$2:$B$131,0))</f>
         <v>119</v>
       </c>
-      <c r="F8" t="e">
+      <c r="F8">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A8,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>114</v>
       </c>
       <c r="G8" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A8,'w10'!$B$2:$B$131,0))</f>
@@ -13887,9 +15837,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A9,'w8'!$B$2:$B$131,0))</f>
         <v>70</v>
       </c>
-      <c r="F9" t="e">
+      <c r="F9">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A9,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>66</v>
       </c>
       <c r="G9" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A9,'w10'!$B$2:$B$131,0))</f>
@@ -13948,9 +15898,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A10,'w8'!$B$2:$B$131,0))</f>
         <v>45</v>
       </c>
-      <c r="F10" t="e">
+      <c r="F10">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A10,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>42</v>
       </c>
       <c r="G10" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A10,'w10'!$B$2:$B$131,0))</f>
@@ -14009,9 +15959,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A11,'w8'!$B$2:$B$131,0))</f>
         <v>72</v>
       </c>
-      <c r="F11" t="e">
+      <c r="F11">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A11,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>52</v>
       </c>
       <c r="G11" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A11,'w10'!$B$2:$B$131,0))</f>
@@ -14070,9 +16020,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A12,'w8'!$B$2:$B$131,0))</f>
         <v>102</v>
       </c>
-      <c r="F12" t="e">
+      <c r="F12">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A12,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>107</v>
       </c>
       <c r="G12" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A12,'w10'!$B$2:$B$131,0))</f>
@@ -14131,9 +16081,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A13,'w8'!$B$2:$B$131,0))</f>
         <v>59</v>
       </c>
-      <c r="F13" t="e">
+      <c r="F13">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A13,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>64</v>
       </c>
       <c r="G13" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A13,'w10'!$B$2:$B$131,0))</f>
@@ -14192,9 +16142,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A14,'w8'!$B$2:$B$131,0))</f>
         <v>54</v>
       </c>
-      <c r="F14" t="e">
+      <c r="F14">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A14,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>46</v>
       </c>
       <c r="G14" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A14,'w10'!$B$2:$B$131,0))</f>
@@ -14253,9 +16203,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A15,'w8'!$B$2:$B$131,0))</f>
         <v>39</v>
       </c>
-      <c r="F15" t="e">
+      <c r="F15">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A15,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>44</v>
       </c>
       <c r="G15" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A15,'w10'!$B$2:$B$131,0))</f>
@@ -14314,9 +16264,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A16,'w8'!$B$2:$B$131,0))</f>
         <v>126</v>
       </c>
-      <c r="F16" t="e">
+      <c r="F16">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A16,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>128</v>
       </c>
       <c r="G16" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A16,'w10'!$B$2:$B$131,0))</f>
@@ -14375,9 +16325,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A17,'w8'!$B$2:$B$131,0))</f>
         <v>25</v>
       </c>
-      <c r="F17" t="e">
+      <c r="F17">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A17,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>20</v>
       </c>
       <c r="G17" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A17,'w10'!$B$2:$B$131,0))</f>
@@ -14436,9 +16386,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A18,'w8'!$B$2:$B$131,0))</f>
         <v>55</v>
       </c>
-      <c r="F18" t="e">
+      <c r="F18">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A18,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>58</v>
       </c>
       <c r="G18" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A18,'w10'!$B$2:$B$131,0))</f>
@@ -14497,9 +16447,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A19,'w8'!$B$2:$B$131,0))</f>
         <v>114</v>
       </c>
-      <c r="F19" t="e">
+      <c r="F19">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A19,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>99</v>
       </c>
       <c r="G19" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A19,'w10'!$B$2:$B$131,0))</f>
@@ -14558,9 +16508,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A20,'w8'!$B$2:$B$131,0))</f>
         <v>123</v>
       </c>
-      <c r="F20" t="e">
+      <c r="F20">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A20,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>124</v>
       </c>
       <c r="G20" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A20,'w10'!$B$2:$B$131,0))</f>
@@ -14619,9 +16569,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A21,'w8'!$B$2:$B$131,0))</f>
         <v>88</v>
       </c>
-      <c r="F21" t="e">
+      <c r="F21">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A21,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>94</v>
       </c>
       <c r="G21" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A21,'w10'!$B$2:$B$131,0))</f>
@@ -14680,9 +16630,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A22,'w8'!$B$2:$B$131,0))</f>
         <v>17</v>
       </c>
-      <c r="F22" t="e">
+      <c r="F22">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A22,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>36</v>
       </c>
       <c r="G22" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A22,'w10'!$B$2:$B$131,0))</f>
@@ -14741,9 +16691,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A23,'w8'!$B$2:$B$131,0))</f>
         <v>2</v>
       </c>
-      <c r="F23" t="e">
+      <c r="F23">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A23,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="G23" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A23,'w10'!$B$2:$B$131,0))</f>
@@ -14802,9 +16752,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A24,'w8'!$B$2:$B$131,0))</f>
         <v>86</v>
       </c>
-      <c r="F24" t="e">
+      <c r="F24">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A24,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>72</v>
       </c>
       <c r="G24" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A24,'w10'!$B$2:$B$131,0))</f>
@@ -14863,9 +16813,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A25,'w8'!$B$2:$B$131,0))</f>
         <v>44</v>
       </c>
-      <c r="F25" t="e">
+      <c r="F25">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A25,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>56</v>
       </c>
       <c r="G25" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A25,'w10'!$B$2:$B$131,0))</f>
@@ -14924,9 +16874,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A26,'w8'!$B$2:$B$131,0))</f>
         <v>79</v>
       </c>
-      <c r="F26" t="e">
+      <c r="F26">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A26,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>91</v>
       </c>
       <c r="G26" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A26,'w10'!$B$2:$B$131,0))</f>
@@ -14985,9 +16935,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A27,'w8'!$B$2:$B$131,0))</f>
         <v>18</v>
       </c>
-      <c r="F27" t="e">
+      <c r="F27">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A27,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>38</v>
       </c>
       <c r="G27" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A27,'w10'!$B$2:$B$131,0))</f>
@@ -15046,9 +16996,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A28,'w8'!$B$2:$B$131,0))</f>
         <v>95</v>
       </c>
-      <c r="F28" t="e">
+      <c r="F28">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A28,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>95</v>
       </c>
       <c r="G28" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A28,'w10'!$B$2:$B$131,0))</f>
@@ -15107,9 +17057,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A29,'w8'!$B$2:$B$131,0))</f>
         <v>73</v>
       </c>
-      <c r="F29" t="e">
+      <c r="F29">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A29,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>67</v>
       </c>
       <c r="G29" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A29,'w10'!$B$2:$B$131,0))</f>
@@ -15168,9 +17118,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A30,'w8'!$B$2:$B$131,0))</f>
         <v>76</v>
       </c>
-      <c r="F30" t="e">
+      <c r="F30">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A30,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>82</v>
       </c>
       <c r="G30" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A30,'w10'!$B$2:$B$131,0))</f>
@@ -15229,9 +17179,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A31,'w8'!$B$2:$B$131,0))</f>
         <v>7</v>
       </c>
-      <c r="F31" t="e">
+      <c r="F31">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A31,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="G31" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A31,'w10'!$B$2:$B$131,0))</f>
@@ -15290,9 +17240,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A32,'w8'!$B$2:$B$131,0))</f>
         <v>64</v>
       </c>
-      <c r="F32" t="e">
+      <c r="F32">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A32,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>62</v>
       </c>
       <c r="G32" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A32,'w10'!$B$2:$B$131,0))</f>
@@ -15351,9 +17301,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A33,'w8'!$B$2:$B$131,0))</f>
         <v>82</v>
       </c>
-      <c r="F33" t="e">
+      <c r="F33">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A33,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>63</v>
       </c>
       <c r="G33" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A33,'w10'!$B$2:$B$131,0))</f>
@@ -15412,9 +17362,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A34,'w8'!$B$2:$B$131,0))</f>
         <v>43</v>
       </c>
-      <c r="F34" t="e">
+      <c r="F34">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A34,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>30</v>
       </c>
       <c r="G34" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A34,'w10'!$B$2:$B$131,0))</f>
@@ -15473,9 +17423,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A35,'w8'!$B$2:$B$131,0))</f>
         <v>10</v>
       </c>
-      <c r="F35" t="e">
+      <c r="F35">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A35,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="G35" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A35,'w10'!$B$2:$B$131,0))</f>
@@ -15534,9 +17484,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A36,'w8'!$B$2:$B$131,0))</f>
         <v>35</v>
       </c>
-      <c r="F36" t="e">
+      <c r="F36">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A36,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>32</v>
       </c>
       <c r="G36" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A36,'w10'!$B$2:$B$131,0))</f>
@@ -15595,9 +17545,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A37,'w8'!$B$2:$B$131,0))</f>
         <v>98</v>
       </c>
-      <c r="F37" t="e">
+      <c r="F37">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A37,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>102</v>
       </c>
       <c r="G37" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A37,'w10'!$B$2:$B$131,0))</f>
@@ -15656,9 +17606,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A38,'w8'!$B$2:$B$131,0))</f>
         <v>85</v>
       </c>
-      <c r="F38" t="e">
+      <c r="F38">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A38,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>86</v>
       </c>
       <c r="G38" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A38,'w10'!$B$2:$B$131,0))</f>
@@ -15717,9 +17667,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A39,'w8'!$B$2:$B$131,0))</f>
         <v>51</v>
       </c>
-      <c r="F39" t="e">
+      <c r="F39">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A39,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>65</v>
       </c>
       <c r="G39" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A39,'w10'!$B$2:$B$131,0))</f>
@@ -15778,9 +17728,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A40,'w8'!$B$2:$B$131,0))</f>
         <v>36</v>
       </c>
-      <c r="F40" t="e">
+      <c r="F40">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A40,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>31</v>
       </c>
       <c r="G40" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A40,'w10'!$B$2:$B$131,0))</f>
@@ -15839,9 +17789,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A41,'w8'!$B$2:$B$131,0))</f>
         <v>103</v>
       </c>
-      <c r="F41" t="e">
+      <c r="F41">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A41,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>101</v>
       </c>
       <c r="G41" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A41,'w10'!$B$2:$B$131,0))</f>
@@ -15900,9 +17850,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A42,'w8'!$B$2:$B$131,0))</f>
         <v>57</v>
       </c>
-      <c r="F42" t="e">
+      <c r="F42">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A42,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>73</v>
       </c>
       <c r="G42" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A42,'w10'!$B$2:$B$131,0))</f>
@@ -15961,9 +17911,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A43,'w8'!$B$2:$B$131,0))</f>
         <v>15</v>
       </c>
-      <c r="F43" t="e">
+      <c r="F43">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A43,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="G43" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A43,'w10'!$B$2:$B$131,0))</f>
@@ -16022,9 +17972,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A44,'w8'!$B$2:$B$131,0))</f>
         <v>49</v>
       </c>
-      <c r="F44" t="e">
+      <c r="F44">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A44,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
       <c r="G44" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A44,'w10'!$B$2:$B$131,0))</f>
@@ -16083,9 +18033,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A45,'w8'!$B$2:$B$131,0))</f>
         <v>106</v>
       </c>
-      <c r="F45" t="e">
+      <c r="F45">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A45,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>112</v>
       </c>
       <c r="G45" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A45,'w10'!$B$2:$B$131,0))</f>
@@ -16144,9 +18094,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A46,'w8'!$B$2:$B$131,0))</f>
         <v>83</v>
       </c>
-      <c r="F46" t="e">
+      <c r="F46">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A46,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>83</v>
       </c>
       <c r="G46" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A46,'w10'!$B$2:$B$131,0))</f>
@@ -16205,9 +18155,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A47,'w8'!$B$2:$B$131,0))</f>
         <v>127</v>
       </c>
-      <c r="F47" t="e">
+      <c r="F47">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A47,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>126</v>
       </c>
       <c r="G47" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A47,'w10'!$B$2:$B$131,0))</f>
@@ -16266,9 +18216,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A48,'w8'!$B$2:$B$131,0))</f>
         <v>13</v>
       </c>
-      <c r="F48" t="e">
+      <c r="F48">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A48,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>14</v>
       </c>
       <c r="G48" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A48,'w10'!$B$2:$B$131,0))</f>
@@ -16327,9 +18277,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A49,'w8'!$B$2:$B$131,0))</f>
         <v>67</v>
       </c>
-      <c r="F49" t="e">
+      <c r="F49">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A49,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>68</v>
       </c>
       <c r="G49" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A49,'w10'!$B$2:$B$131,0))</f>
@@ -16388,9 +18338,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A50,'w8'!$B$2:$B$131,0))</f>
         <v>81</v>
       </c>
-      <c r="F50" t="e">
+      <c r="F50">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A50,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
       <c r="G50" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A50,'w10'!$B$2:$B$131,0))</f>
@@ -16449,9 +18399,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A51,'w8'!$B$2:$B$131,0))</f>
         <v>50</v>
       </c>
-      <c r="F51" t="e">
+      <c r="F51">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A51,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>49</v>
       </c>
       <c r="G51" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A51,'w10'!$B$2:$B$131,0))</f>
@@ -16510,9 +18460,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A52,'w8'!$B$2:$B$131,0))</f>
         <v>121</v>
       </c>
-      <c r="F52" t="e">
+      <c r="F52">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A52,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>118</v>
       </c>
       <c r="G52" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A52,'w10'!$B$2:$B$131,0))</f>
@@ -16571,9 +18521,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A53,'w8'!$B$2:$B$131,0))</f>
         <v>5</v>
       </c>
-      <c r="F53" t="e">
+      <c r="F53">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A53,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="G53" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A53,'w10'!$B$2:$B$131,0))</f>
@@ -16632,9 +18582,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A54,'w8'!$B$2:$B$131,0))</f>
         <v>62</v>
       </c>
-      <c r="F54" t="e">
+      <c r="F54">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A54,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>55</v>
       </c>
       <c r="G54" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A54,'w10'!$B$2:$B$131,0))</f>
@@ -16693,9 +18643,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A55,'w8'!$B$2:$B$131,0))</f>
         <v>41</v>
       </c>
-      <c r="F55" t="e">
+      <c r="F55">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A55,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>57</v>
       </c>
       <c r="G55" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A55,'w10'!$B$2:$B$131,0))</f>
@@ -16754,9 +18704,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A56,'w8'!$B$2:$B$131,0))</f>
         <v>75</v>
       </c>
-      <c r="F56" t="e">
+      <c r="F56">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A56,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>98</v>
       </c>
       <c r="G56" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A56,'w10'!$B$2:$B$131,0))</f>
@@ -16815,9 +18765,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A57,'w8'!$B$2:$B$131,0))</f>
         <v>89</v>
       </c>
-      <c r="F57" t="e">
+      <c r="F57">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A57,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>96</v>
       </c>
       <c r="G57" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A57,'w10'!$B$2:$B$131,0))</f>
@@ -16876,9 +18826,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A58,'w8'!$B$2:$B$131,0))</f>
         <v>40</v>
       </c>
-      <c r="F58" t="e">
+      <c r="F58">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A58,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>41</v>
       </c>
       <c r="G58" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A58,'w10'!$B$2:$B$131,0))</f>
@@ -16937,9 +18887,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A59,'w8'!$B$2:$B$131,0))</f>
         <v>47</v>
       </c>
-      <c r="F59" t="e">
+      <c r="F59">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A59,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>59</v>
       </c>
       <c r="G59" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A59,'w10'!$B$2:$B$131,0))</f>
@@ -16998,9 +18948,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A60,'w8'!$B$2:$B$131,0))</f>
         <v>9</v>
       </c>
-      <c r="F60" t="e">
+      <c r="F60">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A60,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="G60" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A60,'w10'!$B$2:$B$131,0))</f>
@@ -17059,9 +19009,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A61,'w8'!$B$2:$B$131,0))</f>
         <v>78</v>
       </c>
-      <c r="F61" t="e">
+      <c r="F61">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A61,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
       <c r="G61" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A61,'w10'!$B$2:$B$131,0))</f>
@@ -17120,9 +19070,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A62,'w8'!$B$2:$B$131,0))</f>
         <v>69</v>
       </c>
-      <c r="F62" t="e">
+      <c r="F62">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A62,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>103</v>
       </c>
       <c r="G62" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A62,'w10'!$B$2:$B$131,0))</f>
@@ -17181,9 +19131,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A63,'w8'!$B$2:$B$131,0))</f>
         <v>34</v>
       </c>
-      <c r="F63" t="e">
+      <c r="F63">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A63,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>51</v>
       </c>
       <c r="G63" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A63,'w10'!$B$2:$B$131,0))</f>
@@ -17242,9 +19192,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A64,'w8'!$B$2:$B$131,0))</f>
         <v>74</v>
       </c>
-      <c r="F64" t="e">
+      <c r="F64">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A64,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
       <c r="G64" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A64,'w10'!$B$2:$B$131,0))</f>
@@ -17303,9 +19253,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A65,'w8'!$B$2:$B$131,0))</f>
         <v>109</v>
       </c>
-      <c r="F65" t="e">
+      <c r="F65">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A65,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>108</v>
       </c>
       <c r="G65" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A65,'w10'!$B$2:$B$131,0))</f>
@@ -17364,9 +19314,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A66,'w8'!$B$2:$B$131,0))</f>
         <v>8</v>
       </c>
-      <c r="F66" t="e">
+      <c r="F66">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A66,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="G66" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A66,'w10'!$B$2:$B$131,0))</f>
@@ -17425,9 +19375,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A67,'w8'!$B$2:$B$131,0))</f>
         <v>130</v>
       </c>
-      <c r="F67" t="e">
+      <c r="F67">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A67,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>116</v>
       </c>
       <c r="G67" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A67,'w10'!$B$2:$B$131,0))</f>
@@ -17486,9 +19436,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A68,'w8'!$B$2:$B$131,0))</f>
         <v>100</v>
       </c>
-      <c r="F68" t="e">
+      <c r="F68">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A68,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>77</v>
       </c>
       <c r="G68" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A68,'w10'!$B$2:$B$131,0))</f>
@@ -17547,9 +19497,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A69,'w8'!$B$2:$B$131,0))</f>
         <v>90</v>
       </c>
-      <c r="F69" t="e">
+      <c r="F69">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A69,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>93</v>
       </c>
       <c r="G69" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A69,'w10'!$B$2:$B$131,0))</f>
@@ -17608,9 +19558,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A70,'w8'!$B$2:$B$131,0))</f>
         <v>113</v>
       </c>
-      <c r="F70" t="e">
+      <c r="F70">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A70,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>115</v>
       </c>
       <c r="G70" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A70,'w10'!$B$2:$B$131,0))</f>
@@ -17669,9 +19619,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A71,'w8'!$B$2:$B$131,0))</f>
         <v>118</v>
       </c>
-      <c r="F71" t="e">
+      <c r="F71">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A71,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>119</v>
       </c>
       <c r="G71" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A71,'w10'!$B$2:$B$131,0))</f>
@@ -17730,9 +19680,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A72,'w8'!$B$2:$B$131,0))</f>
         <v>27</v>
       </c>
-      <c r="F72" t="e">
+      <c r="F72">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A72,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>39</v>
       </c>
       <c r="G72" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A72,'w10'!$B$2:$B$131,0))</f>
@@ -17791,9 +19741,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A73,'w8'!$B$2:$B$131,0))</f>
         <v>68</v>
       </c>
-      <c r="F73" t="e">
+      <c r="F73">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A73,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>69</v>
       </c>
       <c r="G73" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A73,'w10'!$B$2:$B$131,0))</f>
@@ -17852,9 +19802,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A74,'w8'!$B$2:$B$131,0))</f>
         <v>58</v>
       </c>
-      <c r="F74" t="e">
+      <c r="F74">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A74,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>53</v>
       </c>
       <c r="G74" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A74,'w10'!$B$2:$B$131,0))</f>
@@ -17913,9 +19863,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A75,'w8'!$B$2:$B$131,0))</f>
         <v>1</v>
       </c>
-      <c r="F75" t="e">
+      <c r="F75">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A75,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="G75" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A75,'w10'!$B$2:$B$131,0))</f>
@@ -17974,9 +19924,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A76,'w8'!$B$2:$B$131,0))</f>
         <v>80</v>
       </c>
-      <c r="F76" t="e">
+      <c r="F76">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A76,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>74</v>
       </c>
       <c r="G76" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A76,'w10'!$B$2:$B$131,0))</f>
@@ -18035,9 +19985,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A77,'w8'!$B$2:$B$131,0))</f>
         <v>4</v>
       </c>
-      <c r="F77" t="e">
+      <c r="F77">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A77,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="G77" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A77,'w10'!$B$2:$B$131,0))</f>
@@ -18096,9 +20046,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A78,'w8'!$B$2:$B$131,0))</f>
         <v>12</v>
       </c>
-      <c r="F78" t="e">
+      <c r="F78">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A78,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="G78" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A78,'w10'!$B$2:$B$131,0))</f>
@@ -18157,9 +20107,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A79,'w8'!$B$2:$B$131,0))</f>
         <v>92</v>
       </c>
-      <c r="F79" t="e">
+      <c r="F79">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A79,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>87</v>
       </c>
       <c r="G79" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A79,'w10'!$B$2:$B$131,0))</f>
@@ -18218,9 +20168,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A80,'w8'!$B$2:$B$131,0))</f>
         <v>115</v>
       </c>
-      <c r="F80" t="e">
+      <c r="F80">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A80,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>106</v>
       </c>
       <c r="G80" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A80,'w10'!$B$2:$B$131,0))</f>
@@ -18279,9 +20229,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A81,'w8'!$B$2:$B$131,0))</f>
         <v>38</v>
       </c>
-      <c r="F81" t="e">
+      <c r="F81">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A81,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>54</v>
       </c>
       <c r="G81" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A81,'w10'!$B$2:$B$131,0))</f>
@@ -18340,9 +20290,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A82,'w8'!$B$2:$B$131,0))</f>
         <v>21</v>
       </c>
-      <c r="F82" t="e">
+      <c r="F82">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A82,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>40</v>
       </c>
       <c r="G82" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A82,'w10'!$B$2:$B$131,0))</f>
@@ -18401,9 +20351,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A83,'w8'!$B$2:$B$131,0))</f>
         <v>125</v>
       </c>
-      <c r="F83" t="e">
+      <c r="F83">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A83,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>129</v>
       </c>
       <c r="G83" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A83,'w10'!$B$2:$B$131,0))</f>
@@ -18462,9 +20412,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A84,'w8'!$B$2:$B$131,0))</f>
         <v>31</v>
       </c>
-      <c r="F84" t="e">
+      <c r="F84">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A84,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>29</v>
       </c>
       <c r="G84" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A84,'w10'!$B$2:$B$131,0))</f>
@@ -18523,9 +20473,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A85,'w8'!$B$2:$B$131,0))</f>
         <v>77</v>
       </c>
-      <c r="F85" t="e">
+      <c r="F85">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A85,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>75</v>
       </c>
       <c r="G85" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A85,'w10'!$B$2:$B$131,0))</f>
@@ -18584,9 +20534,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A86,'w8'!$B$2:$B$131,0))</f>
         <v>61</v>
       </c>
-      <c r="F86" t="e">
+      <c r="F86">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A86,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>28</v>
       </c>
       <c r="G86" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A86,'w10'!$B$2:$B$131,0))</f>
@@ -18645,9 +20595,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A87,'w8'!$B$2:$B$131,0))</f>
         <v>122</v>
       </c>
-      <c r="F87" t="e">
+      <c r="F87">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A87,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>123</v>
       </c>
       <c r="G87" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A87,'w10'!$B$2:$B$131,0))</f>
@@ -18706,9 +20656,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A88,'w8'!$B$2:$B$131,0))</f>
         <v>129</v>
       </c>
-      <c r="F88" t="e">
+      <c r="F88">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A88,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>130</v>
       </c>
       <c r="G88" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A88,'w10'!$B$2:$B$131,0))</f>
@@ -18767,9 +20717,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A89,'w8'!$B$2:$B$131,0))</f>
         <v>23</v>
       </c>
-      <c r="F89" t="e">
+      <c r="F89">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A89,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>27</v>
       </c>
       <c r="G89" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A89,'w10'!$B$2:$B$131,0))</f>
@@ -18828,9 +20778,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A90,'w8'!$B$2:$B$131,0))</f>
         <v>120</v>
       </c>
-      <c r="F90" t="e">
+      <c r="F90">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A90,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>121</v>
       </c>
       <c r="G90" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A90,'w10'!$B$2:$B$131,0))</f>
@@ -18889,9 +20839,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A91,'w8'!$B$2:$B$131,0))</f>
         <v>101</v>
       </c>
-      <c r="F91" t="e">
+      <c r="F91">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A91,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>85</v>
       </c>
       <c r="G91" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A91,'w10'!$B$2:$B$131,0))</f>
@@ -18950,9 +20900,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A92,'w8'!$B$2:$B$131,0))</f>
         <v>111</v>
       </c>
-      <c r="F92" t="e">
+      <c r="F92">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A92,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>110</v>
       </c>
       <c r="G92" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A92,'w10'!$B$2:$B$131,0))</f>
@@ -19011,9 +20961,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A93,'w8'!$B$2:$B$131,0))</f>
         <v>60</v>
       </c>
-      <c r="F93" t="e">
+      <c r="F93">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A93,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>61</v>
       </c>
       <c r="G93" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A93,'w10'!$B$2:$B$131,0))</f>
@@ -19072,9 +21022,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A94,'w8'!$B$2:$B$131,0))</f>
         <v>14</v>
       </c>
-      <c r="F94" t="e">
+      <c r="F94">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A94,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>15</v>
       </c>
       <c r="G94" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A94,'w10'!$B$2:$B$131,0))</f>
@@ -19133,9 +21083,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A95,'w8'!$B$2:$B$131,0))</f>
         <v>104</v>
       </c>
-      <c r="F95" t="e">
+      <c r="F95">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A95,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>84</v>
       </c>
       <c r="G95" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A95,'w10'!$B$2:$B$131,0))</f>
@@ -19194,9 +21144,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A96,'w8'!$B$2:$B$131,0))</f>
         <v>24</v>
       </c>
-      <c r="F96" t="e">
+      <c r="F96">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A96,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>23</v>
       </c>
       <c r="G96" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A96,'w10'!$B$2:$B$131,0))</f>
@@ -19255,9 +21205,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A97,'w8'!$B$2:$B$131,0))</f>
         <v>56</v>
       </c>
-      <c r="F97" t="e">
+      <c r="F97">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A97,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>48</v>
       </c>
       <c r="G97" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A97,'w10'!$B$2:$B$131,0))</f>
@@ -19316,9 +21266,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A98,'w8'!$B$2:$B$131,0))</f>
         <v>66</v>
       </c>
-      <c r="F98" t="e">
+      <c r="F98">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A98,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>76</v>
       </c>
       <c r="G98" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A98,'w10'!$B$2:$B$131,0))</f>
@@ -19377,9 +21327,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A99,'w8'!$B$2:$B$131,0))</f>
         <v>48</v>
       </c>
-      <c r="F99" t="e">
+      <c r="F99">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A99,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>34</v>
       </c>
       <c r="G99" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A99,'w10'!$B$2:$B$131,0))</f>
@@ -19438,9 +21388,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A100,'w8'!$B$2:$B$131,0))</f>
         <v>65</v>
       </c>
-      <c r="F100" t="e">
+      <c r="F100">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A100,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>71</v>
       </c>
       <c r="G100" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A100,'w10'!$B$2:$B$131,0))</f>
@@ -19499,9 +21449,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A101,'w8'!$B$2:$B$131,0))</f>
         <v>19</v>
       </c>
-      <c r="F101" t="e">
+      <c r="F101">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A101,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>16</v>
       </c>
       <c r="G101" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A101,'w10'!$B$2:$B$131,0))</f>
@@ -19560,9 +21510,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A102,'w8'!$B$2:$B$131,0))</f>
         <v>6</v>
       </c>
-      <c r="F102" t="e">
+      <c r="F102">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A102,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="G102" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A102,'w10'!$B$2:$B$131,0))</f>
@@ -19621,9 +21571,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A103,'w8'!$B$2:$B$131,0))</f>
         <v>124</v>
       </c>
-      <c r="F103" t="e">
+      <c r="F103">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A103,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>125</v>
       </c>
       <c r="G103" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A103,'w10'!$B$2:$B$131,0))</f>
@@ -19682,9 +21632,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A104,'w8'!$B$2:$B$131,0))</f>
         <v>22</v>
       </c>
-      <c r="F104" t="e">
+      <c r="F104">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A104,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>24</v>
       </c>
       <c r="G104" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A104,'w10'!$B$2:$B$131,0))</f>
@@ -19743,9 +21693,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A105,'w8'!$B$2:$B$131,0))</f>
         <v>87</v>
       </c>
-      <c r="F105" t="e">
+      <c r="F105">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A105,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>88</v>
       </c>
       <c r="G105" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A105,'w10'!$B$2:$B$131,0))</f>
@@ -19804,9 +21754,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A106,'w8'!$B$2:$B$131,0))</f>
         <v>53</v>
       </c>
-      <c r="F106" t="e">
+      <c r="F106">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A106,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
       <c r="G106" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A106,'w10'!$B$2:$B$131,0))</f>
@@ -19865,9 +21815,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A107,'w8'!$B$2:$B$131,0))</f>
         <v>84</v>
       </c>
-      <c r="F107" t="e">
+      <c r="F107">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A107,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>104</v>
       </c>
       <c r="G107" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A107,'w10'!$B$2:$B$131,0))</f>
@@ -19926,9 +21876,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A108,'w8'!$B$2:$B$131,0))</f>
         <v>112</v>
       </c>
-      <c r="F108" t="e">
+      <c r="F108">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A108,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>122</v>
       </c>
       <c r="G108" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A108,'w10'!$B$2:$B$131,0))</f>
@@ -19987,9 +21937,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A109,'w8'!$B$2:$B$131,0))</f>
         <v>30</v>
       </c>
-      <c r="F109" t="e">
+      <c r="F109">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A109,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>25</v>
       </c>
       <c r="G109" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A109,'w10'!$B$2:$B$131,0))</f>
@@ -20048,9 +21998,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A110,'w8'!$B$2:$B$131,0))</f>
         <v>11</v>
       </c>
-      <c r="F110" t="e">
+      <c r="F110">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A110,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="G110" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A110,'w10'!$B$2:$B$131,0))</f>
@@ -20109,9 +22059,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A111,'w8'!$B$2:$B$131,0))</f>
         <v>96</v>
       </c>
-      <c r="F111" t="e">
+      <c r="F111">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A111,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>78</v>
       </c>
       <c r="G111" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A111,'w10'!$B$2:$B$131,0))</f>
@@ -20170,9 +22120,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A112,'w8'!$B$2:$B$131,0))</f>
         <v>116</v>
       </c>
-      <c r="F112" t="e">
+      <c r="F112">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A112,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>117</v>
       </c>
       <c r="G112" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A112,'w10'!$B$2:$B$131,0))</f>
@@ -20231,9 +22181,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A113,'w8'!$B$2:$B$131,0))</f>
         <v>99</v>
       </c>
-      <c r="F113" t="e">
+      <c r="F113">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A113,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>89</v>
       </c>
       <c r="G113" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A113,'w10'!$B$2:$B$131,0))</f>
@@ -20292,9 +22242,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A114,'w8'!$B$2:$B$131,0))</f>
         <v>105</v>
       </c>
-      <c r="F114" t="e">
+      <c r="F114">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A114,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>105</v>
       </c>
       <c r="G114" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A114,'w10'!$B$2:$B$131,0))</f>
@@ -20353,9 +22303,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A115,'w8'!$B$2:$B$131,0))</f>
         <v>107</v>
       </c>
-      <c r="F115" t="e">
+      <c r="F115">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A115,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>113</v>
       </c>
       <c r="G115" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A115,'w10'!$B$2:$B$131,0))</f>
@@ -20414,9 +22364,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A116,'w8'!$B$2:$B$131,0))</f>
         <v>16</v>
       </c>
-      <c r="F116" t="e">
+      <c r="F116">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A116,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>43</v>
       </c>
       <c r="G116" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A116,'w10'!$B$2:$B$131,0))</f>
@@ -20475,9 +22425,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A117,'w8'!$B$2:$B$131,0))</f>
         <v>33</v>
       </c>
-      <c r="F117" t="e">
+      <c r="F117">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A117,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
       <c r="G117" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A117,'w10'!$B$2:$B$131,0))</f>
@@ -20536,9 +22486,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A118,'w8'!$B$2:$B$131,0))</f>
         <v>26</v>
       </c>
-      <c r="F118" t="e">
+      <c r="F118">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A118,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>19</v>
       </c>
       <c r="G118" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A118,'w10'!$B$2:$B$131,0))</f>
@@ -20597,9 +22547,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A119,'w8'!$B$2:$B$131,0))</f>
         <v>128</v>
       </c>
-      <c r="F119" t="e">
+      <c r="F119">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A119,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>127</v>
       </c>
       <c r="G119" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A119,'w10'!$B$2:$B$131,0))</f>
@@ -20658,9 +22608,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A120,'w8'!$B$2:$B$131,0))</f>
         <v>110</v>
       </c>
-      <c r="F120" t="e">
+      <c r="F120">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A120,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>111</v>
       </c>
       <c r="G120" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A120,'w10'!$B$2:$B$131,0))</f>
@@ -20719,9 +22669,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A121,'w8'!$B$2:$B$131,0))</f>
         <v>93</v>
       </c>
-      <c r="F121" t="e">
+      <c r="F121">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A121,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>97</v>
       </c>
       <c r="G121" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A121,'w10'!$B$2:$B$131,0))</f>
@@ -20780,9 +22730,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A122,'w8'!$B$2:$B$131,0))</f>
         <v>37</v>
       </c>
-      <c r="F122" t="e">
+      <c r="F122">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A122,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>22</v>
       </c>
       <c r="G122" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A122,'w10'!$B$2:$B$131,0))</f>
@@ -20841,9 +22791,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A123,'w8'!$B$2:$B$131,0))</f>
         <v>28</v>
       </c>
-      <c r="F123" t="e">
+      <c r="F123">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A123,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>37</v>
       </c>
       <c r="G123" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A123,'w10'!$B$2:$B$131,0))</f>
@@ -20902,9 +22852,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A124,'w8'!$B$2:$B$131,0))</f>
         <v>71</v>
       </c>
-      <c r="F124" t="e">
+      <c r="F124">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A124,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>92</v>
       </c>
       <c r="G124" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A124,'w10'!$B$2:$B$131,0))</f>
@@ -20963,9 +22913,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A125,'w8'!$B$2:$B$131,0))</f>
         <v>29</v>
       </c>
-      <c r="F125" t="e">
+      <c r="F125">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A125,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>17</v>
       </c>
       <c r="G125" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A125,'w10'!$B$2:$B$131,0))</f>
@@ -21024,9 +22974,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A126,'w8'!$B$2:$B$131,0))</f>
         <v>32</v>
       </c>
-      <c r="F126" t="e">
+      <c r="F126">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A126,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>18</v>
       </c>
       <c r="G126" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A126,'w10'!$B$2:$B$131,0))</f>
@@ -21085,9 +23035,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A127,'w8'!$B$2:$B$131,0))</f>
         <v>20</v>
       </c>
-      <c r="F127" t="e">
+      <c r="F127">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A127,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>21</v>
       </c>
       <c r="G127" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A127,'w10'!$B$2:$B$131,0))</f>
@@ -21146,9 +23096,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A128,'w8'!$B$2:$B$131,0))</f>
         <v>117</v>
       </c>
-      <c r="F128" t="e">
+      <c r="F128">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A128,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>120</v>
       </c>
       <c r="G128" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A128,'w10'!$B$2:$B$131,0))</f>
@@ -21207,9 +23157,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A129,'w8'!$B$2:$B$131,0))</f>
         <v>52</v>
       </c>
-      <c r="F129" t="e">
+      <c r="F129">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A129,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>47</v>
       </c>
       <c r="G129" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A129,'w10'!$B$2:$B$131,0))</f>
@@ -21268,9 +23218,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A130,'w8'!$B$2:$B$131,0))</f>
         <v>46</v>
       </c>
-      <c r="F130" t="e">
+      <c r="F130">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A130,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>26</v>
       </c>
       <c r="G130" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A130,'w10'!$B$2:$B$131,0))</f>
@@ -21329,9 +23279,9 @@
         <f>INDEX('w8'!$A$2:$A$131,MATCH($A131,'w8'!$B$2:$B$131,0))</f>
         <v>108</v>
       </c>
-      <c r="F131" t="e">
+      <c r="F131">
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A131,'w9'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>109</v>
       </c>
       <c r="G131" t="e">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A131,'w10'!$B$2:$B$131,0))</f>

--- a/rankings_75.xlsx
+++ b/rankings_75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Python\CFB Rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84B5D86E-7F01-4F66-A81F-A3480260977F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{91BB7B5F-8248-4BC1-B949-31B3ED7FE47B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="post champ" sheetId="20" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="161">
   <si>
     <t>Team</t>
   </si>
@@ -2129,7 +2129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="G113" sqref="G113:G114"/>
     </sheetView>
   </sheetViews>
@@ -15414,9 +15414,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A2,'w9'!$B$2:$B$131,0))</f>
         <v>79</v>
       </c>
-      <c r="G2" t="e">
+      <c r="G2">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A2,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>91</v>
       </c>
       <c r="H2" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A2,'w11'!$B$2:$B$131,0))</f>
@@ -15475,9 +15475,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A3,'w9'!$B$2:$B$131,0))</f>
         <v>80</v>
       </c>
-      <c r="G3" t="e">
+      <c r="G3">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A3,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>74</v>
       </c>
       <c r="H3" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A3,'w11'!$B$2:$B$131,0))</f>
@@ -15536,9 +15536,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A4,'w9'!$B$2:$B$131,0))</f>
         <v>2</v>
       </c>
-      <c r="G4" t="e">
+      <c r="G4">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A4,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="H4" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A4,'w11'!$B$2:$B$131,0))</f>
@@ -15597,9 +15597,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A5,'w9'!$B$2:$B$131,0))</f>
         <v>33</v>
       </c>
-      <c r="G5" t="e">
+      <c r="G5">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A5,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
       <c r="H5" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A5,'w11'!$B$2:$B$131,0))</f>
@@ -15658,9 +15658,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A6,'w9'!$B$2:$B$131,0))</f>
         <v>81</v>
       </c>
-      <c r="G6" t="e">
+      <c r="G6">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A6,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>71</v>
       </c>
       <c r="H6" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A6,'w11'!$B$2:$B$131,0))</f>
@@ -15719,9 +15719,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A7,'w9'!$B$2:$B$131,0))</f>
         <v>100</v>
       </c>
-      <c r="G7" t="e">
+      <c r="G7">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A7,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>84</v>
       </c>
       <c r="H7" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A7,'w11'!$B$2:$B$131,0))</f>
@@ -15780,9 +15780,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A8,'w9'!$B$2:$B$131,0))</f>
         <v>114</v>
       </c>
-      <c r="G8" t="e">
+      <c r="G8">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A8,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>120</v>
       </c>
       <c r="H8" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A8,'w11'!$B$2:$B$131,0))</f>
@@ -15841,9 +15841,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A9,'w9'!$B$2:$B$131,0))</f>
         <v>66</v>
       </c>
-      <c r="G9" t="e">
+      <c r="G9">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A9,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>80</v>
       </c>
       <c r="H9" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A9,'w11'!$B$2:$B$131,0))</f>
@@ -15902,9 +15902,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A10,'w9'!$B$2:$B$131,0))</f>
         <v>42</v>
       </c>
-      <c r="G10" t="e">
+      <c r="G10">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A10,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>31</v>
       </c>
       <c r="H10" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A10,'w11'!$B$2:$B$131,0))</f>
@@ -15963,9 +15963,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A11,'w9'!$B$2:$B$131,0))</f>
         <v>52</v>
       </c>
-      <c r="G11" t="e">
+      <c r="G11">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A11,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>53</v>
       </c>
       <c r="H11" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A11,'w11'!$B$2:$B$131,0))</f>
@@ -16024,9 +16024,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A12,'w9'!$B$2:$B$131,0))</f>
         <v>107</v>
       </c>
-      <c r="G12" t="e">
+      <c r="G12">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A12,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>110</v>
       </c>
       <c r="H12" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A12,'w11'!$B$2:$B$131,0))</f>
@@ -16085,9 +16085,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A13,'w9'!$B$2:$B$131,0))</f>
         <v>64</v>
       </c>
-      <c r="G13" t="e">
+      <c r="G13">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A13,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>78</v>
       </c>
       <c r="H13" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A13,'w11'!$B$2:$B$131,0))</f>
@@ -16146,9 +16146,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A14,'w9'!$B$2:$B$131,0))</f>
         <v>46</v>
       </c>
-      <c r="G14" t="e">
+      <c r="G14">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A14,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>39</v>
       </c>
       <c r="H14" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A14,'w11'!$B$2:$B$131,0))</f>
@@ -16207,9 +16207,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A15,'w9'!$B$2:$B$131,0))</f>
         <v>44</v>
       </c>
-      <c r="G15" t="e">
+      <c r="G15">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A15,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>28</v>
       </c>
       <c r="H15" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A15,'w11'!$B$2:$B$131,0))</f>
@@ -16268,9 +16268,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A16,'w9'!$B$2:$B$131,0))</f>
         <v>128</v>
       </c>
-      <c r="G16" t="e">
+      <c r="G16">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A16,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>127</v>
       </c>
       <c r="H16" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A16,'w11'!$B$2:$B$131,0))</f>
@@ -16329,9 +16329,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A17,'w9'!$B$2:$B$131,0))</f>
         <v>20</v>
       </c>
-      <c r="G17" t="e">
+      <c r="G17">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A17,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>20</v>
       </c>
       <c r="H17" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A17,'w11'!$B$2:$B$131,0))</f>
@@ -16390,9 +16390,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A18,'w9'!$B$2:$B$131,0))</f>
         <v>58</v>
       </c>
-      <c r="G18" t="e">
+      <c r="G18">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A18,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>72</v>
       </c>
       <c r="H18" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A18,'w11'!$B$2:$B$131,0))</f>
@@ -16451,9 +16451,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A19,'w9'!$B$2:$B$131,0))</f>
         <v>99</v>
       </c>
-      <c r="G19" t="e">
+      <c r="G19">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A19,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>76</v>
       </c>
       <c r="H19" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A19,'w11'!$B$2:$B$131,0))</f>
@@ -16512,9 +16512,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A20,'w9'!$B$2:$B$131,0))</f>
         <v>124</v>
       </c>
-      <c r="G20" t="e">
+      <c r="G20">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A20,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>125</v>
       </c>
       <c r="H20" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A20,'w11'!$B$2:$B$131,0))</f>
@@ -16573,9 +16573,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A21,'w9'!$B$2:$B$131,0))</f>
         <v>94</v>
       </c>
-      <c r="G21" t="e">
+      <c r="G21">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A21,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>83</v>
       </c>
       <c r="H21" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A21,'w11'!$B$2:$B$131,0))</f>
@@ -16634,9 +16634,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A22,'w9'!$B$2:$B$131,0))</f>
         <v>36</v>
       </c>
-      <c r="G22" t="e">
+      <c r="G22">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A22,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>25</v>
       </c>
       <c r="H22" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A22,'w11'!$B$2:$B$131,0))</f>
@@ -16695,9 +16695,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A23,'w9'!$B$2:$B$131,0))</f>
         <v>1</v>
       </c>
-      <c r="G23" t="e">
+      <c r="G23">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A23,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="H23" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A23,'w11'!$B$2:$B$131,0))</f>
@@ -16756,9 +16756,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A24,'w9'!$B$2:$B$131,0))</f>
         <v>72</v>
       </c>
-      <c r="G24" t="e">
+      <c r="G24">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A24,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>61</v>
       </c>
       <c r="H24" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A24,'w11'!$B$2:$B$131,0))</f>
@@ -16817,9 +16817,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A25,'w9'!$B$2:$B$131,0))</f>
         <v>56</v>
       </c>
-      <c r="G25" t="e">
+      <c r="G25">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A25,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>82</v>
       </c>
       <c r="H25" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A25,'w11'!$B$2:$B$131,0))</f>
@@ -16878,9 +16878,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A26,'w9'!$B$2:$B$131,0))</f>
         <v>91</v>
       </c>
-      <c r="G26" t="e">
+      <c r="G26">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A26,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>105</v>
       </c>
       <c r="H26" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A26,'w11'!$B$2:$B$131,0))</f>
@@ -16939,9 +16939,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A27,'w9'!$B$2:$B$131,0))</f>
         <v>38</v>
       </c>
-      <c r="G27" t="e">
+      <c r="G27">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A27,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>52</v>
       </c>
       <c r="H27" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A27,'w11'!$B$2:$B$131,0))</f>
@@ -17000,9 +17000,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A28,'w9'!$B$2:$B$131,0))</f>
         <v>95</v>
       </c>
-      <c r="G28" t="e">
+      <c r="G28">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A28,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>97</v>
       </c>
       <c r="H28" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A28,'w11'!$B$2:$B$131,0))</f>
@@ -17061,9 +17061,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A29,'w9'!$B$2:$B$131,0))</f>
         <v>67</v>
       </c>
-      <c r="G29" t="e">
+      <c r="G29">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A29,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>77</v>
       </c>
       <c r="H29" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A29,'w11'!$B$2:$B$131,0))</f>
@@ -17122,9 +17122,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A30,'w9'!$B$2:$B$131,0))</f>
         <v>82</v>
       </c>
-      <c r="G30" t="e">
+      <c r="G30">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A30,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
       <c r="H30" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A30,'w11'!$B$2:$B$131,0))</f>
@@ -17183,9 +17183,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A31,'w9'!$B$2:$B$131,0))</f>
         <v>7</v>
       </c>
-      <c r="G31" t="e">
+      <c r="G31">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A31,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="H31" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A31,'w11'!$B$2:$B$131,0))</f>
@@ -17244,9 +17244,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A32,'w9'!$B$2:$B$131,0))</f>
         <v>62</v>
       </c>
-      <c r="G32" t="e">
+      <c r="G32">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A32,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>54</v>
       </c>
       <c r="H32" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A32,'w11'!$B$2:$B$131,0))</f>
@@ -17305,9 +17305,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A33,'w9'!$B$2:$B$131,0))</f>
         <v>63</v>
       </c>
-      <c r="G33" t="e">
+      <c r="G33">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A33,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>73</v>
       </c>
       <c r="H33" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A33,'w11'!$B$2:$B$131,0))</f>
@@ -17366,9 +17366,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A34,'w9'!$B$2:$B$131,0))</f>
         <v>30</v>
       </c>
-      <c r="G34" t="e">
+      <c r="G34">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A34,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>19</v>
       </c>
       <c r="H34" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A34,'w11'!$B$2:$B$131,0))</f>
@@ -17427,9 +17427,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A35,'w9'!$B$2:$B$131,0))</f>
         <v>11</v>
       </c>
-      <c r="G35" t="e">
+      <c r="G35">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A35,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="H35" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A35,'w11'!$B$2:$B$131,0))</f>
@@ -17488,9 +17488,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A36,'w9'!$B$2:$B$131,0))</f>
         <v>32</v>
       </c>
-      <c r="G36" t="e">
+      <c r="G36">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A36,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>22</v>
       </c>
       <c r="H36" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A36,'w11'!$B$2:$B$131,0))</f>
@@ -17549,9 +17549,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A37,'w9'!$B$2:$B$131,0))</f>
         <v>102</v>
       </c>
-      <c r="G37" t="e">
+      <c r="G37">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A37,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>109</v>
       </c>
       <c r="H37" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A37,'w11'!$B$2:$B$131,0))</f>
@@ -17610,9 +17610,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A38,'w9'!$B$2:$B$131,0))</f>
         <v>86</v>
       </c>
-      <c r="G38" t="e">
+      <c r="G38">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A38,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
       <c r="H38" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A38,'w11'!$B$2:$B$131,0))</f>
@@ -17671,9 +17671,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A39,'w9'!$B$2:$B$131,0))</f>
         <v>65</v>
       </c>
-      <c r="G39" t="e">
+      <c r="G39">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A39,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>69</v>
       </c>
       <c r="H39" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A39,'w11'!$B$2:$B$131,0))</f>
@@ -17732,9 +17732,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A40,'w9'!$B$2:$B$131,0))</f>
         <v>31</v>
       </c>
-      <c r="G40" t="e">
+      <c r="G40">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A40,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>15</v>
       </c>
       <c r="H40" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A40,'w11'!$B$2:$B$131,0))</f>
@@ -17793,9 +17793,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A41,'w9'!$B$2:$B$131,0))</f>
         <v>101</v>
       </c>
-      <c r="G41" t="e">
+      <c r="G41">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A41,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>114</v>
       </c>
       <c r="H41" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A41,'w11'!$B$2:$B$131,0))</f>
@@ -17854,9 +17854,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A42,'w9'!$B$2:$B$131,0))</f>
         <v>73</v>
       </c>
-      <c r="G42" t="e">
+      <c r="G42">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A42,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>88</v>
       </c>
       <c r="H42" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A42,'w11'!$B$2:$B$131,0))</f>
@@ -17915,9 +17915,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A43,'w9'!$B$2:$B$131,0))</f>
         <v>10</v>
       </c>
-      <c r="G43" t="e">
+      <c r="G43">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A43,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>18</v>
       </c>
       <c r="H43" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A43,'w11'!$B$2:$B$131,0))</f>
@@ -17976,9 +17976,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A44,'w9'!$B$2:$B$131,0))</f>
         <v>45</v>
       </c>
-      <c r="G44" t="e">
+      <c r="G44">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A44,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>30</v>
       </c>
       <c r="H44" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A44,'w11'!$B$2:$B$131,0))</f>
@@ -18037,9 +18037,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A45,'w9'!$B$2:$B$131,0))</f>
         <v>112</v>
       </c>
-      <c r="G45" t="e">
+      <c r="G45">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A45,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>104</v>
       </c>
       <c r="H45" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A45,'w11'!$B$2:$B$131,0))</f>
@@ -18098,9 +18098,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A46,'w9'!$B$2:$B$131,0))</f>
         <v>83</v>
       </c>
-      <c r="G46" t="e">
+      <c r="G46">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A46,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>94</v>
       </c>
       <c r="H46" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A46,'w11'!$B$2:$B$131,0))</f>
@@ -18159,9 +18159,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A47,'w9'!$B$2:$B$131,0))</f>
         <v>126</v>
       </c>
-      <c r="G47" t="e">
+      <c r="G47">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A47,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>126</v>
       </c>
       <c r="H47" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A47,'w11'!$B$2:$B$131,0))</f>
@@ -18220,9 +18220,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A48,'w9'!$B$2:$B$131,0))</f>
         <v>14</v>
       </c>
-      <c r="G48" t="e">
+      <c r="G48">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A48,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="H48" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A48,'w11'!$B$2:$B$131,0))</f>
@@ -18281,9 +18281,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A49,'w9'!$B$2:$B$131,0))</f>
         <v>68</v>
       </c>
-      <c r="G49" t="e">
+      <c r="G49">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A49,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>68</v>
       </c>
       <c r="H49" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A49,'w11'!$B$2:$B$131,0))</f>
@@ -18342,9 +18342,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A50,'w9'!$B$2:$B$131,0))</f>
         <v>90</v>
       </c>
-      <c r="G50" t="e">
+      <c r="G50">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A50,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>79</v>
       </c>
       <c r="H50" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A50,'w11'!$B$2:$B$131,0))</f>
@@ -18403,9 +18403,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A51,'w9'!$B$2:$B$131,0))</f>
         <v>49</v>
       </c>
-      <c r="G51" t="e">
+      <c r="G51">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A51,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>41</v>
       </c>
       <c r="H51" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A51,'w11'!$B$2:$B$131,0))</f>
@@ -18464,9 +18464,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A52,'w9'!$B$2:$B$131,0))</f>
         <v>118</v>
       </c>
-      <c r="G52" t="e">
+      <c r="G52">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A52,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>124</v>
       </c>
       <c r="H52" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A52,'w11'!$B$2:$B$131,0))</f>
@@ -18525,9 +18525,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A53,'w9'!$B$2:$B$131,0))</f>
         <v>5</v>
       </c>
-      <c r="G53" t="e">
+      <c r="G53">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A53,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="H53" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A53,'w11'!$B$2:$B$131,0))</f>
@@ -18586,9 +18586,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A54,'w9'!$B$2:$B$131,0))</f>
         <v>55</v>
       </c>
-      <c r="G54" t="e">
+      <c r="G54">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A54,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>56</v>
       </c>
       <c r="H54" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A54,'w11'!$B$2:$B$131,0))</f>
@@ -18647,9 +18647,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A55,'w9'!$B$2:$B$131,0))</f>
         <v>57</v>
       </c>
-      <c r="G55" t="e">
+      <c r="G55">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A55,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>46</v>
       </c>
       <c r="H55" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A55,'w11'!$B$2:$B$131,0))</f>
@@ -18708,9 +18708,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A56,'w9'!$B$2:$B$131,0))</f>
         <v>98</v>
       </c>
-      <c r="G56" t="e">
+      <c r="G56">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A56,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>98</v>
       </c>
       <c r="H56" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A56,'w11'!$B$2:$B$131,0))</f>
@@ -18769,9 +18769,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A57,'w9'!$B$2:$B$131,0))</f>
         <v>96</v>
       </c>
-      <c r="G57" t="e">
+      <c r="G57">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A57,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>93</v>
       </c>
       <c r="H57" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A57,'w11'!$B$2:$B$131,0))</f>
@@ -18830,9 +18830,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A58,'w9'!$B$2:$B$131,0))</f>
         <v>41</v>
       </c>
-      <c r="G58" t="e">
+      <c r="G58">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A58,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
       <c r="H58" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A58,'w11'!$B$2:$B$131,0))</f>
@@ -18891,9 +18891,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A59,'w9'!$B$2:$B$131,0))</f>
         <v>59</v>
       </c>
-      <c r="G59" t="e">
+      <c r="G59">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A59,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>42</v>
       </c>
       <c r="H59" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A59,'w11'!$B$2:$B$131,0))</f>
@@ -18952,9 +18952,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A60,'w9'!$B$2:$B$131,0))</f>
         <v>4</v>
       </c>
-      <c r="G60" t="e">
+      <c r="G60">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A60,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="H60" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A60,'w11'!$B$2:$B$131,0))</f>
@@ -19013,9 +19013,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A61,'w9'!$B$2:$B$131,0))</f>
         <v>70</v>
       </c>
-      <c r="G61" t="e">
+      <c r="G61">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A61,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>57</v>
       </c>
       <c r="H61" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A61,'w11'!$B$2:$B$131,0))</f>
@@ -19074,9 +19074,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A62,'w9'!$B$2:$B$131,0))</f>
         <v>103</v>
       </c>
-      <c r="G62" t="e">
+      <c r="G62">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A62,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>86</v>
       </c>
       <c r="H62" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A62,'w11'!$B$2:$B$131,0))</f>
@@ -19135,9 +19135,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A63,'w9'!$B$2:$B$131,0))</f>
         <v>51</v>
       </c>
-      <c r="G63" t="e">
+      <c r="G63">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A63,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>36</v>
       </c>
       <c r="H63" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A63,'w11'!$B$2:$B$131,0))</f>
@@ -19196,9 +19196,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A64,'w9'!$B$2:$B$131,0))</f>
         <v>60</v>
       </c>
-      <c r="G64" t="e">
+      <c r="G64">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A64,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>67</v>
       </c>
       <c r="H64" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A64,'w11'!$B$2:$B$131,0))</f>
@@ -19257,9 +19257,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A65,'w9'!$B$2:$B$131,0))</f>
         <v>108</v>
       </c>
-      <c r="G65" t="e">
+      <c r="G65">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A65,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>106</v>
       </c>
       <c r="H65" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A65,'w11'!$B$2:$B$131,0))</f>
@@ -19318,9 +19318,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A66,'w9'!$B$2:$B$131,0))</f>
         <v>12</v>
       </c>
-      <c r="G66" t="e">
+      <c r="G66">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A66,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>24</v>
       </c>
       <c r="H66" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A66,'w11'!$B$2:$B$131,0))</f>
@@ -19379,9 +19379,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A67,'w9'!$B$2:$B$131,0))</f>
         <v>116</v>
       </c>
-      <c r="G67" t="e">
+      <c r="G67">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A67,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>107</v>
       </c>
       <c r="H67" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A67,'w11'!$B$2:$B$131,0))</f>
@@ -19440,9 +19440,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A68,'w9'!$B$2:$B$131,0))</f>
         <v>77</v>
       </c>
-      <c r="G68" t="e">
+      <c r="G68">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A68,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>66</v>
       </c>
       <c r="H68" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A68,'w11'!$B$2:$B$131,0))</f>
@@ -19501,9 +19501,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A69,'w9'!$B$2:$B$131,0))</f>
         <v>93</v>
       </c>
-      <c r="G69" t="e">
+      <c r="G69">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A69,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>101</v>
       </c>
       <c r="H69" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A69,'w11'!$B$2:$B$131,0))</f>
@@ -19562,9 +19562,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A70,'w9'!$B$2:$B$131,0))</f>
         <v>115</v>
       </c>
-      <c r="G70" t="e">
+      <c r="G70">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A70,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>116</v>
       </c>
       <c r="H70" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A70,'w11'!$B$2:$B$131,0))</f>
@@ -19623,9 +19623,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A71,'w9'!$B$2:$B$131,0))</f>
         <v>119</v>
       </c>
-      <c r="G71" t="e">
+      <c r="G71">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A71,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>121</v>
       </c>
       <c r="H71" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A71,'w11'!$B$2:$B$131,0))</f>
@@ -19684,9 +19684,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A72,'w9'!$B$2:$B$131,0))</f>
         <v>39</v>
       </c>
-      <c r="G72" t="e">
+      <c r="G72">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A72,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>33</v>
       </c>
       <c r="H72" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A72,'w11'!$B$2:$B$131,0))</f>
@@ -19745,9 +19745,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A73,'w9'!$B$2:$B$131,0))</f>
         <v>69</v>
       </c>
-      <c r="G73" t="e">
+      <c r="G73">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A73,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
       <c r="H73" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A73,'w11'!$B$2:$B$131,0))</f>
@@ -19806,9 +19806,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A74,'w9'!$B$2:$B$131,0))</f>
         <v>53</v>
       </c>
-      <c r="G74" t="e">
+      <c r="G74">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A74,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>34</v>
       </c>
       <c r="H74" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A74,'w11'!$B$2:$B$131,0))</f>
@@ -19867,9 +19867,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A75,'w9'!$B$2:$B$131,0))</f>
         <v>3</v>
       </c>
-      <c r="G75" t="e">
+      <c r="G75">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A75,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="H75" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A75,'w11'!$B$2:$B$131,0))</f>
@@ -19928,9 +19928,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A76,'w9'!$B$2:$B$131,0))</f>
         <v>74</v>
       </c>
-      <c r="G76" t="e">
+      <c r="G76">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A76,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>63</v>
       </c>
       <c r="H76" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A76,'w11'!$B$2:$B$131,0))</f>
@@ -19989,9 +19989,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A77,'w9'!$B$2:$B$131,0))</f>
         <v>13</v>
       </c>
-      <c r="G77" t="e">
+      <c r="G77">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A77,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="H77" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A77,'w11'!$B$2:$B$131,0))</f>
@@ -20050,9 +20050,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A78,'w9'!$B$2:$B$131,0))</f>
         <v>8</v>
       </c>
-      <c r="G78" t="e">
+      <c r="G78">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A78,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="H78" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A78,'w11'!$B$2:$B$131,0))</f>
@@ -20111,9 +20111,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A79,'w9'!$B$2:$B$131,0))</f>
         <v>87</v>
       </c>
-      <c r="G79" t="e">
+      <c r="G79">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A79,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>62</v>
       </c>
       <c r="H79" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A79,'w11'!$B$2:$B$131,0))</f>
@@ -20172,9 +20172,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A80,'w9'!$B$2:$B$131,0))</f>
         <v>106</v>
       </c>
-      <c r="G80" t="e">
+      <c r="G80">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A80,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>111</v>
       </c>
       <c r="H80" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A80,'w11'!$B$2:$B$131,0))</f>
@@ -20233,9 +20233,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A81,'w9'!$B$2:$B$131,0))</f>
         <v>54</v>
       </c>
-      <c r="G81" t="e">
+      <c r="G81">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A81,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>51</v>
       </c>
       <c r="H81" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A81,'w11'!$B$2:$B$131,0))</f>
@@ -20294,9 +20294,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A82,'w9'!$B$2:$B$131,0))</f>
         <v>40</v>
       </c>
-      <c r="G82" t="e">
+      <c r="G82">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A82,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>59</v>
       </c>
       <c r="H82" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A82,'w11'!$B$2:$B$131,0))</f>
@@ -20355,9 +20355,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A83,'w9'!$B$2:$B$131,0))</f>
         <v>129</v>
       </c>
-      <c r="G83" t="e">
+      <c r="G83">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A83,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>113</v>
       </c>
       <c r="H83" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A83,'w11'!$B$2:$B$131,0))</f>
@@ -20416,9 +20416,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A84,'w9'!$B$2:$B$131,0))</f>
         <v>29</v>
       </c>
-      <c r="G84" t="e">
+      <c r="G84">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A84,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>14</v>
       </c>
       <c r="H84" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A84,'w11'!$B$2:$B$131,0))</f>
@@ -20477,9 +20477,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A85,'w9'!$B$2:$B$131,0))</f>
         <v>75</v>
       </c>
-      <c r="G85" t="e">
+      <c r="G85">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A85,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>55</v>
       </c>
       <c r="H85" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A85,'w11'!$B$2:$B$131,0))</f>
@@ -20538,9 +20538,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A86,'w9'!$B$2:$B$131,0))</f>
         <v>28</v>
       </c>
-      <c r="G86" t="e">
+      <c r="G86">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A86,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>49</v>
       </c>
       <c r="H86" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A86,'w11'!$B$2:$B$131,0))</f>
@@ -20599,9 +20599,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A87,'w9'!$B$2:$B$131,0))</f>
         <v>123</v>
       </c>
-      <c r="G87" t="e">
+      <c r="G87">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A87,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>123</v>
       </c>
       <c r="H87" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A87,'w11'!$B$2:$B$131,0))</f>
@@ -20660,9 +20660,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A88,'w9'!$B$2:$B$131,0))</f>
         <v>130</v>
       </c>
-      <c r="G88" t="e">
+      <c r="G88">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A88,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>130</v>
       </c>
       <c r="H88" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A88,'w11'!$B$2:$B$131,0))</f>
@@ -20721,9 +20721,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A89,'w9'!$B$2:$B$131,0))</f>
         <v>27</v>
       </c>
-      <c r="G89" t="e">
+      <c r="G89">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A89,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>44</v>
       </c>
       <c r="H89" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A89,'w11'!$B$2:$B$131,0))</f>
@@ -20782,9 +20782,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A90,'w9'!$B$2:$B$131,0))</f>
         <v>121</v>
       </c>
-      <c r="G90" t="e">
+      <c r="G90">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A90,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>115</v>
       </c>
       <c r="H90" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A90,'w11'!$B$2:$B$131,0))</f>
@@ -20843,9 +20843,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A91,'w9'!$B$2:$B$131,0))</f>
         <v>85</v>
       </c>
-      <c r="G91" t="e">
+      <c r="G91">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A91,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>92</v>
       </c>
       <c r="H91" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A91,'w11'!$B$2:$B$131,0))</f>
@@ -20904,9 +20904,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A92,'w9'!$B$2:$B$131,0))</f>
         <v>110</v>
       </c>
-      <c r="G92" t="e">
+      <c r="G92">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A92,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>108</v>
       </c>
       <c r="H92" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A92,'w11'!$B$2:$B$131,0))</f>
@@ -20965,9 +20965,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A93,'w9'!$B$2:$B$131,0))</f>
         <v>61</v>
       </c>
-      <c r="G93" t="e">
+      <c r="G93">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A93,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>48</v>
       </c>
       <c r="H93" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A93,'w11'!$B$2:$B$131,0))</f>
@@ -21026,9 +21026,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A94,'w9'!$B$2:$B$131,0))</f>
         <v>15</v>
       </c>
-      <c r="G94" t="e">
+      <c r="G94">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A94,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>23</v>
       </c>
       <c r="H94" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A94,'w11'!$B$2:$B$131,0))</f>
@@ -21087,9 +21087,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A95,'w9'!$B$2:$B$131,0))</f>
         <v>84</v>
       </c>
-      <c r="G95" t="e">
+      <c r="G95">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A95,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>95</v>
       </c>
       <c r="H95" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A95,'w11'!$B$2:$B$131,0))</f>
@@ -21148,9 +21148,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A96,'w9'!$B$2:$B$131,0))</f>
         <v>23</v>
       </c>
-      <c r="G96" t="e">
+      <c r="G96">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A96,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>38</v>
       </c>
       <c r="H96" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A96,'w11'!$B$2:$B$131,0))</f>
@@ -21209,9 +21209,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A97,'w9'!$B$2:$B$131,0))</f>
         <v>48</v>
       </c>
-      <c r="G97" t="e">
+      <c r="G97">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A97,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>29</v>
       </c>
       <c r="H97" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A97,'w11'!$B$2:$B$131,0))</f>
@@ -21270,9 +21270,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A98,'w9'!$B$2:$B$131,0))</f>
         <v>76</v>
       </c>
-      <c r="G98" t="e">
+      <c r="G98">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A98,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>102</v>
       </c>
       <c r="H98" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A98,'w11'!$B$2:$B$131,0))</f>
@@ -21331,9 +21331,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A99,'w9'!$B$2:$B$131,0))</f>
         <v>34</v>
       </c>
-      <c r="G99" t="e">
+      <c r="G99">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A99,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>32</v>
       </c>
       <c r="H99" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A99,'w11'!$B$2:$B$131,0))</f>
@@ -21392,9 +21392,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A100,'w9'!$B$2:$B$131,0))</f>
         <v>71</v>
       </c>
-      <c r="G100" t="e">
+      <c r="G100">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A100,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>89</v>
       </c>
       <c r="H100" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A100,'w11'!$B$2:$B$131,0))</f>
@@ -21453,9 +21453,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A101,'w9'!$B$2:$B$131,0))</f>
         <v>16</v>
       </c>
-      <c r="G101" t="e">
+      <c r="G101">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A101,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
       <c r="H101" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A101,'w11'!$B$2:$B$131,0))</f>
@@ -21514,9 +21514,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A102,'w9'!$B$2:$B$131,0))</f>
         <v>6</v>
       </c>
-      <c r="G102" t="e">
+      <c r="G102">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A102,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>17</v>
       </c>
       <c r="H102" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A102,'w11'!$B$2:$B$131,0))</f>
@@ -21575,9 +21575,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A103,'w9'!$B$2:$B$131,0))</f>
         <v>125</v>
       </c>
-      <c r="G103" t="e">
+      <c r="G103">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A103,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>117</v>
       </c>
       <c r="H103" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A103,'w11'!$B$2:$B$131,0))</f>
@@ -21636,9 +21636,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A104,'w9'!$B$2:$B$131,0))</f>
         <v>24</v>
       </c>
-      <c r="G104" t="e">
+      <c r="G104">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A104,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>43</v>
       </c>
       <c r="H104" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A104,'w11'!$B$2:$B$131,0))</f>
@@ -21697,9 +21697,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A105,'w9'!$B$2:$B$131,0))</f>
         <v>88</v>
       </c>
-      <c r="G105" t="e">
+      <c r="G105">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A105,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>75</v>
       </c>
       <c r="H105" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A105,'w11'!$B$2:$B$131,0))</f>
@@ -21758,9 +21758,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A106,'w9'!$B$2:$B$131,0))</f>
         <v>50</v>
       </c>
-      <c r="G106" t="e">
+      <c r="G106">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A106,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>40</v>
       </c>
       <c r="H106" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A106,'w11'!$B$2:$B$131,0))</f>
@@ -21819,9 +21819,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A107,'w9'!$B$2:$B$131,0))</f>
         <v>104</v>
       </c>
-      <c r="G107" t="e">
+      <c r="G107">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A107,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>99</v>
       </c>
       <c r="H107" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A107,'w11'!$B$2:$B$131,0))</f>
@@ -21880,9 +21880,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A108,'w9'!$B$2:$B$131,0))</f>
         <v>122</v>
       </c>
-      <c r="G108" t="e">
+      <c r="G108">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A108,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>128</v>
       </c>
       <c r="H108" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A108,'w11'!$B$2:$B$131,0))</f>
@@ -21941,9 +21941,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A109,'w9'!$B$2:$B$131,0))</f>
         <v>25</v>
       </c>
-      <c r="G109" t="e">
+      <c r="G109">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A109,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>21</v>
       </c>
       <c r="H109" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A109,'w11'!$B$2:$B$131,0))</f>
@@ -22002,9 +22002,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A110,'w9'!$B$2:$B$131,0))</f>
         <v>9</v>
       </c>
-      <c r="G110" t="e">
+      <c r="G110">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A110,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="H110" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A110,'w11'!$B$2:$B$131,0))</f>
@@ -22063,9 +22063,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A111,'w9'!$B$2:$B$131,0))</f>
         <v>78</v>
       </c>
-      <c r="G111" t="e">
+      <c r="G111">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A111,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>96</v>
       </c>
       <c r="H111" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A111,'w11'!$B$2:$B$131,0))</f>
@@ -22124,9 +22124,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A112,'w9'!$B$2:$B$131,0))</f>
         <v>117</v>
       </c>
-      <c r="G112" t="e">
+      <c r="G112">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A112,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>119</v>
       </c>
       <c r="H112" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A112,'w11'!$B$2:$B$131,0))</f>
@@ -22185,9 +22185,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A113,'w9'!$B$2:$B$131,0))</f>
         <v>89</v>
       </c>
-      <c r="G113" t="e">
+      <c r="G113">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A113,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>87</v>
       </c>
       <c r="H113" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A113,'w11'!$B$2:$B$131,0))</f>
@@ -22246,9 +22246,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A114,'w9'!$B$2:$B$131,0))</f>
         <v>105</v>
       </c>
-      <c r="G114" t="e">
+      <c r="G114">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A114,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
       <c r="H114" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A114,'w11'!$B$2:$B$131,0))</f>
@@ -22307,9 +22307,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A115,'w9'!$B$2:$B$131,0))</f>
         <v>113</v>
       </c>
-      <c r="G115" t="e">
+      <c r="G115">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A115,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>118</v>
       </c>
       <c r="H115" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A115,'w11'!$B$2:$B$131,0))</f>
@@ -22368,9 +22368,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A116,'w9'!$B$2:$B$131,0))</f>
         <v>43</v>
       </c>
-      <c r="G116" t="e">
+      <c r="G116">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A116,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>64</v>
       </c>
       <c r="H116" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A116,'w11'!$B$2:$B$131,0))</f>
@@ -22429,9 +22429,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A117,'w9'!$B$2:$B$131,0))</f>
         <v>35</v>
       </c>
-      <c r="G117" t="e">
+      <c r="G117">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A117,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>26</v>
       </c>
       <c r="H117" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A117,'w11'!$B$2:$B$131,0))</f>
@@ -22490,9 +22490,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A118,'w9'!$B$2:$B$131,0))</f>
         <v>19</v>
       </c>
-      <c r="G118" t="e">
+      <c r="G118">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A118,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>16</v>
       </c>
       <c r="H118" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A118,'w11'!$B$2:$B$131,0))</f>
@@ -22551,9 +22551,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A119,'w9'!$B$2:$B$131,0))</f>
         <v>127</v>
       </c>
-      <c r="G119" t="e">
+      <c r="G119">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A119,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>129</v>
       </c>
       <c r="H119" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A119,'w11'!$B$2:$B$131,0))</f>
@@ -22612,9 +22612,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A120,'w9'!$B$2:$B$131,0))</f>
         <v>111</v>
       </c>
-      <c r="G120" t="e">
+      <c r="G120">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A120,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>112</v>
       </c>
       <c r="H120" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A120,'w11'!$B$2:$B$131,0))</f>
@@ -22673,9 +22673,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A121,'w9'!$B$2:$B$131,0))</f>
         <v>97</v>
       </c>
-      <c r="G121" t="e">
+      <c r="G121">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A121,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>85</v>
       </c>
       <c r="H121" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A121,'w11'!$B$2:$B$131,0))</f>
@@ -22734,9 +22734,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A122,'w9'!$B$2:$B$131,0))</f>
         <v>22</v>
       </c>
-      <c r="G122" t="e">
+      <c r="G122">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A122,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>27</v>
       </c>
       <c r="H122" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A122,'w11'!$B$2:$B$131,0))</f>
@@ -22795,9 +22795,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A123,'w9'!$B$2:$B$131,0))</f>
         <v>37</v>
       </c>
-      <c r="G123" t="e">
+      <c r="G123">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A123,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>65</v>
       </c>
       <c r="H123" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A123,'w11'!$B$2:$B$131,0))</f>
@@ -22856,9 +22856,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A124,'w9'!$B$2:$B$131,0))</f>
         <v>92</v>
       </c>
-      <c r="G124" t="e">
+      <c r="G124">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A124,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>81</v>
       </c>
       <c r="H124" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A124,'w11'!$B$2:$B$131,0))</f>
@@ -22917,9 +22917,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A125,'w9'!$B$2:$B$131,0))</f>
         <v>17</v>
       </c>
-      <c r="G125" t="e">
+      <c r="G125">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A125,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>37</v>
       </c>
       <c r="H125" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A125,'w11'!$B$2:$B$131,0))</f>
@@ -22978,9 +22978,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A126,'w9'!$B$2:$B$131,0))</f>
         <v>18</v>
       </c>
-      <c r="G126" t="e">
+      <c r="G126">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A126,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="H126" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A126,'w11'!$B$2:$B$131,0))</f>
@@ -23039,9 +23039,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A127,'w9'!$B$2:$B$131,0))</f>
         <v>21</v>
       </c>
-      <c r="G127" t="e">
+      <c r="G127">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A127,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="H127" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A127,'w11'!$B$2:$B$131,0))</f>
@@ -23100,9 +23100,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A128,'w9'!$B$2:$B$131,0))</f>
         <v>120</v>
       </c>
-      <c r="G128" t="e">
+      <c r="G128">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A128,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>122</v>
       </c>
       <c r="H128" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A128,'w11'!$B$2:$B$131,0))</f>
@@ -23161,9 +23161,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A129,'w9'!$B$2:$B$131,0))</f>
         <v>47</v>
       </c>
-      <c r="G129" t="e">
+      <c r="G129">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A129,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>58</v>
       </c>
       <c r="H129" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A129,'w11'!$B$2:$B$131,0))</f>
@@ -23222,9 +23222,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A130,'w9'!$B$2:$B$131,0))</f>
         <v>26</v>
       </c>
-      <c r="G130" t="e">
+      <c r="G130">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A130,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>47</v>
       </c>
       <c r="H130" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A130,'w11'!$B$2:$B$131,0))</f>
@@ -23283,9 +23283,9 @@
         <f>INDEX('w9'!$A$2:$A$131,MATCH($A131,'w9'!$B$2:$B$131,0))</f>
         <v>109</v>
       </c>
-      <c r="G131" t="e">
+      <c r="G131">
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A131,'w10'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>103</v>
       </c>
       <c r="H131" t="e">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A131,'w11'!$B$2:$B$131,0))</f>
@@ -28572,8 +28572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28607,781 +28607,2601 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.91198271744859605</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.90716419166210904</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.87348763240098903</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.85363183513277396</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.80977183435740197</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.76715176920964001</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.759470195325055</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.74517785070361497</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.73128552586319895</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.72334678686585396</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.71092111742681996</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.70120850830761805</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.67877077660674501</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.67120911045836795</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.67064416107614999</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.66506123378214099</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.65997553453252</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.65073562750019698</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.64707111400363404</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.64426830847605498</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.64333032807867396</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.63416421888262198</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.63178351985276904</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.63124667476683105</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.61903918186684803</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.61237384048174204</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.60669888585613796</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.60480021380475901</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.60438921940405399</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.59605564312862103</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.59289816805944895</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.58395461268096405</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.58138512819624499</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.58058116071018595</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.58017752723907201</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.572789978891729</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.56979116917054096</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.56911733773480799</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.55755876537649696</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.555342960596519</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.55533064262682896</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.55263432704704396</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.550607471123572</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.542881464562603</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.53655690200862605</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.523877091958318</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.51859680728123903</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.51599320641975099</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.49836850141175398</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.48920970601020602</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.48900068546201803</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.48821464502113399</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.48576259917959003</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.47968335119163902</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.47791175533778302</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.469430896052558</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.46562980156795603</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.462160599379207</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.46153777203672403</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.457692970756095</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.454053505630934</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.45398339218738198</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.44666998262011398</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.44448574263746898</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.441947827349357</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.43730909552832897</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.429097738965175</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.427570942619382</v>
+      </c>
+      <c r="E70">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.42634178571516901</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.42629914024420901</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.42434489435278799</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.42036737794692902</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.40714966227120097</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.40493978080062898</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.40088694880866199</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.39394599285172799</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.39340867641491001</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0.38824981172478201</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.385161850697958</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.382610381243911</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.37611573172451801</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.37115664910531099</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.37101054918623</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.36097633107623001</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.34358281896186399</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.33556904483218503</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.33096544562042501</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.32872630268715902</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.32522491980259299</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.32041772214894598</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.31725623824053201</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.317219696763481</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.31366890452281199</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.30906814284335499</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.30700229834617498</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0.29921042835543199</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.29497707290395803</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.29492164204034998</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.28785732491642002</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0.28751411548591499</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.28671267758291702</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.27631393995484699</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.27030888133863301</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.261420898700371</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0.21966558362017899</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0.21217895260413699</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" t="s">
+        <v>72</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.211039155471199</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" t="s">
+        <v>72</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0.207151076323844</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0.20472966043371901</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0.19907272083878699</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0.197436982449367</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" t="s">
+        <v>31</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0.19004202132383499</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>101</v>
+      </c>
+      <c r="C115" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0.188918776462669</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" t="s">
+        <v>59</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0.16844353929363501</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>152</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.159737000348917</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" t="s">
+        <v>72</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0.15708683316272301</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0.138358899994308</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0.132695713429034</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0.124217254890962</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" t="s">
+        <v>35</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0.114387738183911</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0.110487183949905</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0.10271728582336399</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0.101940822603914</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" s="4">
+        <v>8.4448821722959505E-2</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>148</v>
+      </c>
+      <c r="C127" t="s">
+        <v>50</v>
+      </c>
+      <c r="D127" s="4">
+        <v>6.5370145365790097E-2</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" t="s">
+        <v>50</v>
+      </c>
+      <c r="D128" s="4">
+        <v>5.7901001467433197E-2</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>147</v>
+      </c>
+      <c r="C129" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" s="4">
+        <v>5.5303834545470998E-2</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="4">
+        <v>5.3770247318985699E-2</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="D131" s="4"/>
+      <c r="B131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F132" xr:uid="{00000000-0009-0000-0000-000008000000}"/>

--- a/rankings_75.xlsx
+++ b/rankings_75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Python\CFB Rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{91BB7B5F-8248-4BC1-B949-31B3ED7FE47B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{959F01AE-7A96-4307-A012-106CE4EB1C4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="post champ" sheetId="20" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="161">
   <si>
     <t>Team</t>
   </si>
@@ -15418,9 +15418,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A2,'w10'!$B$2:$B$131,0))</f>
         <v>91</v>
       </c>
-      <c r="H2" t="e">
+      <c r="H2">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A2,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>97</v>
       </c>
       <c r="I2" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A2,'w12'!$B$2:$B$131,0))</f>
@@ -15479,9 +15479,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A3,'w10'!$B$2:$B$131,0))</f>
         <v>74</v>
       </c>
-      <c r="H3" t="e">
+      <c r="H3">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A3,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>85</v>
       </c>
       <c r="I3" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A3,'w12'!$B$2:$B$131,0))</f>
@@ -15540,9 +15540,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A4,'w10'!$B$2:$B$131,0))</f>
         <v>3</v>
       </c>
-      <c r="H4" t="e">
+      <c r="H4">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A4,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="I4" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A4,'w12'!$B$2:$B$131,0))</f>
@@ -15601,9 +15601,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A5,'w10'!$B$2:$B$131,0))</f>
         <v>45</v>
       </c>
-      <c r="H5" t="e">
+      <c r="H5">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A5,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>38</v>
       </c>
       <c r="I5" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A5,'w12'!$B$2:$B$131,0))</f>
@@ -15662,9 +15662,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A6,'w10'!$B$2:$B$131,0))</f>
         <v>71</v>
       </c>
-      <c r="H6" t="e">
+      <c r="H6">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A6,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>52</v>
       </c>
       <c r="I6" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A6,'w12'!$B$2:$B$131,0))</f>
@@ -15723,9 +15723,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A7,'w10'!$B$2:$B$131,0))</f>
         <v>84</v>
       </c>
-      <c r="H7" t="e">
+      <c r="H7">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A7,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>68</v>
       </c>
       <c r="I7" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A7,'w12'!$B$2:$B$131,0))</f>
@@ -15784,9 +15784,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A8,'w10'!$B$2:$B$131,0))</f>
         <v>120</v>
       </c>
-      <c r="H8" t="e">
+      <c r="H8">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A8,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>119</v>
       </c>
       <c r="I8" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A8,'w12'!$B$2:$B$131,0))</f>
@@ -15845,9 +15845,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A9,'w10'!$B$2:$B$131,0))</f>
         <v>80</v>
       </c>
-      <c r="H9" t="e">
+      <c r="H9">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A9,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>71</v>
       </c>
       <c r="I9" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A9,'w12'!$B$2:$B$131,0))</f>
@@ -15906,9 +15906,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A10,'w10'!$B$2:$B$131,0))</f>
         <v>31</v>
       </c>
-      <c r="H10" t="e">
+      <c r="H10">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A10,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>24</v>
       </c>
       <c r="I10" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A10,'w12'!$B$2:$B$131,0))</f>
@@ -15967,9 +15967,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A11,'w10'!$B$2:$B$131,0))</f>
         <v>53</v>
       </c>
-      <c r="H11" t="e">
+      <c r="H11">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A11,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>43</v>
       </c>
       <c r="I11" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A11,'w12'!$B$2:$B$131,0))</f>
@@ -16028,9 +16028,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A12,'w10'!$B$2:$B$131,0))</f>
         <v>110</v>
       </c>
-      <c r="H12" t="e">
+      <c r="H12">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A12,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>113</v>
       </c>
       <c r="I12" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A12,'w12'!$B$2:$B$131,0))</f>
@@ -16089,9 +16089,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A13,'w10'!$B$2:$B$131,0))</f>
         <v>78</v>
       </c>
-      <c r="H13" t="e">
+      <c r="H13">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A13,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>59</v>
       </c>
       <c r="I13" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A13,'w12'!$B$2:$B$131,0))</f>
@@ -16150,9 +16150,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A14,'w10'!$B$2:$B$131,0))</f>
         <v>39</v>
       </c>
-      <c r="H14" t="e">
+      <c r="H14">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A14,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>27</v>
       </c>
       <c r="I14" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A14,'w12'!$B$2:$B$131,0))</f>
@@ -16211,9 +16211,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A15,'w10'!$B$2:$B$131,0))</f>
         <v>28</v>
       </c>
-      <c r="H15" t="e">
+      <c r="H15">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A15,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>20</v>
       </c>
       <c r="I15" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A15,'w12'!$B$2:$B$131,0))</f>
@@ -16272,9 +16272,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A16,'w10'!$B$2:$B$131,0))</f>
         <v>127</v>
       </c>
-      <c r="H16" t="e">
+      <c r="H16">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A16,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>129</v>
       </c>
       <c r="I16" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A16,'w12'!$B$2:$B$131,0))</f>
@@ -16333,9 +16333,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A17,'w10'!$B$2:$B$131,0))</f>
         <v>20</v>
       </c>
-      <c r="H17" t="e">
+      <c r="H17">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A17,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>15</v>
       </c>
       <c r="I17" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A17,'w12'!$B$2:$B$131,0))</f>
@@ -16394,9 +16394,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A18,'w10'!$B$2:$B$131,0))</f>
         <v>72</v>
       </c>
-      <c r="H18" t="e">
+      <c r="H18">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A18,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>78</v>
       </c>
       <c r="I18" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A18,'w12'!$B$2:$B$131,0))</f>
@@ -16455,9 +16455,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A19,'w10'!$B$2:$B$131,0))</f>
         <v>76</v>
       </c>
-      <c r="H19" t="e">
+      <c r="H19">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A19,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>82</v>
       </c>
       <c r="I19" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A19,'w12'!$B$2:$B$131,0))</f>
@@ -16516,9 +16516,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A20,'w10'!$B$2:$B$131,0))</f>
         <v>125</v>
       </c>
-      <c r="H20" t="e">
+      <c r="H20">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A20,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>126</v>
       </c>
       <c r="I20" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A20,'w12'!$B$2:$B$131,0))</f>
@@ -16577,9 +16577,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A21,'w10'!$B$2:$B$131,0))</f>
         <v>83</v>
       </c>
-      <c r="H21" t="e">
+      <c r="H21">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A21,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>95</v>
       </c>
       <c r="I21" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A21,'w12'!$B$2:$B$131,0))</f>
@@ -16638,9 +16638,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A22,'w10'!$B$2:$B$131,0))</f>
         <v>25</v>
       </c>
-      <c r="H22" t="e">
+      <c r="H22">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A22,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>18</v>
       </c>
       <c r="I22" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A22,'w12'!$B$2:$B$131,0))</f>
@@ -16699,9 +16699,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A23,'w10'!$B$2:$B$131,0))</f>
         <v>1</v>
       </c>
-      <c r="H23" t="e">
+      <c r="H23">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A23,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="I23" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A23,'w12'!$B$2:$B$131,0))</f>
@@ -16760,9 +16760,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A24,'w10'!$B$2:$B$131,0))</f>
         <v>61</v>
       </c>
-      <c r="H24" t="e">
+      <c r="H24">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A24,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>65</v>
       </c>
       <c r="I24" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A24,'w12'!$B$2:$B$131,0))</f>
@@ -16821,9 +16821,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A25,'w10'!$B$2:$B$131,0))</f>
         <v>82</v>
       </c>
-      <c r="H25" t="e">
+      <c r="H25">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A25,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>92</v>
       </c>
       <c r="I25" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A25,'w12'!$B$2:$B$131,0))</f>
@@ -16882,9 +16882,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A26,'w10'!$B$2:$B$131,0))</f>
         <v>105</v>
       </c>
-      <c r="H26" t="e">
+      <c r="H26">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A26,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>102</v>
       </c>
       <c r="I26" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A26,'w12'!$B$2:$B$131,0))</f>
@@ -16943,9 +16943,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A27,'w10'!$B$2:$B$131,0))</f>
         <v>52</v>
       </c>
-      <c r="H27" t="e">
+      <c r="H27">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A27,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>40</v>
       </c>
       <c r="I27" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A27,'w12'!$B$2:$B$131,0))</f>
@@ -17004,9 +17004,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A28,'w10'!$B$2:$B$131,0))</f>
         <v>97</v>
       </c>
-      <c r="H28" t="e">
+      <c r="H28">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A28,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>105</v>
       </c>
       <c r="I28" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A28,'w12'!$B$2:$B$131,0))</f>
@@ -17065,9 +17065,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A29,'w10'!$B$2:$B$131,0))</f>
         <v>77</v>
       </c>
-      <c r="H29" t="e">
+      <c r="H29">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A29,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
       <c r="I29" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A29,'w12'!$B$2:$B$131,0))</f>
@@ -17126,9 +17126,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A30,'w10'!$B$2:$B$131,0))</f>
         <v>90</v>
       </c>
-      <c r="H30" t="e">
+      <c r="H30">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A30,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>79</v>
       </c>
       <c r="I30" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A30,'w12'!$B$2:$B$131,0))</f>
@@ -17187,9 +17187,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A31,'w10'!$B$2:$B$131,0))</f>
         <v>13</v>
       </c>
-      <c r="H31" t="e">
+      <c r="H31">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A31,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>28</v>
       </c>
       <c r="I31" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A31,'w12'!$B$2:$B$131,0))</f>
@@ -17248,9 +17248,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A32,'w10'!$B$2:$B$131,0))</f>
         <v>54</v>
       </c>
-      <c r="H32" t="e">
+      <c r="H32">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A32,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>67</v>
       </c>
       <c r="I32" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A32,'w12'!$B$2:$B$131,0))</f>
@@ -17309,9 +17309,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A33,'w10'!$B$2:$B$131,0))</f>
         <v>73</v>
       </c>
-      <c r="H33" t="e">
+      <c r="H33">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A33,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>88</v>
       </c>
       <c r="I33" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A33,'w12'!$B$2:$B$131,0))</f>
@@ -17370,9 +17370,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A34,'w10'!$B$2:$B$131,0))</f>
         <v>19</v>
       </c>
-      <c r="H34" t="e">
+      <c r="H34">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A34,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>16</v>
       </c>
       <c r="I34" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A34,'w12'!$B$2:$B$131,0))</f>
@@ -17431,9 +17431,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A35,'w10'!$B$2:$B$131,0))</f>
         <v>6</v>
       </c>
-      <c r="H35" t="e">
+      <c r="H35">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A35,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="I35" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A35,'w12'!$B$2:$B$131,0))</f>
@@ -17492,9 +17492,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A36,'w10'!$B$2:$B$131,0))</f>
         <v>22</v>
       </c>
-      <c r="H36" t="e">
+      <c r="H36">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A36,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>29</v>
       </c>
       <c r="I36" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A36,'w12'!$B$2:$B$131,0))</f>
@@ -17553,9 +17553,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A37,'w10'!$B$2:$B$131,0))</f>
         <v>109</v>
       </c>
-      <c r="H37" t="e">
+      <c r="H37">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A37,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>115</v>
       </c>
       <c r="I37" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A37,'w12'!$B$2:$B$131,0))</f>
@@ -17614,9 +17614,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A38,'w10'!$B$2:$B$131,0))</f>
         <v>70</v>
       </c>
-      <c r="H38" t="e">
+      <c r="H38">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A38,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>61</v>
       </c>
       <c r="I38" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A38,'w12'!$B$2:$B$131,0))</f>
@@ -17675,9 +17675,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A39,'w10'!$B$2:$B$131,0))</f>
         <v>69</v>
       </c>
-      <c r="H39" t="e">
+      <c r="H39">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A39,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>75</v>
       </c>
       <c r="I39" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A39,'w12'!$B$2:$B$131,0))</f>
@@ -17736,9 +17736,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A40,'w10'!$B$2:$B$131,0))</f>
         <v>15</v>
       </c>
-      <c r="H40" t="e">
+      <c r="H40">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A40,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
       <c r="I40" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A40,'w12'!$B$2:$B$131,0))</f>
@@ -17797,9 +17797,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A41,'w10'!$B$2:$B$131,0))</f>
         <v>114</v>
       </c>
-      <c r="H41" t="e">
+      <c r="H41">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A41,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>99</v>
       </c>
       <c r="I41" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A41,'w12'!$B$2:$B$131,0))</f>
@@ -17858,9 +17858,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A42,'w10'!$B$2:$B$131,0))</f>
         <v>88</v>
       </c>
-      <c r="H42" t="e">
+      <c r="H42">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A42,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>96</v>
       </c>
       <c r="I42" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A42,'w12'!$B$2:$B$131,0))</f>
@@ -17919,9 +17919,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A43,'w10'!$B$2:$B$131,0))</f>
         <v>18</v>
       </c>
-      <c r="H43" t="e">
+      <c r="H43">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A43,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>39</v>
       </c>
       <c r="I43" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A43,'w12'!$B$2:$B$131,0))</f>
@@ -17980,9 +17980,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A44,'w10'!$B$2:$B$131,0))</f>
         <v>30</v>
       </c>
-      <c r="H44" t="e">
+      <c r="H44">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A44,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>22</v>
       </c>
       <c r="I44" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A44,'w12'!$B$2:$B$131,0))</f>
@@ -18041,9 +18041,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A45,'w10'!$B$2:$B$131,0))</f>
         <v>104</v>
       </c>
-      <c r="H45" t="e">
+      <c r="H45">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A45,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>106</v>
       </c>
       <c r="I45" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A45,'w12'!$B$2:$B$131,0))</f>
@@ -18102,9 +18102,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A46,'w10'!$B$2:$B$131,0))</f>
         <v>94</v>
       </c>
-      <c r="H46" t="e">
+      <c r="H46">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A46,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>103</v>
       </c>
       <c r="I46" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A46,'w12'!$B$2:$B$131,0))</f>
@@ -18163,9 +18163,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A47,'w10'!$B$2:$B$131,0))</f>
         <v>126</v>
       </c>
-      <c r="H47" t="e">
+      <c r="H47">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A47,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>120</v>
       </c>
       <c r="I47" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A47,'w12'!$B$2:$B$131,0))</f>
@@ -18224,9 +18224,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A48,'w10'!$B$2:$B$131,0))</f>
         <v>8</v>
       </c>
-      <c r="H48" t="e">
+      <c r="H48">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A48,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="I48" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A48,'w12'!$B$2:$B$131,0))</f>
@@ -18285,9 +18285,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A49,'w10'!$B$2:$B$131,0))</f>
         <v>68</v>
       </c>
-      <c r="H49" t="e">
+      <c r="H49">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A49,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>81</v>
       </c>
       <c r="I49" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A49,'w12'!$B$2:$B$131,0))</f>
@@ -18346,9 +18346,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A50,'w10'!$B$2:$B$131,0))</f>
         <v>79</v>
       </c>
-      <c r="H50" t="e">
+      <c r="H50">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A50,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>86</v>
       </c>
       <c r="I50" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A50,'w12'!$B$2:$B$131,0))</f>
@@ -18407,9 +18407,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A51,'w10'!$B$2:$B$131,0))</f>
         <v>41</v>
       </c>
-      <c r="H51" t="e">
+      <c r="H51">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A51,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>57</v>
       </c>
       <c r="I51" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A51,'w12'!$B$2:$B$131,0))</f>
@@ -18468,9 +18468,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A52,'w10'!$B$2:$B$131,0))</f>
         <v>124</v>
       </c>
-      <c r="H52" t="e">
+      <c r="H52">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A52,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>123</v>
       </c>
       <c r="I52" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A52,'w12'!$B$2:$B$131,0))</f>
@@ -18529,9 +18529,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A53,'w10'!$B$2:$B$131,0))</f>
         <v>5</v>
       </c>
-      <c r="H53" t="e">
+      <c r="H53">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A53,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="I53" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A53,'w12'!$B$2:$B$131,0))</f>
@@ -18590,9 +18590,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A54,'w10'!$B$2:$B$131,0))</f>
         <v>56</v>
       </c>
-      <c r="H54" t="e">
+      <c r="H54">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A54,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>63</v>
       </c>
       <c r="I54" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A54,'w12'!$B$2:$B$131,0))</f>
@@ -18651,9 +18651,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A55,'w10'!$B$2:$B$131,0))</f>
         <v>46</v>
       </c>
-      <c r="H55" t="e">
+      <c r="H55">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A55,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
       <c r="I55" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A55,'w12'!$B$2:$B$131,0))</f>
@@ -18712,9 +18712,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A56,'w10'!$B$2:$B$131,0))</f>
         <v>98</v>
       </c>
-      <c r="H56" t="e">
+      <c r="H56">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A56,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>87</v>
       </c>
       <c r="I56" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A56,'w12'!$B$2:$B$131,0))</f>
@@ -18773,9 +18773,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A57,'w10'!$B$2:$B$131,0))</f>
         <v>93</v>
       </c>
-      <c r="H57" t="e">
+      <c r="H57">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A57,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>98</v>
       </c>
       <c r="I57" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A57,'w12'!$B$2:$B$131,0))</f>
@@ -18834,9 +18834,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A58,'w10'!$B$2:$B$131,0))</f>
         <v>50</v>
       </c>
-      <c r="H58" t="e">
+      <c r="H58">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A58,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>72</v>
       </c>
       <c r="I58" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A58,'w12'!$B$2:$B$131,0))</f>
@@ -18895,9 +18895,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A59,'w10'!$B$2:$B$131,0))</f>
         <v>42</v>
       </c>
-      <c r="H59" t="e">
+      <c r="H59">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A59,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>23</v>
       </c>
       <c r="I59" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A59,'w12'!$B$2:$B$131,0))</f>
@@ -18956,9 +18956,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A60,'w10'!$B$2:$B$131,0))</f>
         <v>4</v>
       </c>
-      <c r="H60" t="e">
+      <c r="H60">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A60,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="I60" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A60,'w12'!$B$2:$B$131,0))</f>
@@ -19017,9 +19017,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A61,'w10'!$B$2:$B$131,0))</f>
         <v>57</v>
       </c>
-      <c r="H61" t="e">
+      <c r="H61">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A61,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>56</v>
       </c>
       <c r="I61" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A61,'w12'!$B$2:$B$131,0))</f>
@@ -19078,9 +19078,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A62,'w10'!$B$2:$B$131,0))</f>
         <v>86</v>
       </c>
-      <c r="H62" t="e">
+      <c r="H62">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A62,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>101</v>
       </c>
       <c r="I62" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A62,'w12'!$B$2:$B$131,0))</f>
@@ -19139,9 +19139,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A63,'w10'!$B$2:$B$131,0))</f>
         <v>36</v>
       </c>
-      <c r="H63" t="e">
+      <c r="H63">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A63,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>30</v>
       </c>
       <c r="I63" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A63,'w12'!$B$2:$B$131,0))</f>
@@ -19200,9 +19200,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A64,'w10'!$B$2:$B$131,0))</f>
         <v>67</v>
       </c>
-      <c r="H64" t="e">
+      <c r="H64">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A64,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>47</v>
       </c>
       <c r="I64" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A64,'w12'!$B$2:$B$131,0))</f>
@@ -19261,9 +19261,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A65,'w10'!$B$2:$B$131,0))</f>
         <v>106</v>
       </c>
-      <c r="H65" t="e">
+      <c r="H65">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A65,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>110</v>
       </c>
       <c r="I65" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A65,'w12'!$B$2:$B$131,0))</f>
@@ -19322,9 +19322,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A66,'w10'!$B$2:$B$131,0))</f>
         <v>24</v>
       </c>
-      <c r="H66" t="e">
+      <c r="H66">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A66,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>14</v>
       </c>
       <c r="I66" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A66,'w12'!$B$2:$B$131,0))</f>
@@ -19383,9 +19383,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A67,'w10'!$B$2:$B$131,0))</f>
         <v>107</v>
       </c>
-      <c r="H67" t="e">
+      <c r="H67">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A67,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>111</v>
       </c>
       <c r="I67" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A67,'w12'!$B$2:$B$131,0))</f>
@@ -19444,9 +19444,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A68,'w10'!$B$2:$B$131,0))</f>
         <v>66</v>
       </c>
-      <c r="H68" t="e">
+      <c r="H68">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A68,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>62</v>
       </c>
       <c r="I68" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A68,'w12'!$B$2:$B$131,0))</f>
@@ -19505,9 +19505,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A69,'w10'!$B$2:$B$131,0))</f>
         <v>101</v>
       </c>
-      <c r="H69" t="e">
+      <c r="H69">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A69,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
       <c r="I69" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A69,'w12'!$B$2:$B$131,0))</f>
@@ -19566,9 +19566,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A70,'w10'!$B$2:$B$131,0))</f>
         <v>116</v>
       </c>
-      <c r="H70" t="e">
+      <c r="H70">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A70,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>109</v>
       </c>
       <c r="I70" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A70,'w12'!$B$2:$B$131,0))</f>
@@ -19627,9 +19627,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A71,'w10'!$B$2:$B$131,0))</f>
         <v>121</v>
       </c>
-      <c r="H71" t="e">
+      <c r="H71">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A71,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>127</v>
       </c>
       <c r="I71" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A71,'w12'!$B$2:$B$131,0))</f>
@@ -19688,9 +19688,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A72,'w10'!$B$2:$B$131,0))</f>
         <v>33</v>
       </c>
-      <c r="H72" t="e">
+      <c r="H72">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A72,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>32</v>
       </c>
       <c r="I72" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A72,'w12'!$B$2:$B$131,0))</f>
@@ -19749,9 +19749,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A73,'w10'!$B$2:$B$131,0))</f>
         <v>60</v>
       </c>
-      <c r="H73" t="e">
+      <c r="H73">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A73,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>55</v>
       </c>
       <c r="I73" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A73,'w12'!$B$2:$B$131,0))</f>
@@ -19810,9 +19810,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A74,'w10'!$B$2:$B$131,0))</f>
         <v>34</v>
       </c>
-      <c r="H74" t="e">
+      <c r="H74">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A74,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
       <c r="I74" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A74,'w12'!$B$2:$B$131,0))</f>
@@ -19871,9 +19871,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A75,'w10'!$B$2:$B$131,0))</f>
         <v>2</v>
       </c>
-      <c r="H75" t="e">
+      <c r="H75">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A75,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="I75" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A75,'w12'!$B$2:$B$131,0))</f>
@@ -19932,9 +19932,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A76,'w10'!$B$2:$B$131,0))</f>
         <v>63</v>
       </c>
-      <c r="H76" t="e">
+      <c r="H76">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A76,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>49</v>
       </c>
       <c r="I76" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A76,'w12'!$B$2:$B$131,0))</f>
@@ -19993,9 +19993,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A77,'w10'!$B$2:$B$131,0))</f>
         <v>11</v>
       </c>
-      <c r="H77" t="e">
+      <c r="H77">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A77,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="I77" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A77,'w12'!$B$2:$B$131,0))</f>
@@ -20054,9 +20054,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A78,'w10'!$B$2:$B$131,0))</f>
         <v>7</v>
       </c>
-      <c r="H78" t="e">
+      <c r="H78">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A78,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="I78" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A78,'w12'!$B$2:$B$131,0))</f>
@@ -20115,9 +20115,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A79,'w10'!$B$2:$B$131,0))</f>
         <v>62</v>
       </c>
-      <c r="H79" t="e">
+      <c r="H79">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A79,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>83</v>
       </c>
       <c r="I79" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A79,'w12'!$B$2:$B$131,0))</f>
@@ -20176,9 +20176,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A80,'w10'!$B$2:$B$131,0))</f>
         <v>111</v>
       </c>
-      <c r="H80" t="e">
+      <c r="H80">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A80,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>112</v>
       </c>
       <c r="I80" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A80,'w12'!$B$2:$B$131,0))</f>
@@ -20237,9 +20237,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A81,'w10'!$B$2:$B$131,0))</f>
         <v>51</v>
       </c>
-      <c r="H81" t="e">
+      <c r="H81">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A81,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>69</v>
       </c>
       <c r="I81" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A81,'w12'!$B$2:$B$131,0))</f>
@@ -20298,9 +20298,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A82,'w10'!$B$2:$B$131,0))</f>
         <v>59</v>
       </c>
-      <c r="H82" t="e">
+      <c r="H82">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A82,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>53</v>
       </c>
       <c r="I82" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A82,'w12'!$B$2:$B$131,0))</f>
@@ -20359,9 +20359,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A83,'w10'!$B$2:$B$131,0))</f>
         <v>113</v>
       </c>
-      <c r="H83" t="e">
+      <c r="H83">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A83,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>118</v>
       </c>
       <c r="I83" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A83,'w12'!$B$2:$B$131,0))</f>
@@ -20420,9 +20420,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A84,'w10'!$B$2:$B$131,0))</f>
         <v>14</v>
       </c>
-      <c r="H84" t="e">
+      <c r="H84">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A84,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>21</v>
       </c>
       <c r="I84" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A84,'w12'!$B$2:$B$131,0))</f>
@@ -20481,9 +20481,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A85,'w10'!$B$2:$B$131,0))</f>
         <v>55</v>
       </c>
-      <c r="H85" t="e">
+      <c r="H85">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A85,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>41</v>
       </c>
       <c r="I85" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A85,'w12'!$B$2:$B$131,0))</f>
@@ -20542,9 +20542,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A86,'w10'!$B$2:$B$131,0))</f>
         <v>49</v>
       </c>
-      <c r="H86" t="e">
+      <c r="H86">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A86,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>31</v>
       </c>
       <c r="I86" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A86,'w12'!$B$2:$B$131,0))</f>
@@ -20603,9 +20603,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A87,'w10'!$B$2:$B$131,0))</f>
         <v>123</v>
       </c>
-      <c r="H87" t="e">
+      <c r="H87">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A87,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>128</v>
       </c>
       <c r="I87" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A87,'w12'!$B$2:$B$131,0))</f>
@@ -20664,9 +20664,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A88,'w10'!$B$2:$B$131,0))</f>
         <v>130</v>
       </c>
-      <c r="H88" t="e">
+      <c r="H88">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A88,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>130</v>
       </c>
       <c r="I88" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A88,'w12'!$B$2:$B$131,0))</f>
@@ -20725,9 +20725,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A89,'w10'!$B$2:$B$131,0))</f>
         <v>44</v>
       </c>
-      <c r="H89" t="e">
+      <c r="H89">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A89,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>36</v>
       </c>
       <c r="I89" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A89,'w12'!$B$2:$B$131,0))</f>
@@ -20786,9 +20786,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A90,'w10'!$B$2:$B$131,0))</f>
         <v>115</v>
       </c>
-      <c r="H90" t="e">
+      <c r="H90">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A90,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>117</v>
       </c>
       <c r="I90" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A90,'w12'!$B$2:$B$131,0))</f>
@@ -20847,9 +20847,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A91,'w10'!$B$2:$B$131,0))</f>
         <v>92</v>
       </c>
-      <c r="H91" t="e">
+      <c r="H91">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A91,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>73</v>
       </c>
       <c r="I91" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A91,'w12'!$B$2:$B$131,0))</f>
@@ -20908,9 +20908,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A92,'w10'!$B$2:$B$131,0))</f>
         <v>108</v>
       </c>
-      <c r="H92" t="e">
+      <c r="H92">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A92,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>114</v>
       </c>
       <c r="I92" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A92,'w12'!$B$2:$B$131,0))</f>
@@ -20969,9 +20969,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A93,'w10'!$B$2:$B$131,0))</f>
         <v>48</v>
       </c>
-      <c r="H93" t="e">
+      <c r="H93">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A93,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>37</v>
       </c>
       <c r="I93" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A93,'w12'!$B$2:$B$131,0))</f>
@@ -21030,9 +21030,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A94,'w10'!$B$2:$B$131,0))</f>
         <v>23</v>
       </c>
-      <c r="H94" t="e">
+      <c r="H94">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A94,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>42</v>
       </c>
       <c r="I94" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A94,'w12'!$B$2:$B$131,0))</f>
@@ -21091,9 +21091,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A95,'w10'!$B$2:$B$131,0))</f>
         <v>95</v>
       </c>
-      <c r="H95" t="e">
+      <c r="H95">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A95,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>84</v>
       </c>
       <c r="I95" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A95,'w12'!$B$2:$B$131,0))</f>
@@ -21152,9 +21152,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A96,'w10'!$B$2:$B$131,0))</f>
         <v>38</v>
       </c>
-      <c r="H96" t="e">
+      <c r="H96">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A96,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>51</v>
       </c>
       <c r="I96" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A96,'w12'!$B$2:$B$131,0))</f>
@@ -21213,9 +21213,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A97,'w10'!$B$2:$B$131,0))</f>
         <v>29</v>
       </c>
-      <c r="H97" t="e">
+      <c r="H97">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A97,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>19</v>
       </c>
       <c r="I97" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A97,'w12'!$B$2:$B$131,0))</f>
@@ -21274,9 +21274,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A98,'w10'!$B$2:$B$131,0))</f>
         <v>102</v>
       </c>
-      <c r="H98" t="e">
+      <c r="H98">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A98,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
       <c r="I98" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A98,'w12'!$B$2:$B$131,0))</f>
@@ -21335,9 +21335,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A99,'w10'!$B$2:$B$131,0))</f>
         <v>32</v>
       </c>
-      <c r="H99" t="e">
+      <c r="H99">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A99,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>44</v>
       </c>
       <c r="I99" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A99,'w12'!$B$2:$B$131,0))</f>
@@ -21396,9 +21396,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A100,'w10'!$B$2:$B$131,0))</f>
         <v>89</v>
       </c>
-      <c r="H100" t="e">
+      <c r="H100">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A100,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>80</v>
       </c>
       <c r="I100" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A100,'w12'!$B$2:$B$131,0))</f>
@@ -21457,9 +21457,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A101,'w10'!$B$2:$B$131,0))</f>
         <v>35</v>
       </c>
-      <c r="H101" t="e">
+      <c r="H101">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A101,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
       <c r="I101" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A101,'w12'!$B$2:$B$131,0))</f>
@@ -21518,9 +21518,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A102,'w10'!$B$2:$B$131,0))</f>
         <v>17</v>
       </c>
-      <c r="H102" t="e">
+      <c r="H102">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A102,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>26</v>
       </c>
       <c r="I102" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A102,'w12'!$B$2:$B$131,0))</f>
@@ -21579,9 +21579,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A103,'w10'!$B$2:$B$131,0))</f>
         <v>117</v>
       </c>
-      <c r="H103" t="e">
+      <c r="H103">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A103,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>107</v>
       </c>
       <c r="I103" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A103,'w12'!$B$2:$B$131,0))</f>
@@ -21640,9 +21640,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A104,'w10'!$B$2:$B$131,0))</f>
         <v>43</v>
       </c>
-      <c r="H104" t="e">
+      <c r="H104">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A104,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>54</v>
       </c>
       <c r="I104" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A104,'w12'!$B$2:$B$131,0))</f>
@@ -21701,9 +21701,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A105,'w10'!$B$2:$B$131,0))</f>
         <v>75</v>
       </c>
-      <c r="H105" t="e">
+      <c r="H105">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A105,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>64</v>
       </c>
       <c r="I105" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A105,'w12'!$B$2:$B$131,0))</f>
@@ -21762,9 +21762,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A106,'w10'!$B$2:$B$131,0))</f>
         <v>40</v>
       </c>
-      <c r="H106" t="e">
+      <c r="H106">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A106,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>33</v>
       </c>
       <c r="I106" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A106,'w12'!$B$2:$B$131,0))</f>
@@ -21823,9 +21823,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A107,'w10'!$B$2:$B$131,0))</f>
         <v>99</v>
       </c>
-      <c r="H107" t="e">
+      <c r="H107">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A107,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>74</v>
       </c>
       <c r="I107" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A107,'w12'!$B$2:$B$131,0))</f>
@@ -21884,9 +21884,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A108,'w10'!$B$2:$B$131,0))</f>
         <v>128</v>
       </c>
-      <c r="H108" t="e">
+      <c r="H108">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A108,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>122</v>
       </c>
       <c r="I108" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A108,'w12'!$B$2:$B$131,0))</f>
@@ -21945,9 +21945,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A109,'w10'!$B$2:$B$131,0))</f>
         <v>21</v>
       </c>
-      <c r="H109" t="e">
+      <c r="H109">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A109,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="I109" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A109,'w12'!$B$2:$B$131,0))</f>
@@ -22006,9 +22006,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A110,'w10'!$B$2:$B$131,0))</f>
         <v>9</v>
       </c>
-      <c r="H110" t="e">
+      <c r="H110">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A110,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="I110" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A110,'w12'!$B$2:$B$131,0))</f>
@@ -22067,9 +22067,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A111,'w10'!$B$2:$B$131,0))</f>
         <v>96</v>
       </c>
-      <c r="H111" t="e">
+      <c r="H111">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A111,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>104</v>
       </c>
       <c r="I111" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A111,'w12'!$B$2:$B$131,0))</f>
@@ -22128,9 +22128,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A112,'w10'!$B$2:$B$131,0))</f>
         <v>119</v>
       </c>
-      <c r="H112" t="e">
+      <c r="H112">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A112,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>125</v>
       </c>
       <c r="I112" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A112,'w12'!$B$2:$B$131,0))</f>
@@ -22189,9 +22189,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A113,'w10'!$B$2:$B$131,0))</f>
         <v>87</v>
       </c>
-      <c r="H113" t="e">
+      <c r="H113">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A113,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>77</v>
       </c>
       <c r="I113" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A113,'w12'!$B$2:$B$131,0))</f>
@@ -22250,9 +22250,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A114,'w10'!$B$2:$B$131,0))</f>
         <v>100</v>
       </c>
-      <c r="H114" t="e">
+      <c r="H114">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A114,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>93</v>
       </c>
       <c r="I114" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A114,'w12'!$B$2:$B$131,0))</f>
@@ -22311,9 +22311,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A115,'w10'!$B$2:$B$131,0))</f>
         <v>118</v>
       </c>
-      <c r="H115" t="e">
+      <c r="H115">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A115,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>116</v>
       </c>
       <c r="I115" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A115,'w12'!$B$2:$B$131,0))</f>
@@ -22372,9 +22372,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A116,'w10'!$B$2:$B$131,0))</f>
         <v>64</v>
       </c>
-      <c r="H116" t="e">
+      <c r="H116">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A116,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>58</v>
       </c>
       <c r="I116" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A116,'w12'!$B$2:$B$131,0))</f>
@@ -22433,9 +22433,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A117,'w10'!$B$2:$B$131,0))</f>
         <v>26</v>
       </c>
-      <c r="H117" t="e">
+      <c r="H117">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A117,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>17</v>
       </c>
       <c r="I117" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A117,'w12'!$B$2:$B$131,0))</f>
@@ -22494,9 +22494,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A118,'w10'!$B$2:$B$131,0))</f>
         <v>16</v>
       </c>
-      <c r="H118" t="e">
+      <c r="H118">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A118,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>34</v>
       </c>
       <c r="I118" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A118,'w12'!$B$2:$B$131,0))</f>
@@ -22555,9 +22555,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A119,'w10'!$B$2:$B$131,0))</f>
         <v>129</v>
       </c>
-      <c r="H119" t="e">
+      <c r="H119">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A119,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>121</v>
       </c>
       <c r="I119" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A119,'w12'!$B$2:$B$131,0))</f>
@@ -22616,9 +22616,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A120,'w10'!$B$2:$B$131,0))</f>
         <v>112</v>
       </c>
-      <c r="H120" t="e">
+      <c r="H120">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A120,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>108</v>
       </c>
       <c r="I120" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A120,'w12'!$B$2:$B$131,0))</f>
@@ -22677,9 +22677,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A121,'w10'!$B$2:$B$131,0))</f>
         <v>85</v>
       </c>
-      <c r="H121" t="e">
+      <c r="H121">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A121,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>89</v>
       </c>
       <c r="I121" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A121,'w12'!$B$2:$B$131,0))</f>
@@ -22738,9 +22738,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A122,'w10'!$B$2:$B$131,0))</f>
         <v>27</v>
       </c>
-      <c r="H122" t="e">
+      <c r="H122">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A122,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>48</v>
       </c>
       <c r="I122" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A122,'w12'!$B$2:$B$131,0))</f>
@@ -22799,9 +22799,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A123,'w10'!$B$2:$B$131,0))</f>
         <v>65</v>
       </c>
-      <c r="H123" t="e">
+      <c r="H123">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A123,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>76</v>
       </c>
       <c r="I123" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A123,'w12'!$B$2:$B$131,0))</f>
@@ -22860,9 +22860,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A124,'w10'!$B$2:$B$131,0))</f>
         <v>81</v>
       </c>
-      <c r="H124" t="e">
+      <c r="H124">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A124,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>91</v>
       </c>
       <c r="I124" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A124,'w12'!$B$2:$B$131,0))</f>
@@ -22921,9 +22921,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A125,'w10'!$B$2:$B$131,0))</f>
         <v>37</v>
       </c>
-      <c r="H125" t="e">
+      <c r="H125">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A125,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>25</v>
       </c>
       <c r="I125" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A125,'w12'!$B$2:$B$131,0))</f>
@@ -22982,9 +22982,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A126,'w10'!$B$2:$B$131,0))</f>
         <v>10</v>
       </c>
-      <c r="H126" t="e">
+      <c r="H126">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A126,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="I126" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A126,'w12'!$B$2:$B$131,0))</f>
@@ -23043,9 +23043,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A127,'w10'!$B$2:$B$131,0))</f>
         <v>12</v>
       </c>
-      <c r="H127" t="e">
+      <c r="H127">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A127,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="I127" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A127,'w12'!$B$2:$B$131,0))</f>
@@ -23104,9 +23104,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A128,'w10'!$B$2:$B$131,0))</f>
         <v>122</v>
       </c>
-      <c r="H128" t="e">
+      <c r="H128">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A128,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>124</v>
       </c>
       <c r="I128" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A128,'w12'!$B$2:$B$131,0))</f>
@@ -23165,9 +23165,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A129,'w10'!$B$2:$B$131,0))</f>
         <v>58</v>
       </c>
-      <c r="H129" t="e">
+      <c r="H129">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A129,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>66</v>
       </c>
       <c r="I129" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A129,'w12'!$B$2:$B$131,0))</f>
@@ -23226,9 +23226,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A130,'w10'!$B$2:$B$131,0))</f>
         <v>47</v>
       </c>
-      <c r="H130" t="e">
+      <c r="H130">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A130,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>46</v>
       </c>
       <c r="I130" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A130,'w12'!$B$2:$B$131,0))</f>
@@ -23287,9 +23287,9 @@
         <f>INDEX('w10'!$A$2:$A$131,MATCH($A131,'w10'!$B$2:$B$131,0))</f>
         <v>103</v>
       </c>
-      <c r="H131" t="e">
+      <c r="H131">
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A131,'w11'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>94</v>
       </c>
       <c r="I131" t="e">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A131,'w12'!$B$2:$B$131,0))</f>
@@ -27751,8 +27751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F131"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="L116" sqref="L116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27786,781 +27786,2601 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.99311210056333099</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.94846178445794604</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.93750412043984099</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.89468893754151102</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.83675186342279395</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.81368754766180396</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.79538695235049495</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.79438636195911505</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.78797372758357698</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.75990258542225197</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.71489016260362603</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.691761088288111</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.69156878059580296</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.68628939017490298</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.68466377881791995</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.68324035414537398</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.68213820078226794</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.67759698408403202</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.67504710831221804</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.65111989864947895</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.64481870064697</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.63990701335760503</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.637533013836179</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.63389204335798499</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.63217817519864195</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.61687043369166805</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.61628496223955098</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.614628176428624</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.61240805884233995</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.61123711593810703</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.60857026887407395</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.60363336695284198</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.60324026469213499</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.60188236451747801</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.60086098742958305</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.60069616983592</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.59235689158938198</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.58535337384074104</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.57864505178224401</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.57807803006076097</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.57739231507220001</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.57452338195862296</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.568150844997663</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.56756906349167302</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.55586332439546304</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.55454207768566499</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.546102186908071</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.53441538953531198</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.53335280804900198</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.530773166711766</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.52718703106934595</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.52291407345452701</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.51766746205505398</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.51054758800521505</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.50723967430075501</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.50313645420776798</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.493385156576714</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.47804974047378901</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.47182111141177302</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.46887407443851298</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.46140942524057299</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.45708961649159902</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.45702934737152801</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.44820840815724</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.44780000939259001</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.44772551720744802</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.445900022586942</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.44462251851122903</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.44393160405312598</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.44075422498831501</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.44045349437898201</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.43066345231359598</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.42648397333398902</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.422205536708255</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.42027548522791502</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.41518289832968402</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.41453413871066502</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0.40635777717645299</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.40300853607537301</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.40090403680106201</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.39679429780325198</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.39672578780349799</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.39306336252490698</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.39119271358638102</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.38900666650266902</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.37880986937590699</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.37658237189736998</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.37260460997269401</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.36377272391823001</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.35646847556025602</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.34556788270891198</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.34141181811472798</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.33807189234871798</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.32989397554795602</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.32537649750313602</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0.31578066960222301</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.30896995153870699</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.29489065459644198</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.28787409903815397</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0.280484120931834</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.27112543356866903</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.266312021844481</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.25892720966273802</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.24318805195444099</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0.235565422744828</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>159</v>
+      </c>
+      <c r="C108" t="s">
+        <v>72</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0.227854665321886</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.21983419842070301</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0.214124577053902</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0.212656515214877</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0.20928390445499401</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0.20658101891712299</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0.206427617793143</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" t="s">
+        <v>72</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0.196940419669872</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" t="s">
+        <v>72</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0.19307372512361301</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.159570490270842</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>155</v>
+      </c>
+      <c r="C118" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0.15481336699756901</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0.15477602027010401</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0.144675407739047</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0.12827728715160699</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0.127833017637942</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0.12548030798750301</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>118</v>
+      </c>
+      <c r="C124" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0.123005584118471</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>146</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0.10407560699613699</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>43</v>
+      </c>
+      <c r="D126" s="4">
+        <v>9.2905463580231704E-2</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>154</v>
+      </c>
+      <c r="C127" t="s">
+        <v>50</v>
+      </c>
+      <c r="D127" s="4">
+        <v>7.2292172170649899E-2</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" t="s">
+        <v>35</v>
+      </c>
+      <c r="D128" s="4">
+        <v>6.9313946766377199E-2</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="4">
+        <v>6.7540814565264298E-2</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>156</v>
+      </c>
+      <c r="C130" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" s="4">
+        <v>5.0450419423876403E-2</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="D131" s="4"/>
+      <c r="B131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F132" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
@@ -28572,7 +30392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>

--- a/rankings_75.xlsx
+++ b/rankings_75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Python\CFB Rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{959F01AE-7A96-4307-A012-106CE4EB1C4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AFBE4ACD-CE76-46B8-B019-11112657E63C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="post champ" sheetId="20" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="161">
   <si>
     <t>Team</t>
   </si>
@@ -15422,9 +15422,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A2,'w11'!$B$2:$B$131,0))</f>
         <v>97</v>
       </c>
-      <c r="I2" t="e">
+      <c r="I2">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A2,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>89</v>
       </c>
       <c r="J2" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A2,'w13'!$B$2:$B$131,0))</f>
@@ -15483,9 +15483,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A3,'w11'!$B$2:$B$131,0))</f>
         <v>85</v>
       </c>
-      <c r="I3" t="e">
+      <c r="I3">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A3,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
       <c r="J3" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A3,'w13'!$B$2:$B$131,0))</f>
@@ -15544,9 +15544,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A4,'w11'!$B$2:$B$131,0))</f>
         <v>2</v>
       </c>
-      <c r="I4" t="e">
+      <c r="I4">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A4,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="J4" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A4,'w13'!$B$2:$B$131,0))</f>
@@ -15605,9 +15605,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A5,'w11'!$B$2:$B$131,0))</f>
         <v>38</v>
       </c>
-      <c r="I5" t="e">
+      <c r="I5">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A5,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>31</v>
       </c>
       <c r="J5" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A5,'w13'!$B$2:$B$131,0))</f>
@@ -15666,9 +15666,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A6,'w11'!$B$2:$B$131,0))</f>
         <v>52</v>
       </c>
-      <c r="I6" t="e">
+      <c r="I6">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A6,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
       <c r="J6" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A6,'w13'!$B$2:$B$131,0))</f>
@@ -15727,9 +15727,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A7,'w11'!$B$2:$B$131,0))</f>
         <v>68</v>
       </c>
-      <c r="I7" t="e">
+      <c r="I7">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A7,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>74</v>
       </c>
       <c r="J7" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A7,'w13'!$B$2:$B$131,0))</f>
@@ -15788,9 +15788,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A8,'w11'!$B$2:$B$131,0))</f>
         <v>119</v>
       </c>
-      <c r="I8" t="e">
+      <c r="I8">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A8,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>121</v>
       </c>
       <c r="J8" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A8,'w13'!$B$2:$B$131,0))</f>
@@ -15849,9 +15849,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A9,'w11'!$B$2:$B$131,0))</f>
         <v>71</v>
       </c>
-      <c r="I9" t="e">
+      <c r="I9">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A9,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>58</v>
       </c>
       <c r="J9" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A9,'w13'!$B$2:$B$131,0))</f>
@@ -15910,9 +15910,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A10,'w11'!$B$2:$B$131,0))</f>
         <v>24</v>
       </c>
-      <c r="I10" t="e">
+      <c r="I10">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A10,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>23</v>
       </c>
       <c r="J10" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A10,'w13'!$B$2:$B$131,0))</f>
@@ -15971,9 +15971,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A11,'w11'!$B$2:$B$131,0))</f>
         <v>43</v>
       </c>
-      <c r="I11" t="e">
+      <c r="I11">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A11,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
       <c r="J11" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A11,'w13'!$B$2:$B$131,0))</f>
@@ -16032,9 +16032,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A12,'w11'!$B$2:$B$131,0))</f>
         <v>113</v>
       </c>
-      <c r="I12" t="e">
+      <c r="I12">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A12,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>111</v>
       </c>
       <c r="J12" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A12,'w13'!$B$2:$B$131,0))</f>
@@ -16093,9 +16093,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A13,'w11'!$B$2:$B$131,0))</f>
         <v>59</v>
       </c>
-      <c r="I13" t="e">
+      <c r="I13">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A13,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>75</v>
       </c>
       <c r="J13" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A13,'w13'!$B$2:$B$131,0))</f>
@@ -16154,9 +16154,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A14,'w11'!$B$2:$B$131,0))</f>
         <v>27</v>
       </c>
-      <c r="I14" t="e">
+      <c r="I14">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A14,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>22</v>
       </c>
       <c r="J14" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A14,'w13'!$B$2:$B$131,0))</f>
@@ -16215,9 +16215,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A15,'w11'!$B$2:$B$131,0))</f>
         <v>20</v>
       </c>
-      <c r="I15" t="e">
+      <c r="I15">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A15,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>29</v>
       </c>
       <c r="J15" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A15,'w13'!$B$2:$B$131,0))</f>
@@ -16276,9 +16276,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A16,'w11'!$B$2:$B$131,0))</f>
         <v>129</v>
       </c>
-      <c r="I16" t="e">
+      <c r="I16">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A16,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>123</v>
       </c>
       <c r="J16" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A16,'w13'!$B$2:$B$131,0))</f>
@@ -16337,9 +16337,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A17,'w11'!$B$2:$B$131,0))</f>
         <v>15</v>
       </c>
-      <c r="I17" t="e">
+      <c r="I17">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A17,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>14</v>
       </c>
       <c r="J17" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A17,'w13'!$B$2:$B$131,0))</f>
@@ -16398,9 +16398,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A18,'w11'!$B$2:$B$131,0))</f>
         <v>78</v>
       </c>
-      <c r="I18" t="e">
+      <c r="I18">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A18,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>66</v>
       </c>
       <c r="J18" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A18,'w13'!$B$2:$B$131,0))</f>
@@ -16459,9 +16459,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A19,'w11'!$B$2:$B$131,0))</f>
         <v>82</v>
       </c>
-      <c r="I19" t="e">
+      <c r="I19">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A19,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>65</v>
       </c>
       <c r="J19" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A19,'w13'!$B$2:$B$131,0))</f>
@@ -16520,9 +16520,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A20,'w11'!$B$2:$B$131,0))</f>
         <v>126</v>
       </c>
-      <c r="I20" t="e">
+      <c r="I20">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A20,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>129</v>
       </c>
       <c r="J20" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A20,'w13'!$B$2:$B$131,0))</f>
@@ -16581,9 +16581,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A21,'w11'!$B$2:$B$131,0))</f>
         <v>95</v>
       </c>
-      <c r="I21" t="e">
+      <c r="I21">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A21,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>99</v>
       </c>
       <c r="J21" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A21,'w13'!$B$2:$B$131,0))</f>
@@ -16642,9 +16642,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A22,'w11'!$B$2:$B$131,0))</f>
         <v>18</v>
       </c>
-      <c r="I22" t="e">
+      <c r="I22">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A22,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="J22" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A22,'w13'!$B$2:$B$131,0))</f>
@@ -16703,9 +16703,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A23,'w11'!$B$2:$B$131,0))</f>
         <v>1</v>
       </c>
-      <c r="I23" t="e">
+      <c r="I23">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A23,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="J23" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A23,'w13'!$B$2:$B$131,0))</f>
@@ -16764,9 +16764,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A24,'w11'!$B$2:$B$131,0))</f>
         <v>65</v>
       </c>
-      <c r="I24" t="e">
+      <c r="I24">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A24,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>80</v>
       </c>
       <c r="J24" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A24,'w13'!$B$2:$B$131,0))</f>
@@ -16825,9 +16825,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A25,'w11'!$B$2:$B$131,0))</f>
         <v>92</v>
       </c>
-      <c r="I25" t="e">
+      <c r="I25">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A25,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>96</v>
       </c>
       <c r="J25" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A25,'w13'!$B$2:$B$131,0))</f>
@@ -16886,9 +16886,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A26,'w11'!$B$2:$B$131,0))</f>
         <v>102</v>
       </c>
-      <c r="I26" t="e">
+      <c r="I26">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A26,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>104</v>
       </c>
       <c r="J26" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A26,'w13'!$B$2:$B$131,0))</f>
@@ -16947,9 +16947,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A27,'w11'!$B$2:$B$131,0))</f>
         <v>40</v>
       </c>
-      <c r="I27" t="e">
+      <c r="I27">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A27,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>33</v>
       </c>
       <c r="J27" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A27,'w13'!$B$2:$B$131,0))</f>
@@ -17008,9 +17008,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A28,'w11'!$B$2:$B$131,0))</f>
         <v>105</v>
       </c>
-      <c r="I28" t="e">
+      <c r="I28">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A28,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>112</v>
       </c>
       <c r="J28" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A28,'w13'!$B$2:$B$131,0))</f>
@@ -17069,9 +17069,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A29,'w11'!$B$2:$B$131,0))</f>
         <v>70</v>
       </c>
-      <c r="I29" t="e">
+      <c r="I29">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A29,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>63</v>
       </c>
       <c r="J29" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A29,'w13'!$B$2:$B$131,0))</f>
@@ -17130,9 +17130,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A30,'w11'!$B$2:$B$131,0))</f>
         <v>79</v>
       </c>
-      <c r="I30" t="e">
+      <c r="I30">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A30,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
       <c r="J30" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A30,'w13'!$B$2:$B$131,0))</f>
@@ -17191,9 +17191,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A31,'w11'!$B$2:$B$131,0))</f>
         <v>28</v>
       </c>
-      <c r="I31" t="e">
+      <c r="I31">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A31,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>20</v>
       </c>
       <c r="J31" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A31,'w13'!$B$2:$B$131,0))</f>
@@ -17252,9 +17252,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A32,'w11'!$B$2:$B$131,0))</f>
         <v>67</v>
       </c>
-      <c r="I32" t="e">
+      <c r="I32">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A32,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>57</v>
       </c>
       <c r="J32" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A32,'w13'!$B$2:$B$131,0))</f>
@@ -17313,9 +17313,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A33,'w11'!$B$2:$B$131,0))</f>
         <v>88</v>
       </c>
-      <c r="I33" t="e">
+      <c r="I33">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A33,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>93</v>
       </c>
       <c r="J33" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A33,'w13'!$B$2:$B$131,0))</f>
@@ -17374,9 +17374,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A34,'w11'!$B$2:$B$131,0))</f>
         <v>16</v>
       </c>
-      <c r="I34" t="e">
+      <c r="I34">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A34,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>25</v>
       </c>
       <c r="J34" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A34,'w13'!$B$2:$B$131,0))</f>
@@ -17435,9 +17435,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A35,'w11'!$B$2:$B$131,0))</f>
         <v>5</v>
       </c>
-      <c r="I35" t="e">
+      <c r="I35">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A35,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="J35" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A35,'w13'!$B$2:$B$131,0))</f>
@@ -17496,9 +17496,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A36,'w11'!$B$2:$B$131,0))</f>
         <v>29</v>
       </c>
-      <c r="I36" t="e">
+      <c r="I36">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A36,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>39</v>
       </c>
       <c r="J36" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A36,'w13'!$B$2:$B$131,0))</f>
@@ -17557,9 +17557,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A37,'w11'!$B$2:$B$131,0))</f>
         <v>115</v>
       </c>
-      <c r="I37" t="e">
+      <c r="I37">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A37,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>116</v>
       </c>
       <c r="J37" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A37,'w13'!$B$2:$B$131,0))</f>
@@ -17618,9 +17618,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A38,'w11'!$B$2:$B$131,0))</f>
         <v>61</v>
       </c>
-      <c r="I38" t="e">
+      <c r="I38">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A38,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>51</v>
       </c>
       <c r="J38" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A38,'w13'!$B$2:$B$131,0))</f>
@@ -17679,9 +17679,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A39,'w11'!$B$2:$B$131,0))</f>
         <v>75</v>
       </c>
-      <c r="I39" t="e">
+      <c r="I39">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A39,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>77</v>
       </c>
       <c r="J39" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A39,'w13'!$B$2:$B$131,0))</f>
@@ -17740,9 +17740,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A40,'w11'!$B$2:$B$131,0))</f>
         <v>35</v>
       </c>
-      <c r="I40" t="e">
+      <c r="I40">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A40,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>48</v>
       </c>
       <c r="J40" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A40,'w13'!$B$2:$B$131,0))</f>
@@ -17801,9 +17801,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A41,'w11'!$B$2:$B$131,0))</f>
         <v>99</v>
       </c>
-      <c r="I41" t="e">
+      <c r="I41">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A41,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>107</v>
       </c>
       <c r="J41" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A41,'w13'!$B$2:$B$131,0))</f>
@@ -17862,9 +17862,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A42,'w11'!$B$2:$B$131,0))</f>
         <v>96</v>
       </c>
-      <c r="I42" t="e">
+      <c r="I42">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A42,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>82</v>
       </c>
       <c r="J42" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A42,'w13'!$B$2:$B$131,0))</f>
@@ -17923,9 +17923,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A43,'w11'!$B$2:$B$131,0))</f>
         <v>39</v>
       </c>
-      <c r="I43" t="e">
+      <c r="I43">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A43,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>53</v>
       </c>
       <c r="J43" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A43,'w13'!$B$2:$B$131,0))</f>
@@ -17984,9 +17984,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A44,'w11'!$B$2:$B$131,0))</f>
         <v>22</v>
       </c>
-      <c r="I44" t="e">
+      <c r="I44">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A44,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>19</v>
       </c>
       <c r="J44" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A44,'w13'!$B$2:$B$131,0))</f>
@@ -18045,9 +18045,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A45,'w11'!$B$2:$B$131,0))</f>
         <v>106</v>
       </c>
-      <c r="I45" t="e">
+      <c r="I45">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A45,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>114</v>
       </c>
       <c r="J45" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A45,'w13'!$B$2:$B$131,0))</f>
@@ -18106,9 +18106,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A46,'w11'!$B$2:$B$131,0))</f>
         <v>103</v>
       </c>
-      <c r="I46" t="e">
+      <c r="I46">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A46,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>98</v>
       </c>
       <c r="J46" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A46,'w13'!$B$2:$B$131,0))</f>
@@ -18167,9 +18167,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A47,'w11'!$B$2:$B$131,0))</f>
         <v>120</v>
       </c>
-      <c r="I47" t="e">
+      <c r="I47">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A47,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>118</v>
       </c>
       <c r="J47" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A47,'w13'!$B$2:$B$131,0))</f>
@@ -18228,9 +18228,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A48,'w11'!$B$2:$B$131,0))</f>
         <v>12</v>
       </c>
-      <c r="I48" t="e">
+      <c r="I48">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A48,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>28</v>
       </c>
       <c r="J48" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A48,'w13'!$B$2:$B$131,0))</f>
@@ -18289,9 +18289,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A49,'w11'!$B$2:$B$131,0))</f>
         <v>81</v>
       </c>
-      <c r="I49" t="e">
+      <c r="I49">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A49,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>92</v>
       </c>
       <c r="J49" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A49,'w13'!$B$2:$B$131,0))</f>
@@ -18350,9 +18350,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A50,'w11'!$B$2:$B$131,0))</f>
         <v>86</v>
       </c>
-      <c r="I50" t="e">
+      <c r="I50">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A50,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>79</v>
       </c>
       <c r="J50" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A50,'w13'!$B$2:$B$131,0))</f>
@@ -18411,9 +18411,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A51,'w11'!$B$2:$B$131,0))</f>
         <v>57</v>
       </c>
-      <c r="I51" t="e">
+      <c r="I51">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A51,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>52</v>
       </c>
       <c r="J51" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A51,'w13'!$B$2:$B$131,0))</f>
@@ -18472,9 +18472,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A52,'w11'!$B$2:$B$131,0))</f>
         <v>123</v>
       </c>
-      <c r="I52" t="e">
+      <c r="I52">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A52,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>122</v>
       </c>
       <c r="J52" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A52,'w13'!$B$2:$B$131,0))</f>
@@ -18533,9 +18533,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A53,'w11'!$B$2:$B$131,0))</f>
         <v>9</v>
       </c>
-      <c r="I53" t="e">
+      <c r="I53">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A53,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="J53" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A53,'w13'!$B$2:$B$131,0))</f>
@@ -18594,9 +18594,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A54,'w11'!$B$2:$B$131,0))</f>
         <v>63</v>
       </c>
-      <c r="I54" t="e">
+      <c r="I54">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A54,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>55</v>
       </c>
       <c r="J54" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A54,'w13'!$B$2:$B$131,0))</f>
@@ -18655,9 +18655,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A55,'w11'!$B$2:$B$131,0))</f>
         <v>60</v>
       </c>
-      <c r="I55" t="e">
+      <c r="I55">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A55,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>81</v>
       </c>
       <c r="J55" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A55,'w13'!$B$2:$B$131,0))</f>
@@ -18716,9 +18716,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A56,'w11'!$B$2:$B$131,0))</f>
         <v>87</v>
       </c>
-      <c r="I56" t="e">
+      <c r="I56">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A56,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>76</v>
       </c>
       <c r="J56" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A56,'w13'!$B$2:$B$131,0))</f>
@@ -18777,9 +18777,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A57,'w11'!$B$2:$B$131,0))</f>
         <v>98</v>
       </c>
-      <c r="I57" t="e">
+      <c r="I57">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A57,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>87</v>
       </c>
       <c r="J57" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A57,'w13'!$B$2:$B$131,0))</f>
@@ -18838,9 +18838,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A58,'w11'!$B$2:$B$131,0))</f>
         <v>72</v>
       </c>
-      <c r="I58" t="e">
+      <c r="I58">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A58,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>83</v>
       </c>
       <c r="J58" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A58,'w13'!$B$2:$B$131,0))</f>
@@ -18899,9 +18899,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A59,'w11'!$B$2:$B$131,0))</f>
         <v>23</v>
       </c>
-      <c r="I59" t="e">
+      <c r="I59">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A59,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
       <c r="J59" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A59,'w13'!$B$2:$B$131,0))</f>
@@ -18960,9 +18960,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A60,'w11'!$B$2:$B$131,0))</f>
         <v>4</v>
       </c>
-      <c r="I60" t="e">
+      <c r="I60">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A60,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="J60" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A60,'w13'!$B$2:$B$131,0))</f>
@@ -19021,9 +19021,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A61,'w11'!$B$2:$B$131,0))</f>
         <v>56</v>
       </c>
-      <c r="I61" t="e">
+      <c r="I61">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A61,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>47</v>
       </c>
       <c r="J61" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A61,'w13'!$B$2:$B$131,0))</f>
@@ -19082,9 +19082,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A62,'w11'!$B$2:$B$131,0))</f>
         <v>101</v>
       </c>
-      <c r="I62" t="e">
+      <c r="I62">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A62,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>86</v>
       </c>
       <c r="J62" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A62,'w13'!$B$2:$B$131,0))</f>
@@ -19143,9 +19143,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A63,'w11'!$B$2:$B$131,0))</f>
         <v>30</v>
       </c>
-      <c r="I63" t="e">
+      <c r="I63">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A63,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>37</v>
       </c>
       <c r="J63" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A63,'w13'!$B$2:$B$131,0))</f>
@@ -19204,9 +19204,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A64,'w11'!$B$2:$B$131,0))</f>
         <v>47</v>
       </c>
-      <c r="I64" t="e">
+      <c r="I64">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A64,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>36</v>
       </c>
       <c r="J64" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A64,'w13'!$B$2:$B$131,0))</f>
@@ -19265,9 +19265,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A65,'w11'!$B$2:$B$131,0))</f>
         <v>110</v>
       </c>
-      <c r="I65" t="e">
+      <c r="I65">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A65,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>108</v>
       </c>
       <c r="J65" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A65,'w13'!$B$2:$B$131,0))</f>
@@ -19326,9 +19326,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A66,'w11'!$B$2:$B$131,0))</f>
         <v>14</v>
       </c>
-      <c r="I66" t="e">
+      <c r="I66">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A66,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>34</v>
       </c>
       <c r="J66" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A66,'w13'!$B$2:$B$131,0))</f>
@@ -19387,9 +19387,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A67,'w11'!$B$2:$B$131,0))</f>
         <v>111</v>
       </c>
-      <c r="I67" t="e">
+      <c r="I67">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A67,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>101</v>
       </c>
       <c r="J67" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A67,'w13'!$B$2:$B$131,0))</f>
@@ -19448,9 +19448,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A68,'w11'!$B$2:$B$131,0))</f>
         <v>62</v>
       </c>
-      <c r="I68" t="e">
+      <c r="I68">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A68,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
       <c r="J68" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A68,'w13'!$B$2:$B$131,0))</f>
@@ -19509,9 +19509,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A69,'w11'!$B$2:$B$131,0))</f>
         <v>100</v>
       </c>
-      <c r="I69" t="e">
+      <c r="I69">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A69,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>103</v>
       </c>
       <c r="J69" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A69,'w13'!$B$2:$B$131,0))</f>
@@ -19570,9 +19570,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A70,'w11'!$B$2:$B$131,0))</f>
         <v>109</v>
       </c>
-      <c r="I70" t="e">
+      <c r="I70">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A70,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>106</v>
       </c>
       <c r="J70" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A70,'w13'!$B$2:$B$131,0))</f>
@@ -19631,9 +19631,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A71,'w11'!$B$2:$B$131,0))</f>
         <v>127</v>
       </c>
-      <c r="I71" t="e">
+      <c r="I71">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A71,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>127</v>
       </c>
       <c r="J71" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A71,'w13'!$B$2:$B$131,0))</f>
@@ -19692,9 +19692,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A72,'w11'!$B$2:$B$131,0))</f>
         <v>32</v>
       </c>
-      <c r="I72" t="e">
+      <c r="I72">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A72,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>43</v>
       </c>
       <c r="J72" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A72,'w13'!$B$2:$B$131,0))</f>
@@ -19753,9 +19753,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A73,'w11'!$B$2:$B$131,0))</f>
         <v>55</v>
       </c>
-      <c r="I73" t="e">
+      <c r="I73">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A73,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>44</v>
       </c>
       <c r="J73" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A73,'w13'!$B$2:$B$131,0))</f>
@@ -19814,9 +19814,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A74,'w11'!$B$2:$B$131,0))</f>
         <v>45</v>
       </c>
-      <c r="I74" t="e">
+      <c r="I74">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A74,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>30</v>
       </c>
       <c r="J74" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A74,'w13'!$B$2:$B$131,0))</f>
@@ -19875,9 +19875,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A75,'w11'!$B$2:$B$131,0))</f>
         <v>3</v>
       </c>
-      <c r="I75" t="e">
+      <c r="I75">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A75,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="J75" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A75,'w13'!$B$2:$B$131,0))</f>
@@ -19936,9 +19936,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A76,'w11'!$B$2:$B$131,0))</f>
         <v>49</v>
       </c>
-      <c r="I76" t="e">
+      <c r="I76">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A76,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>59</v>
       </c>
       <c r="J76" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A76,'w13'!$B$2:$B$131,0))</f>
@@ -19997,9 +19997,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A77,'w11'!$B$2:$B$131,0))</f>
         <v>11</v>
       </c>
-      <c r="I77" t="e">
+      <c r="I77">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A77,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="J77" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A77,'w13'!$B$2:$B$131,0))</f>
@@ -20058,9 +20058,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A78,'w11'!$B$2:$B$131,0))</f>
         <v>6</v>
       </c>
-      <c r="I78" t="e">
+      <c r="I78">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A78,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="J78" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A78,'w13'!$B$2:$B$131,0))</f>
@@ -20119,9 +20119,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A79,'w11'!$B$2:$B$131,0))</f>
         <v>83</v>
       </c>
-      <c r="I79" t="e">
+      <c r="I79">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A79,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>85</v>
       </c>
       <c r="J79" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A79,'w13'!$B$2:$B$131,0))</f>
@@ -20180,9 +20180,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A80,'w11'!$B$2:$B$131,0))</f>
         <v>112</v>
       </c>
-      <c r="I80" t="e">
+      <c r="I80">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A80,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>102</v>
       </c>
       <c r="J80" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A80,'w13'!$B$2:$B$131,0))</f>
@@ -20241,9 +20241,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A81,'w11'!$B$2:$B$131,0))</f>
         <v>69</v>
       </c>
-      <c r="I81" t="e">
+      <c r="I81">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A81,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>84</v>
       </c>
       <c r="J81" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A81,'w13'!$B$2:$B$131,0))</f>
@@ -20302,9 +20302,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A82,'w11'!$B$2:$B$131,0))</f>
         <v>53</v>
       </c>
-      <c r="I82" t="e">
+      <c r="I82">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A82,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>61</v>
       </c>
       <c r="J82" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A82,'w13'!$B$2:$B$131,0))</f>
@@ -20363,9 +20363,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A83,'w11'!$B$2:$B$131,0))</f>
         <v>118</v>
       </c>
-      <c r="I83" t="e">
+      <c r="I83">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A83,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>119</v>
       </c>
       <c r="J83" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A83,'w13'!$B$2:$B$131,0))</f>
@@ -20424,9 +20424,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A84,'w11'!$B$2:$B$131,0))</f>
         <v>21</v>
       </c>
-      <c r="I84" t="e">
+      <c r="I84">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A84,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>15</v>
       </c>
       <c r="J84" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A84,'w13'!$B$2:$B$131,0))</f>
@@ -20485,9 +20485,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A85,'w11'!$B$2:$B$131,0))</f>
         <v>41</v>
       </c>
-      <c r="I85" t="e">
+      <c r="I85">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A85,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>26</v>
       </c>
       <c r="J85" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A85,'w13'!$B$2:$B$131,0))</f>
@@ -20546,9 +20546,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A86,'w11'!$B$2:$B$131,0))</f>
         <v>31</v>
       </c>
-      <c r="I86" t="e">
+      <c r="I86">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A86,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>54</v>
       </c>
       <c r="J86" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A86,'w13'!$B$2:$B$131,0))</f>
@@ -20607,9 +20607,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A87,'w11'!$B$2:$B$131,0))</f>
         <v>128</v>
       </c>
-      <c r="I87" t="e">
+      <c r="I87">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A87,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>128</v>
       </c>
       <c r="J87" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A87,'w13'!$B$2:$B$131,0))</f>
@@ -20668,9 +20668,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A88,'w11'!$B$2:$B$131,0))</f>
         <v>130</v>
       </c>
-      <c r="I88" t="e">
+      <c r="I88">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A88,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>130</v>
       </c>
       <c r="J88" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A88,'w13'!$B$2:$B$131,0))</f>
@@ -20729,9 +20729,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A89,'w11'!$B$2:$B$131,0))</f>
         <v>36</v>
       </c>
-      <c r="I89" t="e">
+      <c r="I89">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A89,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>42</v>
       </c>
       <c r="J89" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A89,'w13'!$B$2:$B$131,0))</f>
@@ -20790,9 +20790,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A90,'w11'!$B$2:$B$131,0))</f>
         <v>117</v>
       </c>
-      <c r="I90" t="e">
+      <c r="I90">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A90,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>117</v>
       </c>
       <c r="J90" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A90,'w13'!$B$2:$B$131,0))</f>
@@ -20851,9 +20851,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A91,'w11'!$B$2:$B$131,0))</f>
         <v>73</v>
       </c>
-      <c r="I91" t="e">
+      <c r="I91">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A91,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>69</v>
       </c>
       <c r="J91" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A91,'w13'!$B$2:$B$131,0))</f>
@@ -20912,9 +20912,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A92,'w11'!$B$2:$B$131,0))</f>
         <v>114</v>
       </c>
-      <c r="I92" t="e">
+      <c r="I92">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A92,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>115</v>
       </c>
       <c r="J92" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A92,'w13'!$B$2:$B$131,0))</f>
@@ -20973,9 +20973,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A93,'w11'!$B$2:$B$131,0))</f>
         <v>37</v>
       </c>
-      <c r="I93" t="e">
+      <c r="I93">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A93,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>49</v>
       </c>
       <c r="J93" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A93,'w13'!$B$2:$B$131,0))</f>
@@ -21034,9 +21034,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A94,'w11'!$B$2:$B$131,0))</f>
         <v>42</v>
       </c>
-      <c r="I94" t="e">
+      <c r="I94">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A94,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>46</v>
       </c>
       <c r="J94" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A94,'w13'!$B$2:$B$131,0))</f>
@@ -21095,9 +21095,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A95,'w11'!$B$2:$B$131,0))</f>
         <v>84</v>
       </c>
-      <c r="I95" t="e">
+      <c r="I95">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A95,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>88</v>
       </c>
       <c r="J95" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A95,'w13'!$B$2:$B$131,0))</f>
@@ -21156,9 +21156,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A96,'w11'!$B$2:$B$131,0))</f>
         <v>51</v>
       </c>
-      <c r="I96" t="e">
+      <c r="I96">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A96,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>41</v>
       </c>
       <c r="J96" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A96,'w13'!$B$2:$B$131,0))</f>
@@ -21217,9 +21217,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A97,'w11'!$B$2:$B$131,0))</f>
         <v>19</v>
       </c>
-      <c r="I97" t="e">
+      <c r="I97">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A97,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>17</v>
       </c>
       <c r="J97" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A97,'w13'!$B$2:$B$131,0))</f>
@@ -21278,9 +21278,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A98,'w11'!$B$2:$B$131,0))</f>
         <v>90</v>
       </c>
-      <c r="I98" t="e">
+      <c r="I98">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A98,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>94</v>
       </c>
       <c r="J98" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A98,'w13'!$B$2:$B$131,0))</f>
@@ -21339,9 +21339,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A99,'w11'!$B$2:$B$131,0))</f>
         <v>44</v>
       </c>
-      <c r="I99" t="e">
+      <c r="I99">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A99,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>32</v>
       </c>
       <c r="J99" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A99,'w13'!$B$2:$B$131,0))</f>
@@ -21400,9 +21400,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A100,'w11'!$B$2:$B$131,0))</f>
         <v>80</v>
       </c>
-      <c r="I100" t="e">
+      <c r="I100">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A100,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>62</v>
       </c>
       <c r="J100" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A100,'w13'!$B$2:$B$131,0))</f>
@@ -21461,9 +21461,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A101,'w11'!$B$2:$B$131,0))</f>
         <v>50</v>
       </c>
-      <c r="I101" t="e">
+      <c r="I101">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A101,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>40</v>
       </c>
       <c r="J101" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A101,'w13'!$B$2:$B$131,0))</f>
@@ -21522,9 +21522,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A102,'w11'!$B$2:$B$131,0))</f>
         <v>26</v>
       </c>
-      <c r="I102" t="e">
+      <c r="I102">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A102,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>18</v>
       </c>
       <c r="J102" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A102,'w13'!$B$2:$B$131,0))</f>
@@ -21583,9 +21583,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A103,'w11'!$B$2:$B$131,0))</f>
         <v>107</v>
       </c>
-      <c r="I103" t="e">
+      <c r="I103">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A103,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>110</v>
       </c>
       <c r="J103" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A103,'w13'!$B$2:$B$131,0))</f>
@@ -21644,9 +21644,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A104,'w11'!$B$2:$B$131,0))</f>
         <v>54</v>
       </c>
-      <c r="I104" t="e">
+      <c r="I104">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A104,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>68</v>
       </c>
       <c r="J104" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A104,'w13'!$B$2:$B$131,0))</f>
@@ -21705,9 +21705,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A105,'w11'!$B$2:$B$131,0))</f>
         <v>64</v>
       </c>
-      <c r="I105" t="e">
+      <c r="I105">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A105,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>78</v>
       </c>
       <c r="J105" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A105,'w13'!$B$2:$B$131,0))</f>
@@ -21766,9 +21766,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A106,'w11'!$B$2:$B$131,0))</f>
         <v>33</v>
       </c>
-      <c r="I106" t="e">
+      <c r="I106">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A106,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>24</v>
       </c>
       <c r="J106" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A106,'w13'!$B$2:$B$131,0))</f>
@@ -21827,9 +21827,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A107,'w11'!$B$2:$B$131,0))</f>
         <v>74</v>
       </c>
-      <c r="I107" t="e">
+      <c r="I107">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A107,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>64</v>
       </c>
       <c r="J107" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A107,'w13'!$B$2:$B$131,0))</f>
@@ -21888,9 +21888,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A108,'w11'!$B$2:$B$131,0))</f>
         <v>122</v>
       </c>
-      <c r="I108" t="e">
+      <c r="I108">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A108,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>124</v>
       </c>
       <c r="J108" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A108,'w13'!$B$2:$B$131,0))</f>
@@ -21949,9 +21949,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A109,'w11'!$B$2:$B$131,0))</f>
         <v>13</v>
       </c>
-      <c r="I109" t="e">
+      <c r="I109">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A109,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="J109" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A109,'w13'!$B$2:$B$131,0))</f>
@@ -22010,9 +22010,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A110,'w11'!$B$2:$B$131,0))</f>
         <v>7</v>
       </c>
-      <c r="I110" t="e">
+      <c r="I110">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A110,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="J110" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A110,'w13'!$B$2:$B$131,0))</f>
@@ -22071,9 +22071,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A111,'w11'!$B$2:$B$131,0))</f>
         <v>104</v>
       </c>
-      <c r="I111" t="e">
+      <c r="I111">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A111,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>109</v>
       </c>
       <c r="J111" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A111,'w13'!$B$2:$B$131,0))</f>
@@ -22132,9 +22132,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A112,'w11'!$B$2:$B$131,0))</f>
         <v>125</v>
       </c>
-      <c r="I112" t="e">
+      <c r="I112">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A112,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>126</v>
       </c>
       <c r="J112" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A112,'w13'!$B$2:$B$131,0))</f>
@@ -22193,9 +22193,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A113,'w11'!$B$2:$B$131,0))</f>
         <v>77</v>
       </c>
-      <c r="I113" t="e">
+      <c r="I113">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A113,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>71</v>
       </c>
       <c r="J113" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A113,'w13'!$B$2:$B$131,0))</f>
@@ -22254,9 +22254,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A114,'w11'!$B$2:$B$131,0))</f>
         <v>93</v>
       </c>
-      <c r="I114" t="e">
+      <c r="I114">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A114,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
       <c r="J114" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A114,'w13'!$B$2:$B$131,0))</f>
@@ -22315,9 +22315,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A115,'w11'!$B$2:$B$131,0))</f>
         <v>116</v>
       </c>
-      <c r="I115" t="e">
+      <c r="I115">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A115,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>105</v>
       </c>
       <c r="J115" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A115,'w13'!$B$2:$B$131,0))</f>
@@ -22376,9 +22376,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A116,'w11'!$B$2:$B$131,0))</f>
         <v>58</v>
       </c>
-      <c r="I116" t="e">
+      <c r="I116">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A116,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>72</v>
       </c>
       <c r="J116" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A116,'w13'!$B$2:$B$131,0))</f>
@@ -22437,9 +22437,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A117,'w11'!$B$2:$B$131,0))</f>
         <v>17</v>
       </c>
-      <c r="I117" t="e">
+      <c r="I117">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A117,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>16</v>
       </c>
       <c r="J117" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A117,'w13'!$B$2:$B$131,0))</f>
@@ -22498,9 +22498,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A118,'w11'!$B$2:$B$131,0))</f>
         <v>34</v>
       </c>
-      <c r="I118" t="e">
+      <c r="I118">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A118,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>21</v>
       </c>
       <c r="J118" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A118,'w13'!$B$2:$B$131,0))</f>
@@ -22559,9 +22559,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A119,'w11'!$B$2:$B$131,0))</f>
         <v>121</v>
       </c>
-      <c r="I119" t="e">
+      <c r="I119">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A119,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>120</v>
       </c>
       <c r="J119" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A119,'w13'!$B$2:$B$131,0))</f>
@@ -22620,9 +22620,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A120,'w11'!$B$2:$B$131,0))</f>
         <v>108</v>
       </c>
-      <c r="I120" t="e">
+      <c r="I120">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A120,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>113</v>
       </c>
       <c r="J120" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A120,'w13'!$B$2:$B$131,0))</f>
@@ -22681,9 +22681,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A121,'w11'!$B$2:$B$131,0))</f>
         <v>89</v>
       </c>
-      <c r="I121" t="e">
+      <c r="I121">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A121,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>97</v>
       </c>
       <c r="J121" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A121,'w13'!$B$2:$B$131,0))</f>
@@ -22742,9 +22742,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A122,'w11'!$B$2:$B$131,0))</f>
         <v>48</v>
       </c>
-      <c r="I122" t="e">
+      <c r="I122">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A122,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>38</v>
       </c>
       <c r="J122" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A122,'w13'!$B$2:$B$131,0))</f>
@@ -22803,9 +22803,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A123,'w11'!$B$2:$B$131,0))</f>
         <v>76</v>
       </c>
-      <c r="I123" t="e">
+      <c r="I123">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A123,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>91</v>
       </c>
       <c r="J123" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A123,'w13'!$B$2:$B$131,0))</f>
@@ -22864,9 +22864,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A124,'w11'!$B$2:$B$131,0))</f>
         <v>91</v>
       </c>
-      <c r="I124" t="e">
+      <c r="I124">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A124,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>73</v>
       </c>
       <c r="J124" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A124,'w13'!$B$2:$B$131,0))</f>
@@ -22925,9 +22925,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A125,'w11'!$B$2:$B$131,0))</f>
         <v>25</v>
       </c>
-      <c r="I125" t="e">
+      <c r="I125">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A125,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>27</v>
       </c>
       <c r="J125" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A125,'w13'!$B$2:$B$131,0))</f>
@@ -22986,9 +22986,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A126,'w11'!$B$2:$B$131,0))</f>
         <v>10</v>
       </c>
-      <c r="I126" t="e">
+      <c r="I126">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A126,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="J126" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A126,'w13'!$B$2:$B$131,0))</f>
@@ -23047,9 +23047,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A127,'w11'!$B$2:$B$131,0))</f>
         <v>8</v>
       </c>
-      <c r="I127" t="e">
+      <c r="I127">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A127,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="J127" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A127,'w13'!$B$2:$B$131,0))</f>
@@ -23108,9 +23108,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A128,'w11'!$B$2:$B$131,0))</f>
         <v>124</v>
       </c>
-      <c r="I128" t="e">
+      <c r="I128">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A128,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>125</v>
       </c>
       <c r="J128" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A128,'w13'!$B$2:$B$131,0))</f>
@@ -23169,9 +23169,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A129,'w11'!$B$2:$B$131,0))</f>
         <v>66</v>
       </c>
-      <c r="I129" t="e">
+      <c r="I129">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A129,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>67</v>
       </c>
       <c r="J129" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A129,'w13'!$B$2:$B$131,0))</f>
@@ -23230,9 +23230,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A130,'w11'!$B$2:$B$131,0))</f>
         <v>46</v>
       </c>
-      <c r="I130" t="e">
+      <c r="I130">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A130,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>56</v>
       </c>
       <c r="J130" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A130,'w13'!$B$2:$B$131,0))</f>
@@ -23291,9 +23291,9 @@
         <f>INDEX('w11'!$A$2:$A$131,MATCH($A131,'w11'!$B$2:$B$131,0))</f>
         <v>94</v>
       </c>
-      <c r="I131" t="e">
+      <c r="I131">
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A131,'w12'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>95</v>
       </c>
       <c r="J131" t="e">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A131,'w13'!$B$2:$B$131,0))</f>
@@ -27060,8 +27060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F131"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27095,650 +27095,2600 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.99637371532971897</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.939533032067427</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.89369215601190299</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.88998863848880905</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.83279145145953704</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.80252792179489896</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.80231612530160401</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.80177835224125804</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.79974147217373504</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.76190305601346298</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.71566176324721498</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.68727104709486297</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.68184727326795502</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.67677415515251904</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.67539916174252501</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.67482137736029602</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.64732532615472205</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.64677600775658295</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.64157908634498095</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.64012360338060303</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.63805728751672497</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.63166864581323601</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.63128573825073497</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.62275170936999003</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.61547553769762497</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.613382354045797</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.60224905709297205</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.59868412447806696</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.59807137432683599</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.59715941034161302</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.59063207867504597</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.58051621206176796</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.57239218906859102</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.57147760454751795</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.569019110027154</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.56118180517252103</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.55866875214629297</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.55591880034460095</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.54967545830764497</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.54326185731336296</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.53144474057666802</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.52981927880133595</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.52902621944169903</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.52763347175540598</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.522857685240528</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.51861359902975501</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0.51823894703064199</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.51279012636719901</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.51240954752141199</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.50896864095794903</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.50435365846035596</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.50285039303047596</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.49436675547831899</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.48611968986419202</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.48578385856488199</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.48042950851068</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.47548088043911402</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0.47329514342977702</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0.472749435807094</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0.46533487182716898</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0.46494312214481598</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0.46396779255217202</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.446996402798024</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0.44687814601092302</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0.441530659542824</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0.43624265165124099</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0.435626609780144</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0.43546405484803702</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0.43051691505406903</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0.42790602090756802</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0.42612446507582402</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0.42414144898461897</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0.42013121495751898</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0.41423156874561701</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0.41375016346978499</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0.40983913627651902</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0.40691344515410699</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0.40548307030828201</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0.393390254523659</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0.39234038848702701</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0.38649187774251198</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0.372786031677796</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0.36633121414859598</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0.36389057895942101</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0.35810215961160902</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0.35670070112407498</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0.35320933319543102</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0.351497113590651</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0.35097657828673101</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0.34552140082975302</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0.34121223992414601</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0.34010286029270198</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="7">
+        <v>0.33471774666507098</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0.32955330083250201</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="7">
+        <v>0.31926347207704903</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="7">
+        <v>0.30878368657251898</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="7">
+        <v>0.30497943891969498</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="7">
+        <v>0.30101750387796899</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="7">
+        <v>0.277596749235198</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="7">
+        <v>0.27303893556565101</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="7">
+        <v>0.26302389538241899</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0.23336359089237799</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0.232083917285313</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0.22234548662571499</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0.209988037574842</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="7">
+        <v>0.20802659275424801</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="7">
+        <v>0.20595386854212</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="7">
+        <v>0.205390275324527</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>159</v>
+      </c>
+      <c r="C111" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" s="7">
+        <v>0.204078857631732</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" s="7">
+        <v>0.20355426604180701</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" s="7">
+        <v>0.198166050376749</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="7">
+        <v>0.19714283618190501</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0.16935830425019999</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" t="s">
+        <v>72</v>
+      </c>
+      <c r="D116" s="7">
+        <v>0.16681756926063099</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" t="s">
+        <v>72</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0.16182574612039699</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>155</v>
+      </c>
+      <c r="C118" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0.139507009971337</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>148</v>
+      </c>
+      <c r="C119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D119" s="7">
+        <v>0.12410626084943401</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" t="s">
+        <v>31</v>
+      </c>
+      <c r="D120" s="7">
+        <v>0.115339850553466</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>160</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="7">
+        <v>0.113557927029609</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="7">
+        <v>0.113082956365749</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0.109685481244454</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>156</v>
+      </c>
+      <c r="C124" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" s="7">
+        <v>9.9073571707429503E-2</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>147</v>
+      </c>
+      <c r="C125" t="s">
+        <v>43</v>
+      </c>
+      <c r="D125" s="7">
+        <v>9.9025036348553905E-2</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>146</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="7">
+        <v>8.3620067521928895E-2</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" s="7">
+        <v>6.2176316037043697E-2</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" t="s">
+        <v>35</v>
+      </c>
+      <c r="D128" s="7">
+        <v>5.8960510001333302E-2</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="7">
+        <v>5.4866792355503402E-2</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" s="7">
+        <v>3.3554978138865398E-2</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="7">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -27751,7 +29701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="L116" sqref="L116"/>
     </sheetView>
   </sheetViews>

--- a/rankings_75.xlsx
+++ b/rankings_75.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Python\CFB Rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AFBE4ACD-CE76-46B8-B019-11112657E63C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9D9EE042-C870-4583-B186-2FD105C2D4FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="post champ" sheetId="20" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="161">
   <si>
     <t>Team</t>
   </si>
@@ -1421,6 +1421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2127,6 +2128,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
@@ -4768,6 +4770,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
@@ -7409,6 +7412,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10050,6 +10054,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12691,6 +12696,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
@@ -15332,6 +15338,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15426,9 +15433,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A2,'w12'!$B$2:$B$131,0))</f>
         <v>89</v>
       </c>
-      <c r="J2" t="e">
+      <c r="J2">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A2,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>94</v>
       </c>
       <c r="K2" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A2,'w14'!$B$2:$B$131,0))</f>
@@ -15487,9 +15494,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A3,'w12'!$B$2:$B$131,0))</f>
         <v>90</v>
       </c>
-      <c r="J3" t="e">
+      <c r="J3">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A3,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>96</v>
       </c>
       <c r="K3" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A3,'w14'!$B$2:$B$131,0))</f>
@@ -15548,9 +15555,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A4,'w12'!$B$2:$B$131,0))</f>
         <v>2</v>
       </c>
-      <c r="J4" t="e">
+      <c r="J4">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A4,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="K4" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A4,'w14'!$B$2:$B$131,0))</f>
@@ -15609,9 +15616,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A5,'w12'!$B$2:$B$131,0))</f>
         <v>31</v>
       </c>
-      <c r="J5" t="e">
+      <c r="J5">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A5,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>31</v>
       </c>
       <c r="K5" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A5,'w14'!$B$2:$B$131,0))</f>
@@ -15670,9 +15677,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A6,'w12'!$B$2:$B$131,0))</f>
         <v>45</v>
       </c>
-      <c r="J6" t="e">
+      <c r="J6">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A6,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>61</v>
       </c>
       <c r="K6" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A6,'w14'!$B$2:$B$131,0))</f>
@@ -15731,9 +15738,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A7,'w12'!$B$2:$B$131,0))</f>
         <v>74</v>
       </c>
-      <c r="J7" t="e">
+      <c r="J7">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A7,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>78</v>
       </c>
       <c r="K7" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A7,'w14'!$B$2:$B$131,0))</f>
@@ -15792,9 +15799,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A8,'w12'!$B$2:$B$131,0))</f>
         <v>121</v>
       </c>
-      <c r="J8" t="e">
+      <c r="J8">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A8,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>122</v>
       </c>
       <c r="K8" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A8,'w14'!$B$2:$B$131,0))</f>
@@ -15853,9 +15860,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A9,'w12'!$B$2:$B$131,0))</f>
         <v>58</v>
       </c>
-      <c r="J9" t="e">
+      <c r="J9">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A9,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>51</v>
       </c>
       <c r="K9" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A9,'w14'!$B$2:$B$131,0))</f>
@@ -15914,9 +15921,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A10,'w12'!$B$2:$B$131,0))</f>
         <v>23</v>
       </c>
-      <c r="J10" t="e">
+      <c r="J10">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A10,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>26</v>
       </c>
       <c r="K10" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A10,'w14'!$B$2:$B$131,0))</f>
@@ -15975,9 +15982,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A11,'w12'!$B$2:$B$131,0))</f>
         <v>50</v>
       </c>
-      <c r="J11" t="e">
+      <c r="J11">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A11,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>42</v>
       </c>
       <c r="K11" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A11,'w14'!$B$2:$B$131,0))</f>
@@ -16036,9 +16043,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A12,'w12'!$B$2:$B$131,0))</f>
         <v>111</v>
       </c>
-      <c r="J12" t="e">
+      <c r="J12">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A12,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>103</v>
       </c>
       <c r="K12" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A12,'w14'!$B$2:$B$131,0))</f>
@@ -16097,9 +16104,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A13,'w12'!$B$2:$B$131,0))</f>
         <v>75</v>
       </c>
-      <c r="J13" t="e">
+      <c r="J13">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A13,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>91</v>
       </c>
       <c r="K13" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A13,'w14'!$B$2:$B$131,0))</f>
@@ -16158,9 +16165,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A14,'w12'!$B$2:$B$131,0))</f>
         <v>22</v>
       </c>
-      <c r="J14" t="e">
+      <c r="J14">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A14,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>17</v>
       </c>
       <c r="K14" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A14,'w14'!$B$2:$B$131,0))</f>
@@ -16219,9 +16226,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A15,'w12'!$B$2:$B$131,0))</f>
         <v>29</v>
       </c>
-      <c r="J15" t="e">
+      <c r="J15">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A15,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>47</v>
       </c>
       <c r="K15" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A15,'w14'!$B$2:$B$131,0))</f>
@@ -16280,9 +16287,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A16,'w12'!$B$2:$B$131,0))</f>
         <v>123</v>
       </c>
-      <c r="J16" t="e">
+      <c r="J16">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A16,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>113</v>
       </c>
       <c r="K16" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A16,'w14'!$B$2:$B$131,0))</f>
@@ -16341,9 +16348,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A17,'w12'!$B$2:$B$131,0))</f>
         <v>14</v>
       </c>
-      <c r="J17" t="e">
+      <c r="J17">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A17,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>27</v>
       </c>
       <c r="K17" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A17,'w14'!$B$2:$B$131,0))</f>
@@ -16402,9 +16409,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A18,'w12'!$B$2:$B$131,0))</f>
         <v>66</v>
       </c>
-      <c r="J18" t="e">
+      <c r="J18">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A18,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>59</v>
       </c>
       <c r="K18" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A18,'w14'!$B$2:$B$131,0))</f>
@@ -16463,9 +16470,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A19,'w12'!$B$2:$B$131,0))</f>
         <v>65</v>
       </c>
-      <c r="J19" t="e">
+      <c r="J19">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A19,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>64</v>
       </c>
       <c r="K19" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A19,'w14'!$B$2:$B$131,0))</f>
@@ -16524,9 +16531,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A20,'w12'!$B$2:$B$131,0))</f>
         <v>129</v>
       </c>
-      <c r="J20" t="e">
+      <c r="J20">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A20,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>128</v>
       </c>
       <c r="K20" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A20,'w14'!$B$2:$B$131,0))</f>
@@ -16585,9 +16592,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A21,'w12'!$B$2:$B$131,0))</f>
         <v>99</v>
       </c>
-      <c r="J21" t="e">
+      <c r="J21">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A21,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>101</v>
       </c>
       <c r="K21" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A21,'w14'!$B$2:$B$131,0))</f>
@@ -16646,9 +16653,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A22,'w12'!$B$2:$B$131,0))</f>
         <v>12</v>
       </c>
-      <c r="J22" t="e">
+      <c r="J22">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A22,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>16</v>
       </c>
       <c r="K22" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A22,'w14'!$B$2:$B$131,0))</f>
@@ -16707,9 +16714,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A23,'w12'!$B$2:$B$131,0))</f>
         <v>1</v>
       </c>
-      <c r="J23" t="e">
+      <c r="J23">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A23,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="K23" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A23,'w14'!$B$2:$B$131,0))</f>
@@ -16768,9 +16775,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A24,'w12'!$B$2:$B$131,0))</f>
         <v>80</v>
       </c>
-      <c r="J24" t="e">
+      <c r="J24">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A24,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>86</v>
       </c>
       <c r="K24" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A24,'w14'!$B$2:$B$131,0))</f>
@@ -16829,9 +16836,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A25,'w12'!$B$2:$B$131,0))</f>
         <v>96</v>
       </c>
-      <c r="J25" t="e">
+      <c r="J25">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A25,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>99</v>
       </c>
       <c r="K25" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A25,'w14'!$B$2:$B$131,0))</f>
@@ -16890,9 +16897,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A26,'w12'!$B$2:$B$131,0))</f>
         <v>104</v>
       </c>
-      <c r="J26" t="e">
+      <c r="J26">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A26,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>107</v>
       </c>
       <c r="K26" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A26,'w14'!$B$2:$B$131,0))</f>
@@ -16951,9 +16958,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A27,'w12'!$B$2:$B$131,0))</f>
         <v>33</v>
       </c>
-      <c r="J27" t="e">
+      <c r="J27">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A27,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>40</v>
       </c>
       <c r="K27" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A27,'w14'!$B$2:$B$131,0))</f>
@@ -17012,9 +17019,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A28,'w12'!$B$2:$B$131,0))</f>
         <v>112</v>
       </c>
-      <c r="J28" t="e">
+      <c r="J28">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A28,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>105</v>
       </c>
       <c r="K28" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A28,'w14'!$B$2:$B$131,0))</f>
@@ -17073,9 +17080,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A29,'w12'!$B$2:$B$131,0))</f>
         <v>63</v>
       </c>
-      <c r="J29" t="e">
+      <c r="J29">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A29,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>63</v>
       </c>
       <c r="K29" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A29,'w14'!$B$2:$B$131,0))</f>
@@ -17134,9 +17141,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A30,'w12'!$B$2:$B$131,0))</f>
         <v>70</v>
       </c>
-      <c r="J30" t="e">
+      <c r="J30">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A30,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>72</v>
       </c>
       <c r="K30" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A30,'w14'!$B$2:$B$131,0))</f>
@@ -17195,9 +17202,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A31,'w12'!$B$2:$B$131,0))</f>
         <v>20</v>
       </c>
-      <c r="J31" t="e">
+      <c r="J31">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A31,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>19</v>
       </c>
       <c r="K31" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A31,'w14'!$B$2:$B$131,0))</f>
@@ -17256,9 +17263,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A32,'w12'!$B$2:$B$131,0))</f>
         <v>57</v>
       </c>
-      <c r="J32" t="e">
+      <c r="J32">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A32,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
       <c r="K32" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A32,'w14'!$B$2:$B$131,0))</f>
@@ -17317,9 +17324,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A33,'w12'!$B$2:$B$131,0))</f>
         <v>93</v>
       </c>
-      <c r="J33" t="e">
+      <c r="J33">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A33,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>74</v>
       </c>
       <c r="K33" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A33,'w14'!$B$2:$B$131,0))</f>
@@ -17378,9 +17385,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A34,'w12'!$B$2:$B$131,0))</f>
         <v>25</v>
       </c>
-      <c r="J34" t="e">
+      <c r="J34">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A34,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>18</v>
       </c>
       <c r="K34" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A34,'w14'!$B$2:$B$131,0))</f>
@@ -17439,9 +17446,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A35,'w12'!$B$2:$B$131,0))</f>
         <v>4</v>
       </c>
-      <c r="J35" t="e">
+      <c r="J35">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A35,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="K35" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A35,'w14'!$B$2:$B$131,0))</f>
@@ -17500,9 +17507,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A36,'w12'!$B$2:$B$131,0))</f>
         <v>39</v>
       </c>
-      <c r="J36" t="e">
+      <c r="J36">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A36,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
       <c r="K36" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A36,'w14'!$B$2:$B$131,0))</f>
@@ -17561,9 +17568,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A37,'w12'!$B$2:$B$131,0))</f>
         <v>116</v>
       </c>
-      <c r="J37" t="e">
+      <c r="J37">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A37,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>116</v>
       </c>
       <c r="K37" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A37,'w14'!$B$2:$B$131,0))</f>
@@ -17622,9 +17629,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A38,'w12'!$B$2:$B$131,0))</f>
         <v>51</v>
       </c>
-      <c r="J38" t="e">
+      <c r="J38">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A38,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>37</v>
       </c>
       <c r="K38" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A38,'w14'!$B$2:$B$131,0))</f>
@@ -17683,9 +17690,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A39,'w12'!$B$2:$B$131,0))</f>
         <v>77</v>
       </c>
-      <c r="J39" t="e">
+      <c r="J39">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A39,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>65</v>
       </c>
       <c r="K39" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A39,'w14'!$B$2:$B$131,0))</f>
@@ -17744,9 +17751,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A40,'w12'!$B$2:$B$131,0))</f>
         <v>48</v>
       </c>
-      <c r="J40" t="e">
+      <c r="J40">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A40,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>38</v>
       </c>
       <c r="K40" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A40,'w14'!$B$2:$B$131,0))</f>
@@ -17805,9 +17812,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A41,'w12'!$B$2:$B$131,0))</f>
         <v>107</v>
       </c>
-      <c r="J41" t="e">
+      <c r="J41">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A41,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>114</v>
       </c>
       <c r="K41" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A41,'w14'!$B$2:$B$131,0))</f>
@@ -17866,9 +17873,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A42,'w12'!$B$2:$B$131,0))</f>
         <v>82</v>
       </c>
-      <c r="J42" t="e">
+      <c r="J42">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A42,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>89</v>
       </c>
       <c r="K42" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A42,'w14'!$B$2:$B$131,0))</f>
@@ -17927,9 +17934,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A43,'w12'!$B$2:$B$131,0))</f>
         <v>53</v>
       </c>
-      <c r="J43" t="e">
+      <c r="J43">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A43,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>41</v>
       </c>
       <c r="K43" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A43,'w14'!$B$2:$B$131,0))</f>
@@ -17988,9 +17995,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A44,'w12'!$B$2:$B$131,0))</f>
         <v>19</v>
       </c>
-      <c r="J44" t="e">
+      <c r="J44">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A44,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>36</v>
       </c>
       <c r="K44" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A44,'w14'!$B$2:$B$131,0))</f>
@@ -18049,9 +18056,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A45,'w12'!$B$2:$B$131,0))</f>
         <v>114</v>
       </c>
-      <c r="J45" t="e">
+      <c r="J45">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A45,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>115</v>
       </c>
       <c r="K45" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A45,'w14'!$B$2:$B$131,0))</f>
@@ -18110,9 +18117,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A46,'w12'!$B$2:$B$131,0))</f>
         <v>98</v>
       </c>
-      <c r="J46" t="e">
+      <c r="J46">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A46,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>84</v>
       </c>
       <c r="K46" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A46,'w14'!$B$2:$B$131,0))</f>
@@ -18171,9 +18178,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A47,'w12'!$B$2:$B$131,0))</f>
         <v>118</v>
       </c>
-      <c r="J47" t="e">
+      <c r="J47">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A47,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>120</v>
       </c>
       <c r="K47" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A47,'w14'!$B$2:$B$131,0))</f>
@@ -18232,9 +18239,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A48,'w12'!$B$2:$B$131,0))</f>
         <v>28</v>
       </c>
-      <c r="J48" t="e">
+      <c r="J48">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A48,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>22</v>
       </c>
       <c r="K48" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A48,'w14'!$B$2:$B$131,0))</f>
@@ -18293,9 +18300,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A49,'w12'!$B$2:$B$131,0))</f>
         <v>92</v>
       </c>
-      <c r="J49" t="e">
+      <c r="J49">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A49,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
       <c r="K49" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A49,'w14'!$B$2:$B$131,0))</f>
@@ -18354,9 +18361,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A50,'w12'!$B$2:$B$131,0))</f>
         <v>79</v>
       </c>
-      <c r="J50" t="e">
+      <c r="J50">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A50,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>69</v>
       </c>
       <c r="K50" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A50,'w14'!$B$2:$B$131,0))</f>
@@ -18415,9 +18422,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A51,'w12'!$B$2:$B$131,0))</f>
         <v>52</v>
       </c>
-      <c r="J51" t="e">
+      <c r="J51">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A51,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>62</v>
       </c>
       <c r="K51" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A51,'w14'!$B$2:$B$131,0))</f>
@@ -18476,9 +18483,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A52,'w12'!$B$2:$B$131,0))</f>
         <v>122</v>
       </c>
-      <c r="J52" t="e">
+      <c r="J52">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A52,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>124</v>
       </c>
       <c r="K52" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A52,'w14'!$B$2:$B$131,0))</f>
@@ -18537,9 +18544,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A53,'w12'!$B$2:$B$131,0))</f>
         <v>11</v>
       </c>
-      <c r="J53" t="e">
+      <c r="J53">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A53,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="K53" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A53,'w14'!$B$2:$B$131,0))</f>
@@ -18598,9 +18605,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A54,'w12'!$B$2:$B$131,0))</f>
         <v>55</v>
       </c>
-      <c r="J54" t="e">
+      <c r="J54">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A54,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>49</v>
       </c>
       <c r="K54" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A54,'w14'!$B$2:$B$131,0))</f>
@@ -18659,9 +18666,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A55,'w12'!$B$2:$B$131,0))</f>
         <v>81</v>
       </c>
-      <c r="J55" t="e">
+      <c r="J55">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A55,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>88</v>
       </c>
       <c r="K55" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A55,'w14'!$B$2:$B$131,0))</f>
@@ -18720,9 +18727,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A56,'w12'!$B$2:$B$131,0))</f>
         <v>76</v>
       </c>
-      <c r="J56" t="e">
+      <c r="J56">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A56,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
       <c r="K56" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A56,'w14'!$B$2:$B$131,0))</f>
@@ -18781,9 +18788,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A57,'w12'!$B$2:$B$131,0))</f>
         <v>87</v>
       </c>
-      <c r="J57" t="e">
+      <c r="J57">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A57,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>76</v>
       </c>
       <c r="K57" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A57,'w14'!$B$2:$B$131,0))</f>
@@ -18842,9 +18849,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A58,'w12'!$B$2:$B$131,0))</f>
         <v>83</v>
       </c>
-      <c r="J58" t="e">
+      <c r="J58">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A58,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>68</v>
       </c>
       <c r="K58" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A58,'w14'!$B$2:$B$131,0))</f>
@@ -18903,9 +18910,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A59,'w12'!$B$2:$B$131,0))</f>
         <v>35</v>
       </c>
-      <c r="J59" t="e">
+      <c r="J59">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A59,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>56</v>
       </c>
       <c r="K59" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A59,'w14'!$B$2:$B$131,0))</f>
@@ -18964,9 +18971,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A60,'w12'!$B$2:$B$131,0))</f>
         <v>5</v>
       </c>
-      <c r="J60" t="e">
+      <c r="J60">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A60,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="K60" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A60,'w14'!$B$2:$B$131,0))</f>
@@ -19025,9 +19032,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A61,'w12'!$B$2:$B$131,0))</f>
         <v>47</v>
       </c>
-      <c r="J61" t="e">
+      <c r="J61">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A61,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>57</v>
       </c>
       <c r="K61" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A61,'w14'!$B$2:$B$131,0))</f>
@@ -19086,9 +19093,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A62,'w12'!$B$2:$B$131,0))</f>
         <v>86</v>
       </c>
-      <c r="J62" t="e">
+      <c r="J62">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A62,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>95</v>
       </c>
       <c r="K62" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A62,'w14'!$B$2:$B$131,0))</f>
@@ -19147,9 +19154,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A63,'w12'!$B$2:$B$131,0))</f>
         <v>37</v>
       </c>
-      <c r="J63" t="e">
+      <c r="J63">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A63,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>32</v>
       </c>
       <c r="K63" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A63,'w14'!$B$2:$B$131,0))</f>
@@ -19208,9 +19215,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A64,'w12'!$B$2:$B$131,0))</f>
         <v>36</v>
       </c>
-      <c r="J64" t="e">
+      <c r="J64">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A64,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>28</v>
       </c>
       <c r="K64" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A64,'w14'!$B$2:$B$131,0))</f>
@@ -19269,9 +19276,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A65,'w12'!$B$2:$B$131,0))</f>
         <v>108</v>
       </c>
-      <c r="J65" t="e">
+      <c r="J65">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A65,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>106</v>
       </c>
       <c r="K65" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A65,'w14'!$B$2:$B$131,0))</f>
@@ -19330,9 +19337,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A66,'w12'!$B$2:$B$131,0))</f>
         <v>34</v>
       </c>
-      <c r="J66" t="e">
+      <c r="J66">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A66,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>34</v>
       </c>
       <c r="K66" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A66,'w14'!$B$2:$B$131,0))</f>
@@ -19391,9 +19398,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A67,'w12'!$B$2:$B$131,0))</f>
         <v>101</v>
       </c>
-      <c r="J67" t="e">
+      <c r="J67">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A67,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>92</v>
       </c>
       <c r="K67" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A67,'w14'!$B$2:$B$131,0))</f>
@@ -19452,9 +19459,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A68,'w12'!$B$2:$B$131,0))</f>
         <v>60</v>
       </c>
-      <c r="J68" t="e">
+      <c r="J68">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A68,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>53</v>
       </c>
       <c r="K68" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A68,'w14'!$B$2:$B$131,0))</f>
@@ -19513,9 +19520,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A69,'w12'!$B$2:$B$131,0))</f>
         <v>103</v>
       </c>
-      <c r="J69" t="e">
+      <c r="J69">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A69,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>108</v>
       </c>
       <c r="K69" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A69,'w14'!$B$2:$B$131,0))</f>
@@ -19574,9 +19581,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A70,'w12'!$B$2:$B$131,0))</f>
         <v>106</v>
       </c>
-      <c r="J70" t="e">
+      <c r="J70">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A70,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>111</v>
       </c>
       <c r="K70" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A70,'w14'!$B$2:$B$131,0))</f>
@@ -19635,9 +19642,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A71,'w12'!$B$2:$B$131,0))</f>
         <v>127</v>
       </c>
-      <c r="J71" t="e">
+      <c r="J71">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A71,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>121</v>
       </c>
       <c r="K71" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A71,'w14'!$B$2:$B$131,0))</f>
@@ -19696,9 +19703,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A72,'w12'!$B$2:$B$131,0))</f>
         <v>43</v>
       </c>
-      <c r="J72" t="e">
+      <c r="J72">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A72,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>39</v>
       </c>
       <c r="K72" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A72,'w14'!$B$2:$B$131,0))</f>
@@ -19757,9 +19764,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A73,'w12'!$B$2:$B$131,0))</f>
         <v>44</v>
       </c>
-      <c r="J73" t="e">
+      <c r="J73">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A73,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>55</v>
       </c>
       <c r="K73" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A73,'w14'!$B$2:$B$131,0))</f>
@@ -19818,9 +19825,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A74,'w12'!$B$2:$B$131,0))</f>
         <v>30</v>
       </c>
-      <c r="J74" t="e">
+      <c r="J74">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A74,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>25</v>
       </c>
       <c r="K74" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A74,'w14'!$B$2:$B$131,0))</f>
@@ -19879,9 +19886,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A75,'w12'!$B$2:$B$131,0))</f>
         <v>3</v>
       </c>
-      <c r="J75" t="e">
+      <c r="J75">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A75,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="K75" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A75,'w14'!$B$2:$B$131,0))</f>
@@ -19940,9 +19947,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A76,'w12'!$B$2:$B$131,0))</f>
         <v>59</v>
       </c>
-      <c r="J76" t="e">
+      <c r="J76">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A76,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>48</v>
       </c>
       <c r="K76" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A76,'w14'!$B$2:$B$131,0))</f>
@@ -20001,9 +20008,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A77,'w12'!$B$2:$B$131,0))</f>
         <v>10</v>
       </c>
-      <c r="J77" t="e">
+      <c r="J77">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A77,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="K77" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A77,'w14'!$B$2:$B$131,0))</f>
@@ -20062,9 +20069,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A78,'w12'!$B$2:$B$131,0))</f>
         <v>6</v>
       </c>
-      <c r="J78" t="e">
+      <c r="J78">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A78,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="K78" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A78,'w14'!$B$2:$B$131,0))</f>
@@ -20123,9 +20130,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A79,'w12'!$B$2:$B$131,0))</f>
         <v>85</v>
       </c>
-      <c r="J79" t="e">
+      <c r="J79">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A79,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>66</v>
       </c>
       <c r="K79" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A79,'w14'!$B$2:$B$131,0))</f>
@@ -20184,9 +20191,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A80,'w12'!$B$2:$B$131,0))</f>
         <v>102</v>
       </c>
-      <c r="J80" t="e">
+      <c r="J80">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A80,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>98</v>
       </c>
       <c r="K80" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A80,'w14'!$B$2:$B$131,0))</f>
@@ -20245,9 +20252,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A81,'w12'!$B$2:$B$131,0))</f>
         <v>84</v>
       </c>
-      <c r="J81" t="e">
+      <c r="J81">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A81,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>93</v>
       </c>
       <c r="K81" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A81,'w14'!$B$2:$B$131,0))</f>
@@ -20306,9 +20313,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A82,'w12'!$B$2:$B$131,0))</f>
         <v>61</v>
       </c>
-      <c r="J82" t="e">
+      <c r="J82">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A82,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
       <c r="K82" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A82,'w14'!$B$2:$B$131,0))</f>
@@ -20367,9 +20374,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A83,'w12'!$B$2:$B$131,0))</f>
         <v>119</v>
       </c>
-      <c r="J83" t="e">
+      <c r="J83">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A83,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>123</v>
       </c>
       <c r="K83" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A83,'w14'!$B$2:$B$131,0))</f>
@@ -20428,9 +20435,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A84,'w12'!$B$2:$B$131,0))</f>
         <v>15</v>
       </c>
-      <c r="J84" t="e">
+      <c r="J84">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A84,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>14</v>
       </c>
       <c r="K84" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A84,'w14'!$B$2:$B$131,0))</f>
@@ -20489,9 +20496,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A85,'w12'!$B$2:$B$131,0))</f>
         <v>26</v>
       </c>
-      <c r="J85" t="e">
+      <c r="J85">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A85,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>21</v>
       </c>
       <c r="K85" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A85,'w14'!$B$2:$B$131,0))</f>
@@ -20550,9 +20557,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A86,'w12'!$B$2:$B$131,0))</f>
         <v>54</v>
       </c>
-      <c r="J86" t="e">
+      <c r="J86">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A86,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
       <c r="K86" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A86,'w14'!$B$2:$B$131,0))</f>
@@ -20611,9 +20618,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A87,'w12'!$B$2:$B$131,0))</f>
         <v>128</v>
       </c>
-      <c r="J87" t="e">
+      <c r="J87">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A87,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>127</v>
       </c>
       <c r="K87" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A87,'w14'!$B$2:$B$131,0))</f>
@@ -20672,9 +20679,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A88,'w12'!$B$2:$B$131,0))</f>
         <v>130</v>
       </c>
-      <c r="J88" t="e">
+      <c r="J88">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A88,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>130</v>
       </c>
       <c r="K88" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A88,'w14'!$B$2:$B$131,0))</f>
@@ -20733,9 +20740,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A89,'w12'!$B$2:$B$131,0))</f>
         <v>42</v>
       </c>
-      <c r="J89" t="e">
+      <c r="J89">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A89,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>54</v>
       </c>
       <c r="K89" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A89,'w14'!$B$2:$B$131,0))</f>
@@ -20794,9 +20801,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A90,'w12'!$B$2:$B$131,0))</f>
         <v>117</v>
       </c>
-      <c r="J90" t="e">
+      <c r="J90">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A90,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>119</v>
       </c>
       <c r="K90" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A90,'w14'!$B$2:$B$131,0))</f>
@@ -20855,9 +20862,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A91,'w12'!$B$2:$B$131,0))</f>
         <v>69</v>
       </c>
-      <c r="J91" t="e">
+      <c r="J91">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A91,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>80</v>
       </c>
       <c r="K91" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A91,'w14'!$B$2:$B$131,0))</f>
@@ -20916,9 +20923,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A92,'w12'!$B$2:$B$131,0))</f>
         <v>115</v>
       </c>
-      <c r="J92" t="e">
+      <c r="J92">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A92,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>117</v>
       </c>
       <c r="K92" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A92,'w14'!$B$2:$B$131,0))</f>
@@ -20977,9 +20984,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A93,'w12'!$B$2:$B$131,0))</f>
         <v>49</v>
       </c>
-      <c r="J93" t="e">
+      <c r="J93">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A93,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>46</v>
       </c>
       <c r="K93" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A93,'w14'!$B$2:$B$131,0))</f>
@@ -21038,9 +21045,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A94,'w12'!$B$2:$B$131,0))</f>
         <v>46</v>
       </c>
-      <c r="J94" t="e">
+      <c r="J94">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A94,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>58</v>
       </c>
       <c r="K94" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A94,'w14'!$B$2:$B$131,0))</f>
@@ -21099,9 +21106,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A95,'w12'!$B$2:$B$131,0))</f>
         <v>88</v>
       </c>
-      <c r="J95" t="e">
+      <c r="J95">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A95,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>75</v>
       </c>
       <c r="K95" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A95,'w14'!$B$2:$B$131,0))</f>
@@ -21160,9 +21167,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A96,'w12'!$B$2:$B$131,0))</f>
         <v>41</v>
       </c>
-      <c r="J96" t="e">
+      <c r="J96">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A96,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>44</v>
       </c>
       <c r="K96" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A96,'w14'!$B$2:$B$131,0))</f>
@@ -21221,9 +21228,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A97,'w12'!$B$2:$B$131,0))</f>
         <v>17</v>
       </c>
-      <c r="J97" t="e">
+      <c r="J97">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A97,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>23</v>
       </c>
       <c r="K97" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A97,'w14'!$B$2:$B$131,0))</f>
@@ -21282,9 +21289,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A98,'w12'!$B$2:$B$131,0))</f>
         <v>94</v>
       </c>
-      <c r="J98" t="e">
+      <c r="J98">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A98,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>81</v>
       </c>
       <c r="K98" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A98,'w14'!$B$2:$B$131,0))</f>
@@ -21343,9 +21350,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A99,'w12'!$B$2:$B$131,0))</f>
         <v>32</v>
       </c>
-      <c r="J99" t="e">
+      <c r="J99">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A99,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>29</v>
       </c>
       <c r="K99" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A99,'w14'!$B$2:$B$131,0))</f>
@@ -21404,9 +21411,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A100,'w12'!$B$2:$B$131,0))</f>
         <v>62</v>
       </c>
-      <c r="J100" t="e">
+      <c r="J100">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A100,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>71</v>
       </c>
       <c r="K100" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A100,'w14'!$B$2:$B$131,0))</f>
@@ -21465,9 +21472,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A101,'w12'!$B$2:$B$131,0))</f>
         <v>40</v>
       </c>
-      <c r="J101" t="e">
+      <c r="J101">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A101,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>33</v>
       </c>
       <c r="K101" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A101,'w14'!$B$2:$B$131,0))</f>
@@ -21526,9 +21533,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A102,'w12'!$B$2:$B$131,0))</f>
         <v>18</v>
       </c>
-      <c r="J102" t="e">
+      <c r="J102">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A102,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="K102" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A102,'w14'!$B$2:$B$131,0))</f>
@@ -21587,9 +21594,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A103,'w12'!$B$2:$B$131,0))</f>
         <v>110</v>
       </c>
-      <c r="J103" t="e">
+      <c r="J103">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A103,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>110</v>
       </c>
       <c r="K103" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A103,'w14'!$B$2:$B$131,0))</f>
@@ -21648,9 +21655,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A104,'w12'!$B$2:$B$131,0))</f>
         <v>68</v>
       </c>
-      <c r="J104" t="e">
+      <c r="J104">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A104,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>85</v>
       </c>
       <c r="K104" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A104,'w14'!$B$2:$B$131,0))</f>
@@ -21709,9 +21716,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A105,'w12'!$B$2:$B$131,0))</f>
         <v>78</v>
       </c>
-      <c r="J105" t="e">
+      <c r="J105">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A105,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>67</v>
       </c>
       <c r="K105" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A105,'w14'!$B$2:$B$131,0))</f>
@@ -21770,9 +21777,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A106,'w12'!$B$2:$B$131,0))</f>
         <v>24</v>
       </c>
-      <c r="J106" t="e">
+      <c r="J106">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A106,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>20</v>
       </c>
       <c r="K106" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A106,'w14'!$B$2:$B$131,0))</f>
@@ -21831,9 +21838,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A107,'w12'!$B$2:$B$131,0))</f>
         <v>64</v>
       </c>
-      <c r="J107" t="e">
+      <c r="J107">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A107,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>77</v>
       </c>
       <c r="K107" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A107,'w14'!$B$2:$B$131,0))</f>
@@ -21892,9 +21899,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A108,'w12'!$B$2:$B$131,0))</f>
         <v>124</v>
       </c>
-      <c r="J108" t="e">
+      <c r="J108">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A108,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>126</v>
       </c>
       <c r="K108" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A108,'w14'!$B$2:$B$131,0))</f>
@@ -21953,9 +21960,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A109,'w12'!$B$2:$B$131,0))</f>
         <v>13</v>
       </c>
-      <c r="J109" t="e">
+      <c r="J109">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A109,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>30</v>
       </c>
       <c r="K109" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A109,'w14'!$B$2:$B$131,0))</f>
@@ -22014,9 +22021,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A110,'w12'!$B$2:$B$131,0))</f>
         <v>9</v>
       </c>
-      <c r="J110" t="e">
+      <c r="J110">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A110,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="K110" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A110,'w14'!$B$2:$B$131,0))</f>
@@ -22075,9 +22082,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A111,'w12'!$B$2:$B$131,0))</f>
         <v>109</v>
       </c>
-      <c r="J111" t="e">
+      <c r="J111">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A111,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>102</v>
       </c>
       <c r="K111" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A111,'w14'!$B$2:$B$131,0))</f>
@@ -22136,9 +22143,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A112,'w12'!$B$2:$B$131,0))</f>
         <v>126</v>
       </c>
-      <c r="J112" t="e">
+      <c r="J112">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A112,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>129</v>
       </c>
       <c r="K112" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A112,'w14'!$B$2:$B$131,0))</f>
@@ -22197,9 +22204,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A113,'w12'!$B$2:$B$131,0))</f>
         <v>71</v>
       </c>
-      <c r="J113" t="e">
+      <c r="J113">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A113,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>79</v>
       </c>
       <c r="K113" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A113,'w14'!$B$2:$B$131,0))</f>
@@ -22258,9 +22265,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A114,'w12'!$B$2:$B$131,0))</f>
         <v>100</v>
       </c>
-      <c r="J114" t="e">
+      <c r="J114">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A114,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>104</v>
       </c>
       <c r="K114" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A114,'w14'!$B$2:$B$131,0))</f>
@@ -22319,9 +22326,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A115,'w12'!$B$2:$B$131,0))</f>
         <v>105</v>
       </c>
-      <c r="J115" t="e">
+      <c r="J115">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A115,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>109</v>
       </c>
       <c r="K115" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A115,'w14'!$B$2:$B$131,0))</f>
@@ -22380,9 +22387,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A116,'w12'!$B$2:$B$131,0))</f>
         <v>72</v>
       </c>
-      <c r="J116" t="e">
+      <c r="J116">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A116,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
       <c r="K116" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A116,'w14'!$B$2:$B$131,0))</f>
@@ -22441,9 +22448,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A117,'w12'!$B$2:$B$131,0))</f>
         <v>16</v>
       </c>
-      <c r="J117" t="e">
+      <c r="J117">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A117,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="K117" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A117,'w14'!$B$2:$B$131,0))</f>
@@ -22502,9 +22509,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A118,'w12'!$B$2:$B$131,0))</f>
         <v>21</v>
       </c>
-      <c r="J118" t="e">
+      <c r="J118">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A118,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>15</v>
       </c>
       <c r="K118" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A118,'w14'!$B$2:$B$131,0))</f>
@@ -22563,9 +22570,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A119,'w12'!$B$2:$B$131,0))</f>
         <v>120</v>
       </c>
-      <c r="J119" t="e">
+      <c r="J119">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A119,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>125</v>
       </c>
       <c r="K119" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A119,'w14'!$B$2:$B$131,0))</f>
@@ -22624,9 +22631,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A120,'w12'!$B$2:$B$131,0))</f>
         <v>113</v>
       </c>
-      <c r="J120" t="e">
+      <c r="J120">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A120,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>112</v>
       </c>
       <c r="K120" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A120,'w14'!$B$2:$B$131,0))</f>
@@ -22685,9 +22692,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A121,'w12'!$B$2:$B$131,0))</f>
         <v>97</v>
       </c>
-      <c r="J121" t="e">
+      <c r="J121">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A121,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>82</v>
       </c>
       <c r="K121" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A121,'w14'!$B$2:$B$131,0))</f>
@@ -22746,9 +22753,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A122,'w12'!$B$2:$B$131,0))</f>
         <v>38</v>
       </c>
-      <c r="J122" t="e">
+      <c r="J122">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A122,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>52</v>
       </c>
       <c r="K122" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A122,'w14'!$B$2:$B$131,0))</f>
@@ -22807,9 +22814,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A123,'w12'!$B$2:$B$131,0))</f>
         <v>91</v>
       </c>
-      <c r="J123" t="e">
+      <c r="J123">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A123,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>97</v>
       </c>
       <c r="K123" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A123,'w14'!$B$2:$B$131,0))</f>
@@ -22868,9 +22875,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A124,'w12'!$B$2:$B$131,0))</f>
         <v>73</v>
       </c>
-      <c r="J124" t="e">
+      <c r="J124">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A124,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>87</v>
       </c>
       <c r="K124" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A124,'w14'!$B$2:$B$131,0))</f>
@@ -22929,9 +22936,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A125,'w12'!$B$2:$B$131,0))</f>
         <v>27</v>
       </c>
-      <c r="J125" t="e">
+      <c r="J125">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A125,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>24</v>
       </c>
       <c r="K125" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A125,'w14'!$B$2:$B$131,0))</f>
@@ -22990,9 +22997,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A126,'w12'!$B$2:$B$131,0))</f>
         <v>7</v>
       </c>
-      <c r="J126" t="e">
+      <c r="J126">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A126,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="K126" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A126,'w14'!$B$2:$B$131,0))</f>
@@ -23051,9 +23058,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A127,'w12'!$B$2:$B$131,0))</f>
         <v>8</v>
       </c>
-      <c r="J127" t="e">
+      <c r="J127">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A127,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="K127" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A127,'w14'!$B$2:$B$131,0))</f>
@@ -23112,9 +23119,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A128,'w12'!$B$2:$B$131,0))</f>
         <v>125</v>
       </c>
-      <c r="J128" t="e">
+      <c r="J128">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A128,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>118</v>
       </c>
       <c r="K128" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A128,'w14'!$B$2:$B$131,0))</f>
@@ -23173,9 +23180,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A129,'w12'!$B$2:$B$131,0))</f>
         <v>67</v>
       </c>
-      <c r="J129" t="e">
+      <c r="J129">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A129,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>73</v>
       </c>
       <c r="K129" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A129,'w14'!$B$2:$B$131,0))</f>
@@ -23234,9 +23241,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A130,'w12'!$B$2:$B$131,0))</f>
         <v>56</v>
       </c>
-      <c r="J130" t="e">
+      <c r="J130">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A130,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>43</v>
       </c>
       <c r="K130" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A130,'w14'!$B$2:$B$131,0))</f>
@@ -23295,9 +23302,9 @@
         <f>INDEX('w12'!$A$2:$A$131,MATCH($A131,'w12'!$B$2:$B$131,0))</f>
         <v>95</v>
       </c>
-      <c r="J131" t="e">
+      <c r="J131">
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A131,'w13'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>83</v>
       </c>
       <c r="K131" t="e">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A131,'w14'!$B$2:$B$131,0))</f>
@@ -23330,6 +23337,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24036,6 +24044,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24726,6 +24735,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25416,6 +25426,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26237,10 +26248,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26274,781 +26286,2601 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.972318312000097</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.94953327279941102</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.88516925307817296</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.88316547640135201</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.84349808858226805</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.83124925117183701</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.81729942611642603</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.80100575849898004</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.74731800788629499</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.69707092583739105</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.68140248703433703</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.67611330230428202</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.67208250299156302</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.671121170103263</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.67007393548088201</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.652170797643009</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.65180877724088904</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.64568059252366605</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.64111846890615498</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.63667582451917104</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.63593478666958303</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.63264185909016102</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.63023627726046905</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.62696476262542999</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.62645670510942797</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.62539145278579</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.62129549813257401</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.61771237099950704</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.61008373877674205</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.60728093433091501</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.58969499135400205</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.58778457344831503</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.58308670676080798</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.58111481620778205</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.564175760780251</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.56227475790458403</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.55903557098324397</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.55221733955247398</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.550952726051121</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.54563015129203296</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.54300573250349904</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.54215700504062303</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.53544975431770703</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.52529193675166097</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.52377878312153303</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.52127563491879603</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.52062199854258595</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.51831086696095996</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.51278242382199202</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.50899451978597698</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.505719589078098</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.49297888717011301</v>
+      </c>
+      <c r="E54">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.49266510838199201</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.48934368575595899</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.48430747788342698</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.47950164663042699</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.47356067936856899</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.47146083605799799</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.46946414148340498</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.46801730965767102</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.46277913689337002</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.45680725833825803</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.453869335713808</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.44899364865535701</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.44021989177547899</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.43706693986362</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.43650728714991699</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.43429492173277201</v>
+      </c>
+      <c r="E70">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.43233817854662898</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.406891102096752</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.40242112912705302</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.40156936052616099</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.40144729841129201</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.40132813579239401</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.39741737394649501</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.39620058546489301</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.39476121067621001</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0.39470055455359998</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.39198269367508198</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.38664562143614001</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.38010175897756399</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.37407455670622503</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.37141426915287801</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.36974605914338499</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.36745595723943297</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.36705227741244301</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.36566976773870802</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.361323023347774</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.34898966729616798</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.34501785772906401</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.33657899135200298</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.32213083625629702</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.31941697468256702</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>80</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.316524560813845</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.30310507690079802</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0.301416370454269</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.29767637892279702</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.29240750316236602</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.29039568621654599</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0.28515293091550897</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.27242306045798997</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.26651492082292999</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.25703010085080202</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.25690127532830498</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0.25222740446952302</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0.23101473777141701</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.22107398663865599</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0.204596621787246</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>159</v>
+      </c>
+      <c r="C111" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0.19996765562253099</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0.192146515197441</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0.18409066557263401</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0.17470379732323099</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>101</v>
+      </c>
+      <c r="C115" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0.17327737861568299</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>95</v>
+      </c>
+      <c r="C116" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0.16620727430214999</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" t="s">
+        <v>72</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.16121230926023999</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" t="s">
+        <v>72</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0.159806803583977</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0.14287312222225301</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>155</v>
+      </c>
+      <c r="C120" t="s">
+        <v>59</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0.133598442804025</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0.11729169412717</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" t="s">
+        <v>35</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0.117015508804052</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="4">
+        <v>9.9567275221990603E-2</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" t="s">
+        <v>31</v>
+      </c>
+      <c r="D124" s="4">
+        <v>9.8586195766302606E-2</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" s="4">
+        <v>8.6856234824513004E-2</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="4">
+        <v>7.9430567319714304E-2</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>147</v>
+      </c>
+      <c r="C127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" s="4">
+        <v>7.8521558669051306E-2</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="4">
+        <v>5.21011994850792E-2</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>154</v>
+      </c>
+      <c r="C129" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" s="4">
+        <v>4.7212792842844097E-2</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" s="4">
+        <v>2.3833231989839099E-2</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="D131" s="4"/>
+      <c r="B131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F132" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
@@ -27058,9 +28890,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
@@ -29699,6 +31532,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
@@ -32340,6 +34174,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/rankings_75.xlsx
+++ b/rankings_75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Python\CFB Rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9D9EE042-C870-4583-B186-2FD105C2D4FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C4E25EB9-5233-4EF0-BD72-B851E05D2DF9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="15960" tabRatio="719" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="post champ" sheetId="20" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="161">
   <si>
     <t>Team</t>
   </si>
@@ -15437,13 +15437,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A2,'w13'!$B$2:$B$131,0))</f>
         <v>94</v>
       </c>
-      <c r="K2" t="e">
+      <c r="K2">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A2,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L2" t="e">
+        <v>85</v>
+      </c>
+      <c r="L2">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A2,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>86</v>
       </c>
       <c r="M2" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A2,armynavy!$B$2:$B$131,0))</f>
@@ -15498,13 +15498,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A3,'w13'!$B$2:$B$131,0))</f>
         <v>96</v>
       </c>
-      <c r="K3" t="e">
+      <c r="K3">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A3,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L3" t="e">
+        <v>98</v>
+      </c>
+      <c r="L3">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A3,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>105</v>
       </c>
       <c r="M3" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A3,armynavy!$B$2:$B$131,0))</f>
@@ -15559,13 +15559,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A4,'w13'!$B$2:$B$131,0))</f>
         <v>3</v>
       </c>
-      <c r="K4" t="e">
+      <c r="K4">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A4,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L4" t="e">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A4,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="M4" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A4,armynavy!$B$2:$B$131,0))</f>
@@ -15620,13 +15620,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A5,'w13'!$B$2:$B$131,0))</f>
         <v>31</v>
       </c>
-      <c r="K5" t="e">
+      <c r="K5">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A5,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L5" t="e">
+        <v>24</v>
+      </c>
+      <c r="L5">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A5,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>17</v>
       </c>
       <c r="M5" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A5,armynavy!$B$2:$B$131,0))</f>
@@ -15681,13 +15681,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A6,'w13'!$B$2:$B$131,0))</f>
         <v>61</v>
       </c>
-      <c r="K6" t="e">
+      <c r="K6">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A6,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L6" t="e">
+        <v>48</v>
+      </c>
+      <c r="L6">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A6,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>46</v>
       </c>
       <c r="M6" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A6,armynavy!$B$2:$B$131,0))</f>
@@ -15742,13 +15742,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A7,'w13'!$B$2:$B$131,0))</f>
         <v>78</v>
       </c>
-      <c r="K7" t="e">
+      <c r="K7">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A7,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L7" t="e">
+        <v>86</v>
+      </c>
+      <c r="L7">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A7,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>87</v>
       </c>
       <c r="M7" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A7,armynavy!$B$2:$B$131,0))</f>
@@ -15803,13 +15803,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A8,'w13'!$B$2:$B$131,0))</f>
         <v>122</v>
       </c>
-      <c r="K8" t="e">
+      <c r="K8">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A8,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" t="e">
+        <v>125</v>
+      </c>
+      <c r="L8">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A8,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>125</v>
       </c>
       <c r="M8" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A8,armynavy!$B$2:$B$131,0))</f>
@@ -15864,13 +15864,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A9,'w13'!$B$2:$B$131,0))</f>
         <v>51</v>
       </c>
-      <c r="K9" t="e">
+      <c r="K9">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A9,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" t="e">
+        <v>43</v>
+      </c>
+      <c r="L9">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A9,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>42</v>
       </c>
       <c r="M9" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A9,armynavy!$B$2:$B$131,0))</f>
@@ -15925,13 +15925,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A10,'w13'!$B$2:$B$131,0))</f>
         <v>26</v>
       </c>
-      <c r="K10" t="e">
+      <c r="K10">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A10,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" t="e">
+        <v>30</v>
+      </c>
+      <c r="L10">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A10,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>29</v>
       </c>
       <c r="M10" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A10,armynavy!$B$2:$B$131,0))</f>
@@ -15986,13 +15986,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A11,'w13'!$B$2:$B$131,0))</f>
         <v>42</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K11">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A11,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" t="e">
+        <v>47</v>
+      </c>
+      <c r="L11">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A11,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
       <c r="M11" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A11,armynavy!$B$2:$B$131,0))</f>
@@ -16047,13 +16047,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A12,'w13'!$B$2:$B$131,0))</f>
         <v>103</v>
       </c>
-      <c r="K12" t="e">
+      <c r="K12">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A12,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" t="e">
+        <v>106</v>
+      </c>
+      <c r="L12">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A12,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>104</v>
       </c>
       <c r="M12" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A12,armynavy!$B$2:$B$131,0))</f>
@@ -16108,13 +16108,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A13,'w13'!$B$2:$B$131,0))</f>
         <v>91</v>
       </c>
-      <c r="K13" t="e">
+      <c r="K13">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A13,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" t="e">
+        <v>78</v>
+      </c>
+      <c r="L13">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A13,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>79</v>
       </c>
       <c r="M13" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A13,armynavy!$B$2:$B$131,0))</f>
@@ -16169,13 +16169,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A14,'w13'!$B$2:$B$131,0))</f>
         <v>17</v>
       </c>
-      <c r="K14" t="e">
+      <c r="K14">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A14,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" t="e">
+        <v>14</v>
+      </c>
+      <c r="L14">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A14,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>21</v>
       </c>
       <c r="M14" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A14,armynavy!$B$2:$B$131,0))</f>
@@ -16230,13 +16230,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A15,'w13'!$B$2:$B$131,0))</f>
         <v>47</v>
       </c>
-      <c r="K15" t="e">
+      <c r="K15">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A15,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" t="e">
+        <v>57</v>
+      </c>
+      <c r="L15">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A15,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>57</v>
       </c>
       <c r="M15" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A15,armynavy!$B$2:$B$131,0))</f>
@@ -16291,13 +16291,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A16,'w13'!$B$2:$B$131,0))</f>
         <v>113</v>
       </c>
-      <c r="K16" t="e">
+      <c r="K16">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A16,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" t="e">
+        <v>115</v>
+      </c>
+      <c r="L16">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A16,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>115</v>
       </c>
       <c r="M16" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A16,armynavy!$B$2:$B$131,0))</f>
@@ -16352,13 +16352,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A17,'w13'!$B$2:$B$131,0))</f>
         <v>27</v>
       </c>
-      <c r="K17" t="e">
+      <c r="K17">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A17,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" t="e">
+        <v>23</v>
+      </c>
+      <c r="L17">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A17,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>33</v>
       </c>
       <c r="M17" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A17,armynavy!$B$2:$B$131,0))</f>
@@ -16413,13 +16413,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A18,'w13'!$B$2:$B$131,0))</f>
         <v>59</v>
       </c>
-      <c r="K18" t="e">
+      <c r="K18">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A18,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" t="e">
+        <v>71</v>
+      </c>
+      <c r="L18">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A18,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>72</v>
       </c>
       <c r="M18" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A18,armynavy!$B$2:$B$131,0))</f>
@@ -16474,13 +16474,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A19,'w13'!$B$2:$B$131,0))</f>
         <v>64</v>
       </c>
-      <c r="K19" t="e">
+      <c r="K19">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A19,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" t="e">
+        <v>51</v>
+      </c>
+      <c r="L19">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A19,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>63</v>
       </c>
       <c r="M19" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A19,armynavy!$B$2:$B$131,0))</f>
@@ -16535,13 +16535,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A20,'w13'!$B$2:$B$131,0))</f>
         <v>128</v>
       </c>
-      <c r="K20" t="e">
+      <c r="K20">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A20,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" t="e">
+        <v>128</v>
+      </c>
+      <c r="L20">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A20,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>128</v>
       </c>
       <c r="M20" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A20,armynavy!$B$2:$B$131,0))</f>
@@ -16596,13 +16596,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A21,'w13'!$B$2:$B$131,0))</f>
         <v>101</v>
       </c>
-      <c r="K21" t="e">
+      <c r="K21">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A21,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" t="e">
+        <v>92</v>
+      </c>
+      <c r="L21">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A21,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>92</v>
       </c>
       <c r="M21" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A21,armynavy!$B$2:$B$131,0))</f>
@@ -16657,13 +16657,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A22,'w13'!$B$2:$B$131,0))</f>
         <v>16</v>
       </c>
-      <c r="K22" t="e">
+      <c r="K22">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A22,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" t="e">
+        <v>13</v>
+      </c>
+      <c r="L22">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A22,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="M22" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A22,armynavy!$B$2:$B$131,0))</f>
@@ -16718,13 +16718,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A23,'w13'!$B$2:$B$131,0))</f>
         <v>1</v>
       </c>
-      <c r="K23" t="e">
+      <c r="K23">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A23,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L23" t="e">
+        <v>1</v>
+      </c>
+      <c r="L23">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A23,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="M23" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A23,armynavy!$B$2:$B$131,0))</f>
@@ -16779,13 +16779,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A24,'w13'!$B$2:$B$131,0))</f>
         <v>86</v>
       </c>
-      <c r="K24" t="e">
+      <c r="K24">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A24,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L24" t="e">
+        <v>94</v>
+      </c>
+      <c r="L24">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A24,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>94</v>
       </c>
       <c r="M24" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A24,armynavy!$B$2:$B$131,0))</f>
@@ -16840,13 +16840,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A25,'w13'!$B$2:$B$131,0))</f>
         <v>99</v>
       </c>
-      <c r="K25" t="e">
+      <c r="K25">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A25,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L25" t="e">
+        <v>101</v>
+      </c>
+      <c r="L25">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A25,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
       <c r="M25" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A25,armynavy!$B$2:$B$131,0))</f>
@@ -16901,13 +16901,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A26,'w13'!$B$2:$B$131,0))</f>
         <v>107</v>
       </c>
-      <c r="K26" t="e">
+      <c r="K26">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A26,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L26" t="e">
+        <v>110</v>
+      </c>
+      <c r="L26">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A26,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>109</v>
       </c>
       <c r="M26" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A26,armynavy!$B$2:$B$131,0))</f>
@@ -16962,13 +16962,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A27,'w13'!$B$2:$B$131,0))</f>
         <v>40</v>
       </c>
-      <c r="K27" t="e">
+      <c r="K27">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A27,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L27" t="e">
+        <v>60</v>
+      </c>
+      <c r="L27">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A27,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
       <c r="M27" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A27,armynavy!$B$2:$B$131,0))</f>
@@ -17023,13 +17023,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A28,'w13'!$B$2:$B$131,0))</f>
         <v>105</v>
       </c>
-      <c r="K28" t="e">
+      <c r="K28">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A28,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L28" t="e">
+        <v>105</v>
+      </c>
+      <c r="L28">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A28,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>110</v>
       </c>
       <c r="M28" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A28,armynavy!$B$2:$B$131,0))</f>
@@ -17084,13 +17084,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A29,'w13'!$B$2:$B$131,0))</f>
         <v>63</v>
       </c>
-      <c r="K29" t="e">
+      <c r="K29">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A29,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L29" t="e">
+        <v>58</v>
+      </c>
+      <c r="L29">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A29,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>58</v>
       </c>
       <c r="M29" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A29,armynavy!$B$2:$B$131,0))</f>
@@ -17145,13 +17145,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A30,'w13'!$B$2:$B$131,0))</f>
         <v>72</v>
       </c>
-      <c r="K30" t="e">
+      <c r="K30">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A30,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L30" t="e">
+        <v>84</v>
+      </c>
+      <c r="L30">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A30,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>83</v>
       </c>
       <c r="M30" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A30,armynavy!$B$2:$B$131,0))</f>
@@ -17206,13 +17206,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A31,'w13'!$B$2:$B$131,0))</f>
         <v>19</v>
       </c>
-      <c r="K31" t="e">
+      <c r="K31">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A31,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L31" t="e">
+        <v>17</v>
+      </c>
+      <c r="L31">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A31,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>15</v>
       </c>
       <c r="M31" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A31,armynavy!$B$2:$B$131,0))</f>
@@ -17267,13 +17267,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A32,'w13'!$B$2:$B$131,0))</f>
         <v>50</v>
       </c>
-      <c r="K32" t="e">
+      <c r="K32">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A32,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L32" t="e">
+        <v>55</v>
+      </c>
+      <c r="L32">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A32,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>55</v>
       </c>
       <c r="M32" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A32,armynavy!$B$2:$B$131,0))</f>
@@ -17328,13 +17328,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A33,'w13'!$B$2:$B$131,0))</f>
         <v>74</v>
       </c>
-      <c r="K33" t="e">
+      <c r="K33">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A33,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L33" t="e">
+        <v>83</v>
+      </c>
+      <c r="L33">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A33,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>84</v>
       </c>
       <c r="M33" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A33,armynavy!$B$2:$B$131,0))</f>
@@ -17389,13 +17389,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A34,'w13'!$B$2:$B$131,0))</f>
         <v>18</v>
       </c>
-      <c r="K34" t="e">
+      <c r="K34">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A34,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L34" t="e">
+        <v>19</v>
+      </c>
+      <c r="L34">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A34,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="M34" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A34,armynavy!$B$2:$B$131,0))</f>
@@ -17450,13 +17450,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A35,'w13'!$B$2:$B$131,0))</f>
         <v>5</v>
       </c>
-      <c r="K35" t="e">
+      <c r="K35">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A35,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L35" t="e">
+        <v>4</v>
+      </c>
+      <c r="L35">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A35,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="M35" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A35,armynavy!$B$2:$B$131,0))</f>
@@ -17511,13 +17511,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A36,'w13'!$B$2:$B$131,0))</f>
         <v>35</v>
       </c>
-      <c r="K36" t="e">
+      <c r="K36">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A36,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L36" t="e">
+        <v>33</v>
+      </c>
+      <c r="L36">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A36,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>36</v>
       </c>
       <c r="M36" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A36,armynavy!$B$2:$B$131,0))</f>
@@ -17572,13 +17572,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A37,'w13'!$B$2:$B$131,0))</f>
         <v>116</v>
       </c>
-      <c r="K37" t="e">
+      <c r="K37">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A37,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L37" t="e">
+        <v>117</v>
+      </c>
+      <c r="L37">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A37,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>117</v>
       </c>
       <c r="M37" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A37,armynavy!$B$2:$B$131,0))</f>
@@ -17633,13 +17633,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A38,'w13'!$B$2:$B$131,0))</f>
         <v>37</v>
       </c>
-      <c r="K38" t="e">
+      <c r="K38">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A38,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L38" t="e">
+        <v>44</v>
+      </c>
+      <c r="L38">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A38,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>43</v>
       </c>
       <c r="M38" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A38,armynavy!$B$2:$B$131,0))</f>
@@ -17694,13 +17694,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A39,'w13'!$B$2:$B$131,0))</f>
         <v>65</v>
       </c>
-      <c r="K39" t="e">
+      <c r="K39">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A39,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L39" t="e">
+        <v>54</v>
+      </c>
+      <c r="L39">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A39,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>54</v>
       </c>
       <c r="M39" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A39,armynavy!$B$2:$B$131,0))</f>
@@ -17755,13 +17755,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A40,'w13'!$B$2:$B$131,0))</f>
         <v>38</v>
       </c>
-      <c r="K40" t="e">
+      <c r="K40">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A40,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L40" t="e">
+        <v>49</v>
+      </c>
+      <c r="L40">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A40,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>47</v>
       </c>
       <c r="M40" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A40,armynavy!$B$2:$B$131,0))</f>
@@ -17816,13 +17816,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A41,'w13'!$B$2:$B$131,0))</f>
         <v>114</v>
       </c>
-      <c r="K41" t="e">
+      <c r="K41">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A41,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L41" t="e">
+        <v>116</v>
+      </c>
+      <c r="L41">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A41,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>116</v>
       </c>
       <c r="M41" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A41,armynavy!$B$2:$B$131,0))</f>
@@ -17877,13 +17877,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A42,'w13'!$B$2:$B$131,0))</f>
         <v>89</v>
       </c>
-      <c r="K42" t="e">
+      <c r="K42">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A42,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L42" t="e">
+        <v>96</v>
+      </c>
+      <c r="L42">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A42,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>96</v>
       </c>
       <c r="M42" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A42,armynavy!$B$2:$B$131,0))</f>
@@ -17938,13 +17938,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A43,'w13'!$B$2:$B$131,0))</f>
         <v>41</v>
       </c>
-      <c r="K43" t="e">
+      <c r="K43">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A43,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L43" t="e">
+        <v>35</v>
+      </c>
+      <c r="L43">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A43,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>37</v>
       </c>
       <c r="M43" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A43,armynavy!$B$2:$B$131,0))</f>
@@ -17999,13 +17999,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A44,'w13'!$B$2:$B$131,0))</f>
         <v>36</v>
       </c>
-      <c r="K44" t="e">
+      <c r="K44">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A44,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L44" t="e">
+        <v>34</v>
+      </c>
+      <c r="L44">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A44,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>32</v>
       </c>
       <c r="M44" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A44,armynavy!$B$2:$B$131,0))</f>
@@ -18060,13 +18060,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A45,'w13'!$B$2:$B$131,0))</f>
         <v>115</v>
       </c>
-      <c r="K45" t="e">
+      <c r="K45">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A45,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L45" t="e">
+        <v>118</v>
+      </c>
+      <c r="L45">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A45,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>118</v>
       </c>
       <c r="M45" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A45,armynavy!$B$2:$B$131,0))</f>
@@ -18121,13 +18121,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A46,'w13'!$B$2:$B$131,0))</f>
         <v>84</v>
       </c>
-      <c r="K46" t="e">
+      <c r="K46">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A46,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L46" t="e">
+        <v>90</v>
+      </c>
+      <c r="L46">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A46,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>91</v>
       </c>
       <c r="M46" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A46,armynavy!$B$2:$B$131,0))</f>
@@ -18182,13 +18182,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A47,'w13'!$B$2:$B$131,0))</f>
         <v>120</v>
       </c>
-      <c r="K47" t="e">
+      <c r="K47">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A47,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L47" t="e">
+        <v>123</v>
+      </c>
+      <c r="L47">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A47,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>122</v>
       </c>
       <c r="M47" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A47,armynavy!$B$2:$B$131,0))</f>
@@ -18243,13 +18243,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A48,'w13'!$B$2:$B$131,0))</f>
         <v>22</v>
       </c>
-      <c r="K48" t="e">
+      <c r="K48">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A48,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L48" t="e">
+        <v>20</v>
+      </c>
+      <c r="L48">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A48,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>18</v>
       </c>
       <c r="M48" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A48,armynavy!$B$2:$B$131,0))</f>
@@ -18304,13 +18304,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A49,'w13'!$B$2:$B$131,0))</f>
         <v>100</v>
       </c>
-      <c r="K49" t="e">
+      <c r="K49">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A49,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L49" t="e">
+        <v>91</v>
+      </c>
+      <c r="L49">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A49,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>85</v>
       </c>
       <c r="M49" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A49,armynavy!$B$2:$B$131,0))</f>
@@ -18365,13 +18365,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A50,'w13'!$B$2:$B$131,0))</f>
         <v>69</v>
       </c>
-      <c r="K50" t="e">
+      <c r="K50">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A50,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L50" t="e">
+        <v>61</v>
+      </c>
+      <c r="L50">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A50,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>69</v>
       </c>
       <c r="M50" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A50,armynavy!$B$2:$B$131,0))</f>
@@ -18426,13 +18426,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A51,'w13'!$B$2:$B$131,0))</f>
         <v>62</v>
       </c>
-      <c r="K51" t="e">
+      <c r="K51">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A51,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L51" t="e">
+        <v>76</v>
+      </c>
+      <c r="L51">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A51,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>77</v>
       </c>
       <c r="M51" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A51,armynavy!$B$2:$B$131,0))</f>
@@ -18487,13 +18487,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A52,'w13'!$B$2:$B$131,0))</f>
         <v>124</v>
       </c>
-      <c r="K52" t="e">
+      <c r="K52">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A52,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L52" t="e">
+        <v>126</v>
+      </c>
+      <c r="L52">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A52,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>126</v>
       </c>
       <c r="M52" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A52,armynavy!$B$2:$B$131,0))</f>
@@ -18548,13 +18548,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A53,'w13'!$B$2:$B$131,0))</f>
         <v>10</v>
       </c>
-      <c r="K53" t="e">
+      <c r="K53">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A53,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L53" t="e">
+        <v>18</v>
+      </c>
+      <c r="L53">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A53,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>16</v>
       </c>
       <c r="M53" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A53,armynavy!$B$2:$B$131,0))</f>
@@ -18609,13 +18609,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A54,'w13'!$B$2:$B$131,0))</f>
         <v>49</v>
       </c>
-      <c r="K54" t="e">
+      <c r="K54">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A54,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L54" t="e">
+        <v>41</v>
+      </c>
+      <c r="L54">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A54,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>51</v>
       </c>
       <c r="M54" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A54,armynavy!$B$2:$B$131,0))</f>
@@ -18670,13 +18670,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A55,'w13'!$B$2:$B$131,0))</f>
         <v>88</v>
       </c>
-      <c r="K55" t="e">
+      <c r="K55">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A55,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L55" t="e">
+        <v>93</v>
+      </c>
+      <c r="L55">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A55,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>93</v>
       </c>
       <c r="M55" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A55,armynavy!$B$2:$B$131,0))</f>
@@ -18731,13 +18731,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A56,'w13'!$B$2:$B$131,0))</f>
         <v>60</v>
       </c>
-      <c r="K56" t="e">
+      <c r="K56">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A56,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L56" t="e">
+        <v>46</v>
+      </c>
+      <c r="L56">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A56,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
       <c r="M56" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A56,armynavy!$B$2:$B$131,0))</f>
@@ -18792,13 +18792,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A57,'w13'!$B$2:$B$131,0))</f>
         <v>76</v>
       </c>
-      <c r="K57" t="e">
+      <c r="K57">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A57,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L57" t="e">
+        <v>73</v>
+      </c>
+      <c r="L57">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A57,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>73</v>
       </c>
       <c r="M57" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A57,armynavy!$B$2:$B$131,0))</f>
@@ -18853,13 +18853,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A58,'w13'!$B$2:$B$131,0))</f>
         <v>68</v>
       </c>
-      <c r="K58" t="e">
+      <c r="K58">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A58,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L58" t="e">
+        <v>52</v>
+      </c>
+      <c r="L58">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A58,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>49</v>
       </c>
       <c r="M58" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A58,armynavy!$B$2:$B$131,0))</f>
@@ -18914,13 +18914,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A59,'w13'!$B$2:$B$131,0))</f>
         <v>56</v>
       </c>
-      <c r="K59" t="e">
+      <c r="K59">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A59,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L59" t="e">
+        <v>50</v>
+      </c>
+      <c r="L59">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A59,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>48</v>
       </c>
       <c r="M59" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A59,armynavy!$B$2:$B$131,0))</f>
@@ -18975,13 +18975,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A60,'w13'!$B$2:$B$131,0))</f>
         <v>4</v>
       </c>
-      <c r="K60" t="e">
+      <c r="K60">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A60,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L60" t="e">
+        <v>8</v>
+      </c>
+      <c r="L60">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A60,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="M60" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A60,armynavy!$B$2:$B$131,0))</f>
@@ -19036,13 +19036,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A61,'w13'!$B$2:$B$131,0))</f>
         <v>57</v>
       </c>
-      <c r="K61" t="e">
+      <c r="K61">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A61,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L61" t="e">
+        <v>45</v>
+      </c>
+      <c r="L61">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A61,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>52</v>
       </c>
       <c r="M61" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A61,armynavy!$B$2:$B$131,0))</f>
@@ -19097,13 +19097,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A62,'w13'!$B$2:$B$131,0))</f>
         <v>95</v>
       </c>
-      <c r="K62" t="e">
+      <c r="K62">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A62,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L62" t="e">
+        <v>79</v>
+      </c>
+      <c r="L62">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A62,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>80</v>
       </c>
       <c r="M62" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A62,armynavy!$B$2:$B$131,0))</f>
@@ -19158,13 +19158,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A63,'w13'!$B$2:$B$131,0))</f>
         <v>32</v>
       </c>
-      <c r="K63" t="e">
+      <c r="K63">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A63,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L63" t="e">
+        <v>28</v>
+      </c>
+      <c r="L63">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A63,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>26</v>
       </c>
       <c r="M63" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A63,armynavy!$B$2:$B$131,0))</f>
@@ -19219,13 +19219,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A64,'w13'!$B$2:$B$131,0))</f>
         <v>28</v>
       </c>
-      <c r="K64" t="e">
+      <c r="K64">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A64,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L64" t="e">
+        <v>26</v>
+      </c>
+      <c r="L64">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A64,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>24</v>
       </c>
       <c r="M64" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A64,armynavy!$B$2:$B$131,0))</f>
@@ -19280,13 +19280,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A65,'w13'!$B$2:$B$131,0))</f>
         <v>106</v>
       </c>
-      <c r="K65" t="e">
+      <c r="K65">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A65,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L65" t="e">
+        <v>107</v>
+      </c>
+      <c r="L65">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A65,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>106</v>
       </c>
       <c r="M65" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A65,armynavy!$B$2:$B$131,0))</f>
@@ -19341,13 +19341,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A66,'w13'!$B$2:$B$131,0))</f>
         <v>34</v>
       </c>
-      <c r="K66" t="e">
+      <c r="K66">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A66,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L66" t="e">
+        <v>32</v>
+      </c>
+      <c r="L66">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A66,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>27</v>
       </c>
       <c r="M66" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A66,armynavy!$B$2:$B$131,0))</f>
@@ -19402,13 +19402,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A67,'w13'!$B$2:$B$131,0))</f>
         <v>92</v>
       </c>
-      <c r="K67" t="e">
+      <c r="K67">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A67,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L67" t="e">
+        <v>97</v>
+      </c>
+      <c r="L67">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A67,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>97</v>
       </c>
       <c r="M67" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A67,armynavy!$B$2:$B$131,0))</f>
@@ -19463,13 +19463,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A68,'w13'!$B$2:$B$131,0))</f>
         <v>53</v>
       </c>
-      <c r="K68" t="e">
+      <c r="K68">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A68,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L68" t="e">
+        <v>68</v>
+      </c>
+      <c r="L68">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A68,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>66</v>
       </c>
       <c r="M68" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A68,armynavy!$B$2:$B$131,0))</f>
@@ -19524,13 +19524,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A69,'w13'!$B$2:$B$131,0))</f>
         <v>108</v>
       </c>
-      <c r="K69" t="e">
+      <c r="K69">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A69,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L69" t="e">
+        <v>111</v>
+      </c>
+      <c r="L69">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A69,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>111</v>
       </c>
       <c r="M69" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A69,armynavy!$B$2:$B$131,0))</f>
@@ -19585,13 +19585,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A70,'w13'!$B$2:$B$131,0))</f>
         <v>111</v>
       </c>
-      <c r="K70" t="e">
+      <c r="K70">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A70,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L70" t="e">
+        <v>113</v>
+      </c>
+      <c r="L70">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A70,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>113</v>
       </c>
       <c r="M70" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A70,armynavy!$B$2:$B$131,0))</f>
@@ -19646,13 +19646,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A71,'w13'!$B$2:$B$131,0))</f>
         <v>121</v>
       </c>
-      <c r="K71" t="e">
+      <c r="K71">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A71,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L71" t="e">
+        <v>122</v>
+      </c>
+      <c r="L71">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A71,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>123</v>
       </c>
       <c r="M71" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A71,armynavy!$B$2:$B$131,0))</f>
@@ -19707,13 +19707,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A72,'w13'!$B$2:$B$131,0))</f>
         <v>39</v>
       </c>
-      <c r="K72" t="e">
+      <c r="K72">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A72,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L72" t="e">
+        <v>36</v>
+      </c>
+      <c r="L72">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A72,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>38</v>
       </c>
       <c r="M72" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A72,armynavy!$B$2:$B$131,0))</f>
@@ -19768,13 +19768,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A73,'w13'!$B$2:$B$131,0))</f>
         <v>55</v>
       </c>
-      <c r="K73" t="e">
+      <c r="K73">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A73,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L73" t="e">
+        <v>64</v>
+      </c>
+      <c r="L73">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A73,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>53</v>
       </c>
       <c r="M73" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A73,armynavy!$B$2:$B$131,0))</f>
@@ -19829,13 +19829,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A74,'w13'!$B$2:$B$131,0))</f>
         <v>25</v>
       </c>
-      <c r="K74" t="e">
+      <c r="K74">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A74,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L74" t="e">
+        <v>22</v>
+      </c>
+      <c r="L74">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A74,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>31</v>
       </c>
       <c r="M74" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A74,armynavy!$B$2:$B$131,0))</f>
@@ -19890,13 +19890,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A75,'w13'!$B$2:$B$131,0))</f>
         <v>2</v>
       </c>
-      <c r="K75" t="e">
+      <c r="K75">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A75,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L75" t="e">
+        <v>2</v>
+      </c>
+      <c r="L75">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A75,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="M75" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A75,armynavy!$B$2:$B$131,0))</f>
@@ -19951,13 +19951,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A76,'w13'!$B$2:$B$131,0))</f>
         <v>48</v>
       </c>
-      <c r="K76" t="e">
+      <c r="K76">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A76,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L76" t="e">
+        <v>42</v>
+      </c>
+      <c r="L76">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A76,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>40</v>
       </c>
       <c r="M76" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A76,armynavy!$B$2:$B$131,0))</f>
@@ -20012,13 +20012,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A77,'w13'!$B$2:$B$131,0))</f>
         <v>9</v>
       </c>
-      <c r="K77" t="e">
+      <c r="K77">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A77,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L77" t="e">
+        <v>7</v>
+      </c>
+      <c r="L77">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A77,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="M77" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A77,armynavy!$B$2:$B$131,0))</f>
@@ -20073,13 +20073,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A78,'w13'!$B$2:$B$131,0))</f>
         <v>7</v>
       </c>
-      <c r="K78" t="e">
+      <c r="K78">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A78,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L78" t="e">
+        <v>5</v>
+      </c>
+      <c r="L78">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A78,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="M78" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A78,armynavy!$B$2:$B$131,0))</f>
@@ -20134,13 +20134,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A79,'w13'!$B$2:$B$131,0))</f>
         <v>66</v>
       </c>
-      <c r="K79" t="e">
+      <c r="K79">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A79,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L79" t="e">
+        <v>80</v>
+      </c>
+      <c r="L79">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A79,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>81</v>
       </c>
       <c r="M79" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A79,armynavy!$B$2:$B$131,0))</f>
@@ -20195,13 +20195,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A80,'w13'!$B$2:$B$131,0))</f>
         <v>98</v>
       </c>
-      <c r="K80" t="e">
+      <c r="K80">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A80,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L80" t="e">
+        <v>102</v>
+      </c>
+      <c r="L80">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A80,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>101</v>
       </c>
       <c r="M80" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A80,armynavy!$B$2:$B$131,0))</f>
@@ -20256,13 +20256,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A81,'w13'!$B$2:$B$131,0))</f>
         <v>93</v>
       </c>
-      <c r="K81" t="e">
+      <c r="K81">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A81,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L81" t="e">
+        <v>99</v>
+      </c>
+      <c r="L81">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A81,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>98</v>
       </c>
       <c r="M81" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A81,armynavy!$B$2:$B$131,0))</f>
@@ -20317,13 +20317,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A82,'w13'!$B$2:$B$131,0))</f>
         <v>45</v>
       </c>
-      <c r="K82" t="e">
+      <c r="K82">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A82,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L82" t="e">
+        <v>40</v>
+      </c>
+      <c r="L82">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A82,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>39</v>
       </c>
       <c r="M82" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A82,armynavy!$B$2:$B$131,0))</f>
@@ -20378,13 +20378,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A83,'w13'!$B$2:$B$131,0))</f>
         <v>123</v>
       </c>
-      <c r="K83" t="e">
+      <c r="K83">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A83,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L83" t="e">
+        <v>124</v>
+      </c>
+      <c r="L83">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A83,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>124</v>
       </c>
       <c r="M83" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A83,armynavy!$B$2:$B$131,0))</f>
@@ -20439,13 +20439,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A84,'w13'!$B$2:$B$131,0))</f>
         <v>14</v>
       </c>
-      <c r="K84" t="e">
+      <c r="K84">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A84,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L84" t="e">
+        <v>10</v>
+      </c>
+      <c r="L84">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A84,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="M84" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A84,armynavy!$B$2:$B$131,0))</f>
@@ -20500,13 +20500,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A85,'w13'!$B$2:$B$131,0))</f>
         <v>21</v>
       </c>
-      <c r="K85" t="e">
+      <c r="K85">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A85,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L85" t="e">
+        <v>39</v>
+      </c>
+      <c r="L85">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A85,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>41</v>
       </c>
       <c r="M85" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A85,armynavy!$B$2:$B$131,0))</f>
@@ -20561,13 +20561,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A86,'w13'!$B$2:$B$131,0))</f>
         <v>70</v>
       </c>
-      <c r="K86" t="e">
+      <c r="K86">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A86,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L86" t="e">
+        <v>56</v>
+      </c>
+      <c r="L86">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A86,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>56</v>
       </c>
       <c r="M86" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A86,armynavy!$B$2:$B$131,0))</f>
@@ -20622,13 +20622,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A87,'w13'!$B$2:$B$131,0))</f>
         <v>127</v>
       </c>
-      <c r="K87" t="e">
+      <c r="K87">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A87,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L87" t="e">
+        <v>121</v>
+      </c>
+      <c r="L87">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A87,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>121</v>
       </c>
       <c r="M87" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A87,armynavy!$B$2:$B$131,0))</f>
@@ -20683,13 +20683,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A88,'w13'!$B$2:$B$131,0))</f>
         <v>130</v>
       </c>
-      <c r="K88" t="e">
+      <c r="K88">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A88,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L88" t="e">
+        <v>130</v>
+      </c>
+      <c r="L88">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A88,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>130</v>
       </c>
       <c r="M88" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A88,armynavy!$B$2:$B$131,0))</f>
@@ -20744,13 +20744,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A89,'w13'!$B$2:$B$131,0))</f>
         <v>54</v>
       </c>
-      <c r="K89" t="e">
+      <c r="K89">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A89,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L89" t="e">
+        <v>63</v>
+      </c>
+      <c r="L89">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A89,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>62</v>
       </c>
       <c r="M89" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A89,armynavy!$B$2:$B$131,0))</f>
@@ -20805,13 +20805,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A90,'w13'!$B$2:$B$131,0))</f>
         <v>119</v>
       </c>
-      <c r="K90" t="e">
+      <c r="K90">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A90,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L90" t="e">
+        <v>120</v>
+      </c>
+      <c r="L90">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A90,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>120</v>
       </c>
       <c r="M90" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A90,armynavy!$B$2:$B$131,0))</f>
@@ -20866,13 +20866,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A91,'w13'!$B$2:$B$131,0))</f>
         <v>80</v>
       </c>
-      <c r="K91" t="e">
+      <c r="K91">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A91,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L91" t="e">
+        <v>89</v>
+      </c>
+      <c r="L91">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A91,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
       <c r="M91" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A91,armynavy!$B$2:$B$131,0))</f>
@@ -20927,13 +20927,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A92,'w13'!$B$2:$B$131,0))</f>
         <v>117</v>
       </c>
-      <c r="K92" t="e">
+      <c r="K92">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A92,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L92" t="e">
+        <v>108</v>
+      </c>
+      <c r="L92">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A92,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>107</v>
       </c>
       <c r="M92" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A92,armynavy!$B$2:$B$131,0))</f>
@@ -20988,13 +20988,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A93,'w13'!$B$2:$B$131,0))</f>
         <v>46</v>
       </c>
-      <c r="K93" t="e">
+      <c r="K93">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A93,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L93" t="e">
+        <v>53</v>
+      </c>
+      <c r="L93">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A93,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>44</v>
       </c>
       <c r="M93" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A93,armynavy!$B$2:$B$131,0))</f>
@@ -21049,13 +21049,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A94,'w13'!$B$2:$B$131,0))</f>
         <v>58</v>
       </c>
-      <c r="K94" t="e">
+      <c r="K94">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A94,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L94" t="e">
+        <v>65</v>
+      </c>
+      <c r="L94">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A94,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>64</v>
       </c>
       <c r="M94" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A94,armynavy!$B$2:$B$131,0))</f>
@@ -21110,13 +21110,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A95,'w13'!$B$2:$B$131,0))</f>
         <v>75</v>
       </c>
-      <c r="K95" t="e">
+      <c r="K95">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A95,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L95" t="e">
+        <v>75</v>
+      </c>
+      <c r="L95">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A95,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>75</v>
       </c>
       <c r="M95" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A95,armynavy!$B$2:$B$131,0))</f>
@@ -21171,13 +21171,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A96,'w13'!$B$2:$B$131,0))</f>
         <v>44</v>
       </c>
-      <c r="K96" t="e">
+      <c r="K96">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A96,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L96" t="e">
+        <v>38</v>
+      </c>
+      <c r="L96">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A96,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>30</v>
       </c>
       <c r="M96" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A96,armynavy!$B$2:$B$131,0))</f>
@@ -21232,13 +21232,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A97,'w13'!$B$2:$B$131,0))</f>
         <v>23</v>
       </c>
-      <c r="K97" t="e">
+      <c r="K97">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A97,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L97" t="e">
+        <v>16</v>
+      </c>
+      <c r="L97">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A97,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>14</v>
       </c>
       <c r="M97" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A97,armynavy!$B$2:$B$131,0))</f>
@@ -21293,13 +21293,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A98,'w13'!$B$2:$B$131,0))</f>
         <v>81</v>
       </c>
-      <c r="K98" t="e">
+      <c r="K98">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A98,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L98" t="e">
+        <v>69</v>
+      </c>
+      <c r="L98">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A98,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>68</v>
       </c>
       <c r="M98" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A98,armynavy!$B$2:$B$131,0))</f>
@@ -21354,13 +21354,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A99,'w13'!$B$2:$B$131,0))</f>
         <v>29</v>
       </c>
-      <c r="K99" t="e">
+      <c r="K99">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A99,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L99" t="e">
+        <v>29</v>
+      </c>
+      <c r="L99">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A99,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>28</v>
       </c>
       <c r="M99" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A99,armynavy!$B$2:$B$131,0))</f>
@@ -21415,13 +21415,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A100,'w13'!$B$2:$B$131,0))</f>
         <v>71</v>
       </c>
-      <c r="K100" t="e">
+      <c r="K100">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A100,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L100" t="e">
+        <v>87</v>
+      </c>
+      <c r="L100">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A100,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>88</v>
       </c>
       <c r="M100" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A100,armynavy!$B$2:$B$131,0))</f>
@@ -21476,13 +21476,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A101,'w13'!$B$2:$B$131,0))</f>
         <v>33</v>
       </c>
-      <c r="K101" t="e">
+      <c r="K101">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A101,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L101" t="e">
+        <v>27</v>
+      </c>
+      <c r="L101">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A101,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>25</v>
       </c>
       <c r="M101" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A101,armynavy!$B$2:$B$131,0))</f>
@@ -21537,13 +21537,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A102,'w13'!$B$2:$B$131,0))</f>
         <v>13</v>
       </c>
-      <c r="K102" t="e">
+      <c r="K102">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A102,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L102" t="e">
+        <v>12</v>
+      </c>
+      <c r="L102">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A102,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>19</v>
       </c>
       <c r="M102" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A102,armynavy!$B$2:$B$131,0))</f>
@@ -21598,13 +21598,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A103,'w13'!$B$2:$B$131,0))</f>
         <v>110</v>
       </c>
-      <c r="K103" t="e">
+      <c r="K103">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A103,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L103" t="e">
+        <v>112</v>
+      </c>
+      <c r="L103">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A103,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>112</v>
       </c>
       <c r="M103" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A103,armynavy!$B$2:$B$131,0))</f>
@@ -21659,13 +21659,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A104,'w13'!$B$2:$B$131,0))</f>
         <v>85</v>
       </c>
-      <c r="K104" t="e">
+      <c r="K104">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A104,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L104" t="e">
+        <v>95</v>
+      </c>
+      <c r="L104">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A104,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>95</v>
       </c>
       <c r="M104" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A104,armynavy!$B$2:$B$131,0))</f>
@@ -21720,13 +21720,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A105,'w13'!$B$2:$B$131,0))</f>
         <v>67</v>
       </c>
-      <c r="K105" t="e">
+      <c r="K105">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A105,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L105" t="e">
+        <v>62</v>
+      </c>
+      <c r="L105">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A105,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>61</v>
       </c>
       <c r="M105" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A105,armynavy!$B$2:$B$131,0))</f>
@@ -21781,13 +21781,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A106,'w13'!$B$2:$B$131,0))</f>
         <v>20</v>
       </c>
-      <c r="K106" t="e">
+      <c r="K106">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A106,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L106" t="e">
+        <v>31</v>
+      </c>
+      <c r="L106">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A106,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>34</v>
       </c>
       <c r="M106" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A106,armynavy!$B$2:$B$131,0))</f>
@@ -21842,13 +21842,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A107,'w13'!$B$2:$B$131,0))</f>
         <v>77</v>
       </c>
-      <c r="K107" t="e">
+      <c r="K107">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A107,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L107" t="e">
+        <v>74</v>
+      </c>
+      <c r="L107">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A107,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>74</v>
       </c>
       <c r="M107" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A107,armynavy!$B$2:$B$131,0))</f>
@@ -21903,13 +21903,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A108,'w13'!$B$2:$B$131,0))</f>
         <v>126</v>
       </c>
-      <c r="K108" t="e">
+      <c r="K108">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A108,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L108" t="e">
+        <v>119</v>
+      </c>
+      <c r="L108">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A108,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>119</v>
       </c>
       <c r="M108" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A108,armynavy!$B$2:$B$131,0))</f>
@@ -21964,13 +21964,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A109,'w13'!$B$2:$B$131,0))</f>
         <v>30</v>
       </c>
-      <c r="K109" t="e">
+      <c r="K109">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A109,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L109" t="e">
+        <v>37</v>
+      </c>
+      <c r="L109">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A109,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
       <c r="M109" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A109,armynavy!$B$2:$B$131,0))</f>
@@ -22025,13 +22025,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A110,'w13'!$B$2:$B$131,0))</f>
         <v>6</v>
       </c>
-      <c r="K110" t="e">
+      <c r="K110">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A110,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L110" t="e">
+        <v>6</v>
+      </c>
+      <c r="L110">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A110,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="M110" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A110,armynavy!$B$2:$B$131,0))</f>
@@ -22086,13 +22086,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A111,'w13'!$B$2:$B$131,0))</f>
         <v>102</v>
       </c>
-      <c r="K111" t="e">
+      <c r="K111">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A111,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L111" t="e">
+        <v>104</v>
+      </c>
+      <c r="L111">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A111,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>103</v>
       </c>
       <c r="M111" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A111,armynavy!$B$2:$B$131,0))</f>
@@ -22147,13 +22147,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A112,'w13'!$B$2:$B$131,0))</f>
         <v>129</v>
       </c>
-      <c r="K112" t="e">
+      <c r="K112">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A112,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L112" t="e">
+        <v>129</v>
+      </c>
+      <c r="L112">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A112,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>129</v>
       </c>
       <c r="M112" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A112,armynavy!$B$2:$B$131,0))</f>
@@ -22208,13 +22208,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A113,'w13'!$B$2:$B$131,0))</f>
         <v>79</v>
       </c>
-      <c r="K113" t="e">
+      <c r="K113">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A113,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L113" t="e">
+        <v>82</v>
+      </c>
+      <c r="L113">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A113,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>82</v>
       </c>
       <c r="M113" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A113,armynavy!$B$2:$B$131,0))</f>
@@ -22269,13 +22269,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A114,'w13'!$B$2:$B$131,0))</f>
         <v>104</v>
       </c>
-      <c r="K114" t="e">
+      <c r="K114">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A114,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L114" t="e">
+        <v>100</v>
+      </c>
+      <c r="L114">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A114,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>99</v>
       </c>
       <c r="M114" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A114,armynavy!$B$2:$B$131,0))</f>
@@ -22330,13 +22330,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A115,'w13'!$B$2:$B$131,0))</f>
         <v>109</v>
       </c>
-      <c r="K115" t="e">
+      <c r="K115">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A115,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L115" t="e">
+        <v>103</v>
+      </c>
+      <c r="L115">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A115,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>102</v>
       </c>
       <c r="M115" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A115,armynavy!$B$2:$B$131,0))</f>
@@ -22391,13 +22391,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A116,'w13'!$B$2:$B$131,0))</f>
         <v>90</v>
       </c>
-      <c r="K116" t="e">
+      <c r="K116">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A116,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L116" t="e">
+        <v>88</v>
+      </c>
+      <c r="L116">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A116,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>89</v>
       </c>
       <c r="M116" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A116,armynavy!$B$2:$B$131,0))</f>
@@ -22452,13 +22452,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A117,'w13'!$B$2:$B$131,0))</f>
         <v>12</v>
       </c>
-      <c r="K117" t="e">
+      <c r="K117">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A117,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L117" t="e">
+        <v>25</v>
+      </c>
+      <c r="L117">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A117,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>22</v>
       </c>
       <c r="M117" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A117,armynavy!$B$2:$B$131,0))</f>
@@ -22513,13 +22513,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A118,'w13'!$B$2:$B$131,0))</f>
         <v>15</v>
       </c>
-      <c r="K118" t="e">
+      <c r="K118">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A118,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L118" t="e">
+        <v>15</v>
+      </c>
+      <c r="L118">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A118,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>23</v>
       </c>
       <c r="M118" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A118,armynavy!$B$2:$B$131,0))</f>
@@ -22574,13 +22574,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A119,'w13'!$B$2:$B$131,0))</f>
         <v>125</v>
       </c>
-      <c r="K119" t="e">
+      <c r="K119">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A119,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L119" t="e">
+        <v>127</v>
+      </c>
+      <c r="L119">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A119,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>127</v>
       </c>
       <c r="M119" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A119,armynavy!$B$2:$B$131,0))</f>
@@ -22635,13 +22635,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A120,'w13'!$B$2:$B$131,0))</f>
         <v>112</v>
       </c>
-      <c r="K120" t="e">
+      <c r="K120">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A120,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L120" t="e">
+        <v>114</v>
+      </c>
+      <c r="L120">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A120,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>114</v>
       </c>
       <c r="M120" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A120,armynavy!$B$2:$B$131,0))</f>
@@ -22696,13 +22696,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A121,'w13'!$B$2:$B$131,0))</f>
         <v>82</v>
       </c>
-      <c r="K121" t="e">
+      <c r="K121">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A121,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L121" t="e">
+        <v>72</v>
+      </c>
+      <c r="L121">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A121,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>71</v>
       </c>
       <c r="M121" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A121,armynavy!$B$2:$B$131,0))</f>
@@ -22757,13 +22757,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A122,'w13'!$B$2:$B$131,0))</f>
         <v>52</v>
       </c>
-      <c r="K122" t="e">
+      <c r="K122">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A122,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L122" t="e">
+        <v>67</v>
+      </c>
+      <c r="L122">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A122,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>67</v>
       </c>
       <c r="M122" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A122,armynavy!$B$2:$B$131,0))</f>
@@ -22818,13 +22818,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A123,'w13'!$B$2:$B$131,0))</f>
         <v>97</v>
       </c>
-      <c r="K123" t="e">
+      <c r="K123">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A123,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L123" t="e">
+        <v>81</v>
+      </c>
+      <c r="L123">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A123,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>76</v>
       </c>
       <c r="M123" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A123,armynavy!$B$2:$B$131,0))</f>
@@ -22879,13 +22879,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A124,'w13'!$B$2:$B$131,0))</f>
         <v>87</v>
       </c>
-      <c r="K124" t="e">
+      <c r="K124">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A124,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L124" t="e">
+        <v>66</v>
+      </c>
+      <c r="L124">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A124,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>65</v>
       </c>
       <c r="M124" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A124,armynavy!$B$2:$B$131,0))</f>
@@ -22940,13 +22940,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A125,'w13'!$B$2:$B$131,0))</f>
         <v>24</v>
       </c>
-      <c r="K125" t="e">
+      <c r="K125">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A125,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L125" t="e">
+        <v>11</v>
+      </c>
+      <c r="L125">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A125,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="M125" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A125,armynavy!$B$2:$B$131,0))</f>
@@ -23001,13 +23001,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A126,'w13'!$B$2:$B$131,0))</f>
         <v>8</v>
       </c>
-      <c r="K126" t="e">
+      <c r="K126">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A126,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L126" t="e">
+        <v>9</v>
+      </c>
+      <c r="L126">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A126,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="M126" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A126,armynavy!$B$2:$B$131,0))</f>
@@ -23062,13 +23062,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A127,'w13'!$B$2:$B$131,0))</f>
         <v>11</v>
       </c>
-      <c r="K127" t="e">
+      <c r="K127">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A127,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L127" t="e">
+        <v>21</v>
+      </c>
+      <c r="L127">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A127,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>20</v>
       </c>
       <c r="M127" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A127,armynavy!$B$2:$B$131,0))</f>
@@ -23123,13 +23123,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A128,'w13'!$B$2:$B$131,0))</f>
         <v>118</v>
       </c>
-      <c r="K128" t="e">
+      <c r="K128">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A128,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L128" t="e">
+        <v>109</v>
+      </c>
+      <c r="L128">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A128,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>108</v>
       </c>
       <c r="M128" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A128,armynavy!$B$2:$B$131,0))</f>
@@ -23184,13 +23184,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A129,'w13'!$B$2:$B$131,0))</f>
         <v>73</v>
       </c>
-      <c r="K129" t="e">
+      <c r="K129">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A129,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L129" t="e">
+        <v>70</v>
+      </c>
+      <c r="L129">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A129,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>70</v>
       </c>
       <c r="M129" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A129,armynavy!$B$2:$B$131,0))</f>
@@ -23245,13 +23245,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A130,'w13'!$B$2:$B$131,0))</f>
         <v>43</v>
       </c>
-      <c r="K130" t="e">
+      <c r="K130">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A130,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L130" t="e">
+        <v>59</v>
+      </c>
+      <c r="L130">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A130,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>59</v>
       </c>
       <c r="M130" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A130,armynavy!$B$2:$B$131,0))</f>
@@ -23306,13 +23306,13 @@
         <f>INDEX('w13'!$A$2:$A$131,MATCH($A131,'w13'!$B$2:$B$131,0))</f>
         <v>83</v>
       </c>
-      <c r="K131" t="e">
+      <c r="K131">
         <f>INDEX('w14'!$A$2:$A$131,MATCH($A131,'w14'!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L131" t="e">
+        <v>77</v>
+      </c>
+      <c r="L131">
         <f>INDEX(champ!$A$2:$A$131,MATCH($A131,champ!$B$2:$B$131,0))</f>
-        <v>#N/A</v>
+        <v>78</v>
       </c>
       <c r="M131" t="e">
         <f>INDEX(armynavy!$A$2:$A$131,MATCH($A131,armynavy!$B$2:$B$131,0))</f>
@@ -24738,9 +24738,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F131"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24773,650 +24771,2600 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.98083644364118405</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.94853685251008502</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.88184302143230997</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.86544756104407305</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.864205753093924</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.83119734560066305</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.79718715534050899</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.73163824569149905</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.72630357157785796</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.68439920952993505</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.67523472083283798</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.669526648525261</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.66436530886254797</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.66211625259543605</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.661399069141687</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.65311671147954298</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.63631122994414602</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.63587672857662103</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.63404306835740898</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.631140465972715</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.62393452380188197</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.62112717161995201</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.619546669845363</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.61937213639049604</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.61632498863957297</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.61607596758694005</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.60729374222957899</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.60568927956610896</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.60490102878983998</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.59185067666749402</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.589245192683575</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.58890693830952501</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.58878697842480698</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.58830832139939204</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.58229334614497397</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.56496929123180395</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.55908030845503398</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.54564925797071695</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.53249760212258701</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.52399786821942596</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.52275336141453099</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.51442849484624997</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.509441900301006</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.50591383747712404</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.505443946498081</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.50021901104238997</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0.49417256010813398</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.48982388137175198</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.48960941079487402</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.48607258505572398</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.48315940000665603</v>
+      </c>
+      <c r="E53">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.48305885400794202</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.47664682976856598</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.47205796313590997</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.47102919469173898</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.46853845500890601</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.46758165184981398</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0.46316010826228998</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0.46113089888567399</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0.449536973965593</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0.44907449117766102</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0.44746045799716799</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.442881772565339</v>
+      </c>
+      <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0.44002838428906899</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0.43959324125404697</v>
+      </c>
+      <c r="E67">
+        <v>7</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0.43934489046632402</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0.43695934709726802</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0.43575869974786102</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0.434322136893039</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0.425640442452909</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0.42523651965185499</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0.42077484836247903</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0.41887720493228497</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0.41791749797219102</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0.41048109625948598</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0.40422521399866701</v>
+      </c>
+      <c r="E78">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0.401817110923822</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0.3976725807682</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0.3912812520799</v>
+      </c>
+      <c r="E81">
+        <v>6</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0.38332206793570001</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0.36065931773690901</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0.35885189549131802</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0.35812853854497501</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0.35314847026332902</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0.34889722687860802</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0.34552544161006798</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0.34069508934306603</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0.337533061714271</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0.33390939794795599</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0.33137639629868898</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0.32678509930341998</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0.32672556919627699</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="7">
+        <v>0.321864913899921</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0.31937992438447399</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="7">
+        <v>0.30717535285424002</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="7">
+        <v>0.29915598597653797</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="7">
+        <v>0.27736373351039501</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+      <c r="F99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="7">
+        <v>0.26446131037750098</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" s="7">
+        <v>0.26409513407401197</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="7">
+        <v>0.260774676986742</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="7">
+        <v>0.26001683667463299</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0.242531653604798</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" t="s">
+        <v>50</v>
+      </c>
+      <c r="D105" s="7">
+        <v>0.239306797459961</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>128</v>
+      </c>
+      <c r="C106" t="s">
+        <v>50</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0.238156058440712</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="7">
+        <v>0.22360729373048699</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" t="s">
+        <v>72</v>
+      </c>
+      <c r="D108" s="7">
+        <v>0.21545048184187901</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="7">
+        <v>0.209118418682468</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="7">
+        <v>0.20714175454709</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111" s="7">
+        <v>0.205099157510823</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" s="7">
+        <v>0.198697210415265</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" t="s">
+        <v>72</v>
+      </c>
+      <c r="D113" s="7">
+        <v>0.187377935361351</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>152</v>
+      </c>
+      <c r="C114" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="7">
+        <v>0.17897907507471</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0.175961207317226</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" s="7">
+        <v>0.170472002282198</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>101</v>
+      </c>
+      <c r="C117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0.15998835354705901</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>140</v>
+      </c>
+      <c r="C118" t="s">
+        <v>72</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0.15770504321533499</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="7">
+        <v>0.157517862919929</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120" s="7">
+        <v>0.15180441899539099</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>155</v>
+      </c>
+      <c r="C121" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" s="7">
+        <v>0.131696824464998</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="7">
+        <v>0.111582569033554</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123" t="s">
+        <v>50</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0.111081945229003</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" s="7">
+        <v>0.110741952697402</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" s="7">
+        <v>8.6836523192089496E-2</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>149</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="7">
+        <v>8.3437398170640095E-2</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>118</v>
+      </c>
+      <c r="C127" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" s="7">
+        <v>7.9160755273537706E-2</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="7">
+        <v>7.04153856669536E-2</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>154</v>
+      </c>
+      <c r="C129" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" s="7">
+        <v>4.4944437157670498E-2</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" s="7">
+        <v>2.0117119347534702E-2</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="7">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -25429,8 +27377,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F131"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25464,781 +27412,2601 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.98014754003567495</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.96638776622725497</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.90044781051247402</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.86695178486685898</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.85973569360195101</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.85052960886939799</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.82381865511543995</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.75611328044471404</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.70732014781247698</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.70148469756750798</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.69368920077538199</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.69195830090264199</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.68840918109231497</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.68830558600358505</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.686627160574938</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.68430411358551102</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.68356333582576301</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.66259200125390405</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.65765014273614897</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.65530736188951</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.64806461194291598</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.64642861677544705</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.64469670136200896</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.64438965605281295</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.64033405267827004</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.64015377732330903</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.63700638278603905</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.62737959684637001</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.62555112575737604</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.608216618115344</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.60687941206790497</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.60185514811112595</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.60010709412394703</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.58500564237265595</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.57787843480714196</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.57184200280250497</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.56966624603415095</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.56952581170017302</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.56400552204426901</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.56388696712757003</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.55103772091701697</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.54035638336203395</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.53175764063530795</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.52870255251739795</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.52783952638657405</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.52296286326286301</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.52247751354521199</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.517080685214242</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.51083531472487798</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.50979579447512002</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.506343570701279</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.49937281985064502</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.49226885320493302</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.48799317926123797</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.486930565812213</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.48435788436966198</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.484302134739931</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.47880259773654199</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.47670663028468402</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.47661272200944599</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.46567192024007797</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.46343756253088902</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.45829219964578599</v>
+      </c>
+      <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.45785713390789101</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.45490987325381899</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.454203893465568</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.45364603279160098</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.45173986914449099</v>
+      </c>
+      <c r="E70">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.45065340724274799</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.44064525557617501</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.440048588787395</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.436307169192165</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.43306285046203002</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.43207157052076001</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.41792883006192599</v>
+      </c>
+      <c r="E77">
+        <v>7</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.414609631927154</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.41116062460550901</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0.40428611225710598</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.39600186302985801</v>
+      </c>
+      <c r="E81">
+        <v>6</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.377967735628635</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.37292967835883101</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.37151954066565401</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.371062794516198</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.360343379599733</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.35729791943446898</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.35230865551261098</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.34904260171441398</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.34529972461252501</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.34268339084551802</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.34106970903481099</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.33794104677063103</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.33787955820842902</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.33285899433105498</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.33029225222814201</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.31768616781613901</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0.30940297528121902</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.29401662404066897</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.28689378899513501</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.27356689466461998</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0.27318867168645</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+      <c r="F102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.26975897632804502</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.268383181135536</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.25054958511932701</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.24983692067553301</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" t="s">
+        <v>50</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0.248939222448786</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0.231368839522266</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" t="s">
+        <v>72</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.22294368023290501</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0.21640330128621801</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0.21389520560752101</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0.20456033092352299</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" t="s">
+        <v>72</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0.19394758727570899</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>152</v>
+      </c>
+      <c r="C114" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0.185272416543519</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0.18215526526943501</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0.17587332047233101</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>101</v>
+      </c>
+      <c r="C117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.165656927541766</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>140</v>
+      </c>
+      <c r="C118" t="s">
+        <v>72</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0.16329849957817699</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0.16310516131978001</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0.157203753292668</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>155</v>
+      </c>
+      <c r="C121" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0.13591869041232699</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0.115658662211859</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0.114790390805085</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0.11460447739879399</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" s="4">
+        <v>9.0098506989038707E-2</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>149</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="4">
+        <v>8.6587555634360505E-2</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>118</v>
+      </c>
+      <c r="C127" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" s="4">
+        <v>8.2170217325734804E-2</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="4">
+        <v>7.3137137614443307E-2</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>154</v>
+      </c>
+      <c r="C129" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" s="4">
+        <v>4.7467712513650402E-2</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" s="4">
+        <v>2.07887818627422E-2</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="D131" s="4"/>
+      <c r="B131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F132" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
@@ -26251,8 +30019,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
